--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T418"/>
+  <dimension ref="A1:T419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44245</v>
+        <v>44518</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="N272" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O272" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P272" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="T272" t="n">
         <v>10</v>
@@ -22204,32 +22204,32 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="N273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T273" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274">
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,20 +22284,20 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="N274" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O274" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P274" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T274" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275">
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,20 +22364,20 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N275" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O275" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P275" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T275" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44323</v>
+        <v>44245</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N276" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O276" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P276" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22462,11 +22462,11 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S276" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T276" t="n">
         <v>15</v>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N277" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O277" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P277" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T277" t="n">
         <v>15</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44229</v>
+        <v>44323</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="N278" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O278" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P278" t="n">
-        <v>11527</v>
+        <v>10000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>768</v>
+        <v>667</v>
       </c>
       <c r="T278" t="n">
         <v>15</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44417</v>
+        <v>44229</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,20 +22684,20 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="N279" t="n">
         <v>11000</v>
       </c>
       <c r="O279" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P279" t="n">
-        <v>11000</v>
+        <v>11527</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1100</v>
+        <v>768</v>
       </c>
       <c r="T279" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280">
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N280" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O280" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P280" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T280" t="n">
         <v>10</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44249</v>
+        <v>44417</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22844,32 +22844,32 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N281" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O281" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P281" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S281" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="N282" t="n">
         <v>12000</v>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T282" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283">
@@ -23004,32 +23004,32 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N283" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O283" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P283" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S283" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T283" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44342</v>
+        <v>44249</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N284" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O284" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P284" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T284" t="n">
         <v>15</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44259</v>
+        <v>44342</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23164,7 +23164,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N285" t="n">
         <v>10000</v>
@@ -23182,7 +23182,7 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S285" t="n">
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="N286" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O286" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P286" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23262,11 +23262,11 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T286" t="n">
         <v>15</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N287" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O287" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P287" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T287" t="n">
         <v>15</v>
@@ -23395,41 +23395,41 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N288" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O288" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P288" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T288" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289">
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,32 +23484,32 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N289" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O289" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P289" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T289" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290">
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N290" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O290" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P290" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23582,11 +23582,11 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T290" t="n">
         <v>15</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N291" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O291" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P291" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T291" t="n">
         <v>15</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N292" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O292" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P292" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23742,11 +23742,11 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T292" t="n">
         <v>15</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N293" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O293" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P293" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T293" t="n">
         <v>15</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N294" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O294" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P294" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T294" t="n">
         <v>15</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44406</v>
+        <v>44216</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,32 +23964,32 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="N295" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O295" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P295" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T295" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296">
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,20 +24044,20 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N296" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O296" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P296" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T296" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44295</v>
+        <v>44406</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N297" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O297" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P297" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T297" t="n">
         <v>15</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24204,7 +24204,7 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N298" t="n">
         <v>10000</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N299" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O299" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P299" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T299" t="n">
         <v>15</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44270</v>
+        <v>44295</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N300" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O300" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P300" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24382,11 +24382,11 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T300" t="n">
         <v>15</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N301" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O301" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P301" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T301" t="n">
         <v>15</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N302" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O302" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P302" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T302" t="n">
         <v>15</v>
@@ -24607,13 +24607,13 @@
         <v>75</v>
       </c>
       <c r="N303" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O303" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P303" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24622,11 +24622,11 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T303" t="n">
         <v>15</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44363</v>
+        <v>44270</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N304" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O304" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P304" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T304" t="n">
         <v>15</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24764,7 +24764,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="N305" t="n">
         <v>12000</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="N306" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O306" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P306" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T306" t="n">
         <v>15</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44299</v>
+        <v>44363</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24924,7 +24924,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N307" t="n">
         <v>11000</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N308" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O308" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P308" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25022,11 +25022,11 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S308" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T308" t="n">
         <v>15</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N309" t="n">
         <v>13000</v>
@@ -25102,7 +25102,7 @@
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S309" t="n">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44257</v>
+        <v>44299</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N310" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O310" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P310" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T310" t="n">
         <v>15</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,7 +25244,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N311" t="n">
         <v>10000</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N312" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O312" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P312" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T312" t="n">
         <v>15</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44336</v>
+        <v>44257</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25395,25 +25395,25 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N313" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O313" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P313" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T313" t="n">
         <v>15</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="N314" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O314" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P314" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T314" t="n">
         <v>15</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N315" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O315" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P315" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25582,11 +25582,11 @@
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T315" t="n">
         <v>15</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44372</v>
+        <v>44336</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N316" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O316" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P316" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25662,11 +25662,11 @@
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S316" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T316" t="n">
         <v>15</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,7 +25724,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N317" t="n">
         <v>12000</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44195</v>
+        <v>44372</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25807,13 +25807,13 @@
         <v>70</v>
       </c>
       <c r="N318" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O318" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P318" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25822,11 +25822,11 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T318" t="n">
         <v>15</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,32 +25884,32 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N319" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O319" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P319" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1400</v>
+        <v>867</v>
       </c>
       <c r="T319" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320">
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N320" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O320" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P320" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25982,11 +25982,11 @@
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T320" t="n">
         <v>10</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44376</v>
+        <v>44195</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26044,32 +26044,32 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N321" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="O321" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="P321" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>812</v>
+        <v>1300</v>
       </c>
       <c r="T321" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44172</v>
+        <v>44376</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,32 +26124,32 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N322" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="O322" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="P322" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1417</v>
+        <v>812</v>
       </c>
       <c r="T322" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E323" t="n">
         <v>5</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,32 +26204,32 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N323" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O323" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P323" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S323" t="n">
-        <v>800</v>
+        <v>1417</v>
       </c>
       <c r="T323" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324">
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26284,7 +26284,7 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="N324" t="n">
         <v>12000</v>
@@ -26297,7 +26297,7 @@
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T324" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,20 +26364,20 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="N325" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O325" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P325" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T325" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N326" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O326" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P326" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26462,11 +26462,11 @@
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T326" t="n">
         <v>15</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E327" t="n">
         <v>5</v>
@@ -26524,32 +26524,32 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N327" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O327" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P327" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T327" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328">
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,7 +26604,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N328" t="n">
         <v>12000</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44362</v>
+        <v>44222</v>
       </c>
       <c r="E329" t="n">
         <v>5</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,7 +26684,7 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N329" t="n">
         <v>12000</v>
@@ -26697,7 +26697,7 @@
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26706,10 +26706,10 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T329" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330">
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,7 +26764,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N330" t="n">
         <v>12000</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N331" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O331" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P331" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T331" t="n">
         <v>15</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="N332" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O332" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P332" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26942,11 +26942,11 @@
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T332" t="n">
         <v>15</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,32 +27004,32 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="N333" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O333" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P333" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T333" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334">
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N334" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O334" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P334" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27102,11 +27102,11 @@
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T334" t="n">
         <v>10</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,20 +27164,20 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N335" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O335" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T335" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,32 +27244,32 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N336" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O336" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P336" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1875</v>
+        <v>867</v>
       </c>
       <c r="T336" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,32 +27324,32 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N337" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O337" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P337" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>800</v>
+        <v>1875</v>
       </c>
       <c r="T337" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338">
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N338" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O338" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P338" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T338" t="n">
         <v>15</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27487,13 +27487,13 @@
         <v>85</v>
       </c>
       <c r="N339" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O339" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P339" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T339" t="n">
         <v>15</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N340" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O340" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P340" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27582,11 +27582,11 @@
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T340" t="n">
         <v>15</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,7 +27644,7 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N341" t="n">
         <v>13000</v>
@@ -27662,7 +27662,7 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S341" t="n">
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E342" t="n">
         <v>5</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N342" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O342" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P342" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T342" t="n">
         <v>15</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44284</v>
+        <v>44407</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N343" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O343" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27822,11 +27822,11 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T343" t="n">
         <v>15</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,7 +27884,7 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="N344" t="n">
         <v>10000</v>
@@ -27902,7 +27902,7 @@
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S344" t="n">
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="N345" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O345" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P345" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T345" t="n">
         <v>15</v>
@@ -28035,25 +28035,25 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N346" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O346" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P346" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28062,11 +28062,11 @@
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T346" t="n">
         <v>15</v>
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N347" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O347" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P347" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28142,11 +28142,11 @@
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S347" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T347" t="n">
         <v>15</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28207,13 +28207,13 @@
         <v>85</v>
       </c>
       <c r="N348" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O348" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P348" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T348" t="n">
         <v>15</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N349" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O349" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P349" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T349" t="n">
         <v>15</v>
@@ -28355,25 +28355,25 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N350" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O350" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P350" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T350" t="n">
         <v>15</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N351" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O351" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P351" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>567</v>
+        <v>667</v>
       </c>
       <c r="T351" t="n">
         <v>15</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28515,25 +28515,25 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N352" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P352" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>800</v>
+        <v>567</v>
       </c>
       <c r="T352" t="n">
         <v>15</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N353" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O353" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P353" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T353" t="n">
         <v>15</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N354" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O354" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P354" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28702,11 +28702,11 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T354" t="n">
         <v>15</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O355" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P355" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T355" t="n">
         <v>15</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N356" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O356" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P356" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28862,11 +28862,11 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T356" t="n">
         <v>15</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N357" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O357" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P357" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28942,11 +28942,11 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S357" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T357" t="n">
         <v>15</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N358" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O358" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P358" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T358" t="n">
         <v>15</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N359" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O359" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P359" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T359" t="n">
         <v>15</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44384</v>
+        <v>44312</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N360" t="n">
         <v>13000</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N361" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O361" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P361" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29262,11 +29262,11 @@
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S361" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T361" t="n">
         <v>15</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29327,13 +29327,13 @@
         <v>75</v>
       </c>
       <c r="N362" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O362" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P362" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29342,11 +29342,11 @@
       </c>
       <c r="R362" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S362" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T362" t="n">
         <v>15</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N363" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O363" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P363" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29422,11 +29422,11 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S363" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T363" t="n">
         <v>15</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44246</v>
+        <v>44329</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29487,13 +29487,13 @@
         <v>58</v>
       </c>
       <c r="N364" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O364" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P364" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29502,11 +29502,11 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T364" t="n">
         <v>15</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N365" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O365" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P365" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29582,11 +29582,11 @@
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T365" t="n">
         <v>15</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N366" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O366" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P366" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29662,11 +29662,11 @@
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T366" t="n">
         <v>15</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N367" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O367" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P367" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T367" t="n">
         <v>15</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N368" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O368" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P368" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T368" t="n">
         <v>15</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Blanca Italia</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N369" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O369" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P369" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T369" t="n">
         <v>15</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Blanca Italia</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N370" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O370" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P370" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T370" t="n">
         <v>15</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="N371" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O371" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P371" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T371" t="n">
         <v>15</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Ribier</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N372" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O372" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P372" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T372" t="n">
         <v>15</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Ribier</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N373" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O373" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P373" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30222,11 +30222,11 @@
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T373" t="n">
         <v>15</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30287,13 +30287,13 @@
         <v>70</v>
       </c>
       <c r="N374" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O374" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P374" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30302,11 +30302,11 @@
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T374" t="n">
         <v>15</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N375" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O375" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P375" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T375" t="n">
         <v>15</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N376" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O376" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P376" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T376" t="n">
         <v>15</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N377" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O377" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P377" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T377" t="n">
         <v>15</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N378" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O378" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P378" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T378" t="n">
         <v>15</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,7 +30684,7 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N379" t="n">
         <v>13000</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30767,13 +30767,13 @@
         <v>60</v>
       </c>
       <c r="N380" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O380" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P380" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T380" t="n">
         <v>15</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N381" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T381" t="n">
         <v>15</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N382" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O382" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P382" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T382" t="n">
         <v>15</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N383" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O383" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P383" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T383" t="n">
         <v>15</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N384" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O384" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P384" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31102,11 +31102,11 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T384" t="n">
         <v>15</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31167,13 +31167,13 @@
         <v>70</v>
       </c>
       <c r="N385" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O385" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P385" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31182,11 +31182,11 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T385" t="n">
         <v>15</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,7 +31244,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N386" t="n">
         <v>12000</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31327,13 +31327,13 @@
         <v>60</v>
       </c>
       <c r="N387" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O387" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P387" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T387" t="n">
         <v>15</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N388" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O388" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P388" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31422,11 +31422,11 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1667</v>
+        <v>667</v>
       </c>
       <c r="T388" t="n">
         <v>15</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,32 +31484,32 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N389" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O389" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P389" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>2100</v>
+        <v>1667</v>
       </c>
       <c r="T389" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,32 +31564,32 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N390" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O390" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P390" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>667</v>
+        <v>2100</v>
       </c>
       <c r="T390" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391">
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31647,13 +31647,13 @@
         <v>60</v>
       </c>
       <c r="N391" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O391" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P391" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T391" t="n">
         <v>15</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31727,13 +31727,13 @@
         <v>60</v>
       </c>
       <c r="N392" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O392" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P392" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T392" t="n">
         <v>15</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,20 +31804,20 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N393" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O393" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P393" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,10 +31826,10 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1300</v>
+        <v>733</v>
       </c>
       <c r="T393" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,7 +31884,7 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N394" t="n">
         <v>13000</v>
@@ -31897,19 +31897,19 @@
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T394" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395">
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N395" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O395" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P395" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T395" t="n">
         <v>15</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32035,25 +32035,25 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N396" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O396" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P396" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32062,11 +32062,11 @@
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T396" t="n">
         <v>15</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N397" t="n">
         <v>13000</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N398" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O398" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P398" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32222,11 +32222,11 @@
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T398" t="n">
         <v>15</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N399" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O399" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P399" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T399" t="n">
         <v>15</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N400" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O400" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P400" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32382,11 +32382,11 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T400" t="n">
         <v>15</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="N401" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O401" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P401" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T401" t="n">
         <v>15</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N402" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O402" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P402" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T402" t="n">
         <v>15</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44181</v>
+        <v>44330</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N403" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O403" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P403" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32622,11 +32622,11 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T403" t="n">
         <v>15</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N404" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O404" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P404" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T404" t="n">
         <v>15</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32767,29 +32767,29 @@
         <v>50</v>
       </c>
       <c r="N405" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O405" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P405" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1400</v>
+        <v>867</v>
       </c>
       <c r="T405" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="406">
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N406" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O406" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P406" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T406" t="n">
         <v>10</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,32 +32924,32 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N407" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O407" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P407" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T407" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408">
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N408" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O408" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P408" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T408" t="n">
         <v>15</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N409" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O409" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P409" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T409" t="n">
         <v>15</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N410" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O410" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P410" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T410" t="n">
         <v>15</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N411" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O411" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P411" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T411" t="n">
         <v>15</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N412" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O412" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P412" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T412" t="n">
         <v>15</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N413" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O413" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P413" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T413" t="n">
         <v>15</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N414" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O414" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P414" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T414" t="n">
         <v>15</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N415" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P415" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T415" t="n">
         <v>15</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N416" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O416" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P416" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T416" t="n">
         <v>15</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,7 +33724,7 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N417" t="n">
         <v>13000</v>
@@ -33742,7 +33742,7 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S417" t="n">
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33817,18 +33817,98 @@
       </c>
       <c r="Q418" t="inlineStr">
         <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S418" t="n">
+        <v>867</v>
+      </c>
+      <c r="T418" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>3</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D419" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E419" t="n">
+        <v>5</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G419" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I419" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M419" t="n">
+        <v>60</v>
+      </c>
+      <c r="N419" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O419" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P419" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R418" t="inlineStr">
+      <c r="R419" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S418" t="n">
+      <c r="S419" t="n">
         <v>1300</v>
       </c>
-      <c r="T418" t="n">
+      <c r="T419" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T421"/>
+  <dimension ref="A1:T423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44245</v>
+        <v>44529</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,32 +22364,32 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N275" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O275" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P275" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>800</v>
+        <v>1667</v>
       </c>
       <c r="T275" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44245</v>
+        <v>44529</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -22444,32 +22444,32 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="N276" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O276" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P276" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S276" t="n">
-        <v>667</v>
+        <v>2222</v>
       </c>
       <c r="T276" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277">
@@ -22515,7 +22515,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N277" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O277" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P277" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22542,11 +22542,11 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T277" t="n">
         <v>10</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="N278" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O278" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P278" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T278" t="n">
         <v>15</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44323</v>
+        <v>44245</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,32 +22684,32 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N279" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O279" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P279" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T279" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44323</v>
+        <v>44245</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N280" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O280" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P280" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22782,11 +22782,11 @@
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S280" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T280" t="n">
         <v>15</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44229</v>
+        <v>44323</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="N281" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O281" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P281" t="n">
-        <v>11527</v>
+        <v>13000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>768</v>
+        <v>867</v>
       </c>
       <c r="T281" t="n">
         <v>15</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44417</v>
+        <v>44323</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,20 +22924,20 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N282" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O282" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P282" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="T282" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44417</v>
+        <v>44229</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,20 +23004,20 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="N283" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O283" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P283" t="n">
-        <v>10000</v>
+        <v>11527</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1000</v>
+        <v>768</v>
       </c>
       <c r="T283" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44249</v>
+        <v>44417</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23084,32 +23084,32 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N284" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O284" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P284" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S284" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T284" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44249</v>
+        <v>44417</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23164,32 +23164,32 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N285" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O285" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P285" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S285" t="n">
         <v>1000</v>
       </c>
       <c r="T285" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N286" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O286" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P286" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23262,11 +23262,11 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T286" t="n">
         <v>15</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44342</v>
+        <v>44249</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23324,32 +23324,32 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="N287" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O287" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P287" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T287" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N288" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O288" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P288" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23422,11 +23422,11 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S288" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T288" t="n">
         <v>15</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44259</v>
+        <v>44342</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N289" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O289" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P289" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T289" t="n">
         <v>15</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N290" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O290" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P290" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23582,11 +23582,11 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T290" t="n">
         <v>15</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23644,32 +23644,32 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N291" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O291" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P291" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T291" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292">
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="N292" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O292" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P292" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23742,11 +23742,11 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T292" t="n">
         <v>15</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,32 +23804,32 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N293" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O293" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P293" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T293" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294">
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N294" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O294" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P294" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23902,11 +23902,11 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S294" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T294" t="n">
         <v>15</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23967,13 +23967,13 @@
         <v>70</v>
       </c>
       <c r="N295" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O295" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P295" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23982,11 +23982,11 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T295" t="n">
         <v>15</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24035,25 +24035,25 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N296" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O296" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P296" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T296" t="n">
         <v>15</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N297" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O297" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P297" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T297" t="n">
         <v>15</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44406</v>
+        <v>44216</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24204,32 +24204,32 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N298" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O298" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P298" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T298" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44406</v>
+        <v>44216</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N299" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O299" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P299" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24302,11 +24302,11 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T299" t="n">
         <v>15</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44295</v>
+        <v>44406</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N300" t="n">
         <v>10000</v>
@@ -24377,7 +24377,7 @@
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="T300" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301">
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44295</v>
+        <v>44406</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24447,13 +24447,13 @@
         <v>85</v>
       </c>
       <c r="N301" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O301" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P301" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T301" t="n">
         <v>15</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N302" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O302" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P302" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T302" t="n">
         <v>15</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44270</v>
+        <v>44295</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24622,7 +24622,7 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S303" t="n">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44270</v>
+        <v>44295</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N304" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O304" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P304" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T304" t="n">
         <v>15</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N305" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O305" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P305" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T305" t="n">
         <v>15</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N306" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O306" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P306" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T306" t="n">
         <v>15</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44363</v>
+        <v>44270</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,7 +24924,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N307" t="n">
         <v>12000</v>
@@ -24942,7 +24942,7 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S307" t="n">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44363</v>
+        <v>44270</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="N308" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O308" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P308" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T308" t="n">
         <v>15</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N309" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O309" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P309" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T309" t="n">
         <v>15</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44299</v>
+        <v>44363</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="N310" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O310" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P310" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T310" t="n">
         <v>15</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44299</v>
+        <v>44363</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N311" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O311" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P311" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25262,11 +25262,11 @@
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S311" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T311" t="n">
         <v>15</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N312" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O312" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P312" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T312" t="n">
         <v>15</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44257</v>
+        <v>44299</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N313" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O313" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P313" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25422,11 +25422,11 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S313" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T313" t="n">
         <v>15</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44257</v>
+        <v>44299</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N314" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O314" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P314" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T314" t="n">
         <v>15</v>
@@ -25555,25 +25555,25 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N315" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O315" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P315" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T315" t="n">
         <v>15</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44336</v>
+        <v>44257</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N316" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O316" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P316" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T316" t="n">
         <v>15</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44336</v>
+        <v>44257</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25715,25 +25715,25 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N317" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O317" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P317" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T317" t="n">
         <v>15</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N318" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O318" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P318" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25822,11 +25822,11 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T318" t="n">
         <v>15</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44372</v>
+        <v>44336</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N319" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O319" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T319" t="n">
         <v>15</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44372</v>
+        <v>44336</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N320" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O320" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P320" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25982,11 +25982,11 @@
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S320" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T320" t="n">
         <v>15</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44195</v>
+        <v>44372</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N321" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O321" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P321" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26062,11 +26062,11 @@
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T321" t="n">
         <v>15</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44195</v>
+        <v>44372</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,32 +26124,32 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N322" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O322" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P322" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T322" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323">
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26217,7 +26217,7 @@
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T323" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44376</v>
+        <v>44195</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26284,32 +26284,32 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N324" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O324" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="P324" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S324" t="n">
-        <v>812</v>
+        <v>1400</v>
       </c>
       <c r="T324" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,32 +26364,32 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N325" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O325" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P325" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1417</v>
+        <v>1300</v>
       </c>
       <c r="T325" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44242</v>
+        <v>44376</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26447,29 +26447,29 @@
         <v>85</v>
       </c>
       <c r="N326" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P326" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="T326" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E327" t="n">
         <v>5</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,32 +26524,32 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N327" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O327" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P327" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1200</v>
+        <v>1417</v>
       </c>
       <c r="T327" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328">
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N328" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O328" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T328" t="n">
         <v>15</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E329" t="n">
         <v>5</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,32 +26684,32 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="N329" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O329" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P329" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T329" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44222</v>
+        <v>44242</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,32 +26764,32 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N330" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O330" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P330" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T330" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,32 +26844,32 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N331" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O331" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P331" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T331" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44362</v>
+        <v>44222</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26924,7 +26924,7 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N332" t="n">
         <v>12000</v>
@@ -26937,7 +26937,7 @@
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,10 +26946,10 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T332" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44362</v>
+        <v>44222</v>
       </c>
       <c r="E333" t="n">
         <v>5</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,7 +27004,7 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N333" t="n">
         <v>12000</v>
@@ -27017,7 +27017,7 @@
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27026,10 +27026,10 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T333" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334">
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N334" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O334" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P334" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T334" t="n">
         <v>15</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E335" t="n">
         <v>5</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="N335" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O335" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27182,11 +27182,11 @@
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S335" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T335" t="n">
         <v>15</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44210</v>
+        <v>44362</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,32 +27244,32 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N336" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O336" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P336" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1300</v>
+        <v>733</v>
       </c>
       <c r="T336" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337">
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,20 +27324,20 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="N337" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O337" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P337" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27346,10 +27346,10 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T337" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338">
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,7 +27404,7 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N338" t="n">
         <v>13000</v>
@@ -27417,19 +27417,19 @@
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T338" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E339" t="n">
         <v>5</v>
@@ -27484,32 +27484,32 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N339" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O339" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P339" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1875</v>
+        <v>1200</v>
       </c>
       <c r="T339" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N340" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O340" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P340" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27582,11 +27582,11 @@
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T340" t="n">
         <v>15</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44301</v>
+        <v>44176</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,32 +27644,32 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N341" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O341" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P341" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>867</v>
+        <v>1875</v>
       </c>
       <c r="T341" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N342" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O342" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P342" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T342" t="n">
         <v>15</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,7 +27804,7 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N343" t="n">
         <v>13000</v>
@@ -27822,7 +27822,7 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S343" t="n">
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27887,13 +27887,13 @@
         <v>85</v>
       </c>
       <c r="N344" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O344" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P344" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T344" t="n">
         <v>15</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44407</v>
+        <v>44301</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N345" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O345" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P345" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27982,11 +27982,11 @@
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T345" t="n">
         <v>15</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44284</v>
+        <v>44301</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N346" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O346" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P346" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28062,11 +28062,11 @@
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T346" t="n">
         <v>15</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44284</v>
+        <v>44407</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="N347" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O347" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P347" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T347" t="n">
         <v>15</v>
@@ -28195,25 +28195,25 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N348" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O348" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P348" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28222,11 +28222,11 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T348" t="n">
         <v>15</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N349" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O349" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P349" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28302,11 +28302,11 @@
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T349" t="n">
         <v>15</v>
@@ -28355,25 +28355,25 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N350" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O350" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P350" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>933</v>
+        <v>600</v>
       </c>
       <c r="T350" t="n">
         <v>15</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N351" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O351" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P351" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T351" t="n">
         <v>15</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28515,25 +28515,25 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N352" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O352" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P352" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T352" t="n">
         <v>15</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N353" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O353" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P353" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T353" t="n">
         <v>15</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N354" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O354" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P354" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="T354" t="n">
         <v>15</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N355" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O355" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P355" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T355" t="n">
         <v>15</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44341</v>
+        <v>44279</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28835,25 +28835,25 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N356" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O356" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P356" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="T356" t="n">
         <v>15</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N357" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O357" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P357" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28942,11 +28942,11 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S357" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T357" t="n">
         <v>15</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29004,7 +29004,7 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N358" t="n">
         <v>10000</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N359" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O359" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P359" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T359" t="n">
         <v>15</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N360" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O360" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P360" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T360" t="n">
         <v>15</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N361" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O361" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P361" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29262,11 +29262,11 @@
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S361" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T361" t="n">
         <v>15</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,7 +29324,7 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N362" t="n">
         <v>13000</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44384</v>
+        <v>44312</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29407,13 +29407,13 @@
         <v>80</v>
       </c>
       <c r="N363" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O363" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P363" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T363" t="n">
         <v>15</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44329</v>
+        <v>44312</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N364" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O364" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P364" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29502,11 +29502,11 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T364" t="n">
         <v>15</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N365" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O365" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P365" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T365" t="n">
         <v>15</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N366" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O366" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P366" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T366" t="n">
         <v>15</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44246</v>
+        <v>44329</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N367" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O367" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P367" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T367" t="n">
         <v>15</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44246</v>
+        <v>44329</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N368" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O368" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P368" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T368" t="n">
         <v>15</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29884,7 +29884,7 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="N369" t="n">
         <v>11000</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,7 +29964,7 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N370" t="n">
         <v>10000</v>
@@ -29982,7 +29982,7 @@
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S370" t="n">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N371" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O371" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P371" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T371" t="n">
         <v>15</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Blanca Italia</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N372" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O372" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P372" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T372" t="n">
         <v>15</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,7 +30204,7 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N373" t="n">
         <v>12000</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Blanca Italia</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N374" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O374" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P374" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T374" t="n">
         <v>15</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Ribier</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,7 +30364,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N375" t="n">
         <v>12000</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30447,13 +30447,13 @@
         <v>70</v>
       </c>
       <c r="N376" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O376" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P376" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30462,11 +30462,11 @@
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S376" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T376" t="n">
         <v>15</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Ribier</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N377" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O377" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P377" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T377" t="n">
         <v>15</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N378" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O378" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P378" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30622,11 +30622,11 @@
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S378" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T378" t="n">
         <v>15</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N379" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O379" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P379" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T379" t="n">
         <v>15</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44315</v>
+        <v>44225</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N380" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O380" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P380" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T380" t="n">
         <v>15</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,7 +30844,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N381" t="n">
         <v>13000</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N382" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O382" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P382" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T382" t="n">
         <v>15</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N383" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O383" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P383" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T383" t="n">
         <v>15</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,7 +31084,7 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N384" t="n">
         <v>13000</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N385" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O385" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P385" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T385" t="n">
         <v>15</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N386" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O386" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P386" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T386" t="n">
         <v>15</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N387" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O387" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P387" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31342,11 +31342,11 @@
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T387" t="n">
         <v>15</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,7 +31404,7 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N388" t="n">
         <v>12000</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N389" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O389" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P389" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31502,11 +31502,11 @@
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T389" t="n">
         <v>15</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T390" t="n">
         <v>15</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N391" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O391" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P391" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31662,11 +31662,11 @@
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1667</v>
+        <v>800</v>
       </c>
       <c r="T391" t="n">
         <v>15</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,32 +31724,32 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N392" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O392" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P392" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>2100</v>
+        <v>667</v>
       </c>
       <c r="T392" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N393" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O393" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P393" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31822,11 +31822,11 @@
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>667</v>
+        <v>1667</v>
       </c>
       <c r="T393" t="n">
         <v>15</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,32 +31884,32 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N394" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O394" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P394" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>867</v>
+        <v>2100</v>
       </c>
       <c r="T394" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395">
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31967,13 +31967,13 @@
         <v>60</v>
       </c>
       <c r="N395" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O395" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P395" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T395" t="n">
         <v>15</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N396" t="n">
         <v>13000</v>
@@ -32057,7 +32057,7 @@
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,10 +32066,10 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T396" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32127,13 +32127,13 @@
         <v>60</v>
       </c>
       <c r="N397" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O397" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P397" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32142,11 +32142,11 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T397" t="n">
         <v>15</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,41 +32195,41 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N398" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O398" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P398" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T398" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,7 +32284,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N399" t="n">
         <v>13000</v>
@@ -32302,7 +32302,7 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S399" t="n">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,25 +32355,25 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N400" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O400" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32382,11 +32382,11 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T400" t="n">
         <v>15</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N401" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O401" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P401" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32462,11 +32462,11 @@
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S401" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T401" t="n">
         <v>15</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N402" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O402" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P402" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32542,11 +32542,11 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T402" t="n">
         <v>15</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N403" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O403" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P403" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32622,11 +32622,11 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T403" t="n">
         <v>15</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44330</v>
+        <v>44251</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N404" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O404" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P404" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32702,11 +32702,11 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T404" t="n">
         <v>15</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="N405" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O405" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P405" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T405" t="n">
         <v>15</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44181</v>
+        <v>44330</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N406" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O406" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P406" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T406" t="n">
         <v>15</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44194</v>
+        <v>44330</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N407" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O407" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P407" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32942,11 +32942,11 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T407" t="n">
         <v>15</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,32 +33004,32 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N408" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O408" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P408" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T408" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="409">
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,20 +33084,20 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N409" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O409" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P409" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T409" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33164,32 +33164,32 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N410" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O410" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P410" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>733</v>
+        <v>1400</v>
       </c>
       <c r="T410" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="411">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,32 +33244,32 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N411" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O411" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P411" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T411" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N412" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P412" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T412" t="n">
         <v>15</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N413" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O413" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P413" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T413" t="n">
         <v>15</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N414" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O414" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P414" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T414" t="n">
         <v>15</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N416" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O416" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P416" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T416" t="n">
         <v>15</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N418" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O418" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P418" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T418" t="n">
         <v>15</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N420" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O420" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33982,11 +33982,11 @@
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S420" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T420" t="n">
         <v>15</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,7 +34044,7 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N421" t="n">
         <v>13000</v>
@@ -34057,18 +34057,178 @@
       </c>
       <c r="Q421" t="inlineStr">
         <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S421" t="n">
+        <v>867</v>
+      </c>
+      <c r="T421" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>3</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D422" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E422" t="n">
+        <v>5</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G422" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I422" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M422" t="n">
+        <v>60</v>
+      </c>
+      <c r="N422" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O422" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P422" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S422" t="n">
+        <v>867</v>
+      </c>
+      <c r="T422" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>3</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D423" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E423" t="n">
+        <v>5</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M423" t="n">
+        <v>60</v>
+      </c>
+      <c r="N423" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O423" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P423" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R421" t="inlineStr">
+      <c r="R423" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S421" t="n">
+      <c r="S423" t="n">
         <v>1300</v>
       </c>
-      <c r="T421" t="n">
+      <c r="T423" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T440"/>
+  <dimension ref="A1:T443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,7 +28444,7 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N351" t="n">
         <v>13000</v>
@@ -28457,19 +28457,19 @@
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T351" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28524,32 +28524,32 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N352" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O352" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P352" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>733</v>
+        <v>2000</v>
       </c>
       <c r="T352" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,32 +28604,32 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N353" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O353" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P353" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>867</v>
+        <v>2000</v>
       </c>
       <c r="T353" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28684,7 +28684,7 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N354" t="n">
         <v>13000</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N355" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O355" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P355" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T355" t="n">
         <v>15</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44278</v>
+        <v>44321</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N356" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O356" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P356" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T356" t="n">
         <v>15</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28915,25 +28915,25 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N357" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O357" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P357" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T357" t="n">
         <v>15</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N358" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O358" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P358" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T358" t="n">
         <v>15</v>
@@ -29075,25 +29075,25 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N359" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O359" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P359" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T359" t="n">
         <v>15</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29155,25 +29155,25 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="N360" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O360" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P360" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T360" t="n">
         <v>15</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N361" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O361" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P361" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T361" t="n">
         <v>15</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,25 +29315,25 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="N362" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O362" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P362" t="n">
-        <v>11517</v>
+        <v>9000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>768</v>
+        <v>600</v>
       </c>
       <c r="T362" t="n">
         <v>15</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="N363" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O363" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P363" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T363" t="n">
         <v>15</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N364" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O364" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P364" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T364" t="n">
         <v>15</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="N365" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O365" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P365" t="n">
-        <v>10000</v>
+        <v>11517</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="T365" t="n">
         <v>15</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N366" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O366" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P366" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29662,11 +29662,11 @@
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T366" t="n">
         <v>15</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N367" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O367" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P367" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29742,11 +29742,11 @@
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T367" t="n">
         <v>15</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,7 +29804,7 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N368" t="n">
         <v>10000</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N369" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O369" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P369" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T369" t="n">
         <v>15</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,32 +29964,32 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N370" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O370" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P370" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1667</v>
+        <v>867</v>
       </c>
       <c r="T370" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,32 +30044,32 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N371" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O371" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P371" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S371" t="n">
-        <v>2222</v>
+        <v>667</v>
       </c>
       <c r="T371" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="372">
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N372" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O372" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P372" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30142,11 +30142,11 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T372" t="n">
         <v>15</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,32 +30204,32 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N373" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O373" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P373" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="T373" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="374">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30287,29 +30287,29 @@
         <v>60</v>
       </c>
       <c r="N374" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O374" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P374" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>667</v>
+        <v>2222</v>
       </c>
       <c r="T374" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N375" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O375" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P375" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T375" t="n">
         <v>15</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,20 +30444,20 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N376" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O376" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P376" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,10 +30466,10 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T376" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,7 +30524,7 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N377" t="n">
         <v>10000</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N378" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O378" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P378" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T378" t="n">
         <v>15</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
         <v>60</v>
       </c>
       <c r="N379" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O379" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P379" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T379" t="n">
         <v>15</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N380" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O380" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P380" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T380" t="n">
         <v>15</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N381" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30862,11 +30862,11 @@
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T381" t="n">
         <v>15</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30915,41 +30915,41 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M382" t="n">
         <v>60</v>
       </c>
       <c r="N382" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O382" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P382" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/caja 8 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1875</v>
+        <v>600</v>
       </c>
       <c r="T382" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44196</v>
+        <v>44411</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N383" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O383" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P383" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31022,11 +31022,11 @@
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T383" t="n">
         <v>15</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,32 +31084,32 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N384" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O384" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P384" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T384" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,32 +31164,32 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N385" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O385" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P385" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 8 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1300</v>
+        <v>1875</v>
       </c>
       <c r="T385" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="386">
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N386" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O386" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P386" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T386" t="n">
         <v>15</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,7 +31324,7 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N387" t="n">
         <v>13000</v>
@@ -31337,19 +31337,19 @@
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T387" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31404,7 +31404,7 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N388" t="n">
         <v>13000</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31487,13 +31487,13 @@
         <v>67</v>
       </c>
       <c r="N389" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O389" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P389" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T389" t="n">
         <v>15</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,20 +31564,20 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N390" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O390" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P390" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T390" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,32 +31644,32 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N391" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O391" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P391" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S391" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T391" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N392" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O392" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P392" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31742,11 +31742,11 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T392" t="n">
         <v>15</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44298</v>
+        <v>44188</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,32 +31804,32 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N393" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P393" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T393" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N394" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O394" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P394" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T394" t="n">
         <v>15</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,7 +31964,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N395" t="n">
         <v>10000</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N396" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O396" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P396" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T396" t="n">
         <v>15</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44340</v>
+        <v>44298</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="N397" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O397" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P397" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T397" t="n">
         <v>15</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44224</v>
+        <v>44298</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,7 +32204,7 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N398" t="n">
         <v>10000</v>
@@ -32222,7 +32222,7 @@
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S398" t="n">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44224</v>
+        <v>44298</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T399" t="n">
         <v>15</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N400" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O400" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32382,11 +32382,11 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T400" t="n">
         <v>15</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N402" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O402" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P402" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T402" t="n">
         <v>15</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32607,13 +32607,13 @@
         <v>75</v>
       </c>
       <c r="N403" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O403" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P403" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T403" t="n">
         <v>15</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N404" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O404" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32702,11 +32702,11 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T404" t="n">
         <v>15</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N405" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O405" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P405" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T405" t="n">
         <v>15</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P406" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T406" t="n">
         <v>15</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N407" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O407" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P407" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T407" t="n">
         <v>15</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N408" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O408" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P408" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T408" t="n">
         <v>15</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,7 +33084,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N409" t="n">
         <v>10000</v>
@@ -33102,7 +33102,7 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S409" t="n">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N410" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O410" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P410" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33182,11 +33182,11 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T410" t="n">
         <v>15</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33247,29 +33247,29 @@
         <v>75</v>
       </c>
       <c r="N411" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O411" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P411" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T411" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,32 +33324,32 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N412" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O412" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P412" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T412" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33422,7 +33422,7 @@
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S413" t="n">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,7 +33484,7 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N414" t="n">
         <v>14000</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N415" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O415" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P415" t="n">
-        <v>22444</v>
+        <v>13000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33582,11 +33582,11 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S415" t="n">
-        <v>2244</v>
+        <v>1300</v>
       </c>
       <c r="T415" t="n">
         <v>10</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,32 +33644,32 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="N416" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O416" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P416" t="n">
-        <v>22548</v>
+        <v>13000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>2255</v>
+        <v>867</v>
       </c>
       <c r="T416" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,32 +33724,32 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N417" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O417" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P417" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T417" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33804,32 +33804,32 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N418" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O418" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="P418" t="n">
-        <v>11000</v>
+        <v>22444</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>733</v>
+        <v>2244</v>
       </c>
       <c r="T418" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,32 +33884,32 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="N419" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O419" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P419" t="n">
-        <v>13000</v>
+        <v>22548</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>867</v>
+        <v>2255</v>
       </c>
       <c r="T419" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420">
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,7 +33964,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N420" t="n">
         <v>13000</v>
@@ -33982,7 +33982,7 @@
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S420" t="n">
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N421" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O421" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P421" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T421" t="n">
         <v>15</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N422" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O422" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P422" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T422" t="n">
         <v>15</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44357</v>
+        <v>44239</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34222,11 +34222,11 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T423" t="n">
         <v>15</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,7 +34284,7 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="N424" t="n">
         <v>12000</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N425" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O425" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34382,11 +34382,11 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T425" t="n">
         <v>15</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,7 +34444,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N426" t="n">
         <v>12000</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34524,7 +34524,7 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N427" t="n">
         <v>12000</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N428" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O428" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P428" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34622,11 +34622,11 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T428" t="n">
         <v>15</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44194</v>
+        <v>44371</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N429" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O429" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P429" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34702,11 +34702,11 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T429" t="n">
         <v>15</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,32 +34764,32 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N430" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O430" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T430" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,32 +34844,32 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N431" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O431" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P431" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T431" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="432">
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,7 +34915,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -34924,7 +34924,7 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N432" t="n">
         <v>13000</v>
@@ -34942,7 +34942,7 @@
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S432" t="n">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -35004,32 +35004,32 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N433" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O433" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P433" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>733</v>
+        <v>1400</v>
       </c>
       <c r="T433" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="434">
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,20 +35084,20 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N434" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O434" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P434" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,10 +35106,10 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T434" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,32 +35164,32 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N435" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O435" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P435" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>2200</v>
+        <v>867</v>
       </c>
       <c r="T435" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,32 +35244,32 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N436" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O436" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P436" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1300</v>
+        <v>733</v>
       </c>
       <c r="T436" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,32 +35324,32 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N437" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O437" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P437" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="T437" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N438" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O438" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P438" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T438" t="n">
         <v>10</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,32 +35484,32 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N439" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O439" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P439" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S439" t="n">
-        <v>733</v>
+        <v>1300</v>
       </c>
       <c r="T439" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440">
@@ -35527,68 +35527,308 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E440" t="n">
+        <v>5</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G440" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I440" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M440" t="n">
+        <v>50</v>
+      </c>
+      <c r="N440" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O440" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P440" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S440" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T440" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>3</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D441" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E441" t="n">
+        <v>5</v>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I441" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M441" t="n">
+        <v>60</v>
+      </c>
+      <c r="N441" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O441" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P441" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S441" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T441" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>3</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D442" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E440" t="n">
-        <v>5</v>
-      </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G440" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I440" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J440" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K440" t="inlineStr">
+      <c r="E442" t="n">
+        <v>5</v>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I442" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M442" t="n">
+        <v>85</v>
+      </c>
+      <c r="N442" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O442" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P442" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S442" t="n">
+        <v>733</v>
+      </c>
+      <c r="T442" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>3</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D443" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E443" t="n">
+        <v>5</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I443" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
         <is>
           <t>Thompson seedless</t>
         </is>
       </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M440" t="n">
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M443" t="n">
         <v>70</v>
       </c>
-      <c r="N440" t="n">
+      <c r="N443" t="n">
         <v>10000</v>
       </c>
-      <c r="O440" t="n">
+      <c r="O443" t="n">
         <v>10000</v>
       </c>
-      <c r="P440" t="n">
+      <c r="P443" t="n">
         <v>10000</v>
       </c>
-      <c r="Q440" t="inlineStr">
+      <c r="Q443" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R440" t="inlineStr">
+      <c r="R443" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S440" t="n">
+      <c r="S443" t="n">
         <v>667</v>
       </c>
-      <c r="T440" t="n">
+      <c r="T443" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T454"/>
+  <dimension ref="A1:T457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29007,29 +29007,29 @@
         <v>50</v>
       </c>
       <c r="N358" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O358" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P358" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S358" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T358" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29087,29 +29087,29 @@
         <v>67</v>
       </c>
       <c r="N359" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O359" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P359" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S359" t="n">
-        <v>867</v>
+        <v>1600</v>
       </c>
       <c r="T359" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N360" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O360" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P360" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="T360" t="n">
         <v>10</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44420</v>
+        <v>44386</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,20 +29244,20 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N361" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O361" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P361" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1333</v>
+        <v>867</v>
       </c>
       <c r="T361" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44543</v>
+        <v>44386</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,7 +29324,7 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N362" t="n">
         <v>13000</v>
@@ -29337,19 +29337,19 @@
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T362" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="363">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N363" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O363" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P363" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T363" t="n">
         <v>10</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44543</v>
+        <v>44420</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,32 +29484,32 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N364" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O364" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P364" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2000</v>
+        <v>1333</v>
       </c>
       <c r="T364" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,7 +29564,7 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N365" t="n">
         <v>13000</v>
@@ -29577,19 +29577,19 @@
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T365" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29644,32 +29644,32 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N366" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O366" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P366" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>733</v>
+        <v>2000</v>
       </c>
       <c r="T366" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367">
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,32 +29724,32 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N367" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O367" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P367" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>867</v>
+        <v>2000</v>
       </c>
       <c r="T367" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29804,7 +29804,7 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N368" t="n">
         <v>13000</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N369" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O369" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P369" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T369" t="n">
         <v>15</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44278</v>
+        <v>44321</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N370" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O370" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P370" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T370" t="n">
         <v>15</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30035,25 +30035,25 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N371" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O371" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P371" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T371" t="n">
         <v>15</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N372" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O372" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P372" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T372" t="n">
         <v>15</v>
@@ -30195,25 +30195,25 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N373" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O373" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P373" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T373" t="n">
         <v>15</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,25 +30275,25 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="N374" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O374" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P374" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T374" t="n">
         <v>15</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N375" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O375" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P375" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T375" t="n">
         <v>15</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30435,25 +30435,25 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="N376" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O376" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P376" t="n">
-        <v>11517</v>
+        <v>9000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>768</v>
+        <v>600</v>
       </c>
       <c r="T376" t="n">
         <v>15</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="N377" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O377" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P377" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T377" t="n">
         <v>15</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N378" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O378" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P378" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T378" t="n">
         <v>15</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="N379" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O379" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P379" t="n">
-        <v>10000</v>
+        <v>11517</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="T379" t="n">
         <v>15</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N380" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O380" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P380" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30782,11 +30782,11 @@
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T380" t="n">
         <v>15</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N381" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O381" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P381" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30862,11 +30862,11 @@
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S381" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T381" t="n">
         <v>15</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,7 +30924,7 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N382" t="n">
         <v>10000</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N383" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O383" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P383" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T383" t="n">
         <v>15</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,32 +31084,32 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N384" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O384" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P384" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1667</v>
+        <v>867</v>
       </c>
       <c r="T384" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,32 +31164,32 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N385" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O385" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P385" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>2222</v>
+        <v>667</v>
       </c>
       <c r="T385" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N386" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O386" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P386" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31262,11 +31262,11 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T386" t="n">
         <v>15</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,32 +31324,32 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N387" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O387" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P387" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="T387" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31407,29 +31407,29 @@
         <v>60</v>
       </c>
       <c r="N388" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O388" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P388" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>667</v>
+        <v>2222</v>
       </c>
       <c r="T388" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N389" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O389" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P389" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T389" t="n">
         <v>15</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,20 +31564,20 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N390" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O390" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P390" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T390" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N391" t="n">
         <v>10000</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N392" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O392" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P392" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T392" t="n">
         <v>15</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
         <v>60</v>
       </c>
       <c r="N393" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O393" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P393" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T393" t="n">
         <v>15</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N394" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O394" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P394" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T394" t="n">
         <v>15</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N395" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O395" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P395" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31982,11 +31982,11 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T395" t="n">
         <v>15</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32035,41 +32035,41 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M396" t="n">
         <v>60</v>
       </c>
       <c r="N396" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O396" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P396" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/caja 8 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1875</v>
+        <v>600</v>
       </c>
       <c r="T396" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44196</v>
+        <v>44411</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N397" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O397" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P397" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32142,11 +32142,11 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T397" t="n">
         <v>15</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,32 +32204,32 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N398" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O398" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P398" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T398" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,32 +32284,32 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N399" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O399" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P399" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 8 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1300</v>
+        <v>1875</v>
       </c>
       <c r="T399" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400">
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N400" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O400" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P400" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T400" t="n">
         <v>15</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,7 +32444,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N401" t="n">
         <v>13000</v>
@@ -32457,19 +32457,19 @@
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S401" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T401" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N402" t="n">
         <v>13000</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32607,13 +32607,13 @@
         <v>67</v>
       </c>
       <c r="N403" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O403" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P403" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T403" t="n">
         <v>15</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,20 +32684,20 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N404" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O404" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P404" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T404" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,32 +32764,32 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N405" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O405" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P405" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T405" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406">
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P406" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T406" t="n">
         <v>15</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44298</v>
+        <v>44188</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,32 +32924,32 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N407" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O407" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P407" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T407" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408">
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N408" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O408" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P408" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T408" t="n">
         <v>15</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,7 +33084,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N409" t="n">
         <v>10000</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N410" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O410" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P410" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T410" t="n">
         <v>15</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44340</v>
+        <v>44298</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="N411" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O411" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P411" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T411" t="n">
         <v>15</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44224</v>
+        <v>44298</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,7 +33324,7 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N412" t="n">
         <v>10000</v>
@@ -33342,7 +33342,7 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S412" t="n">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44224</v>
+        <v>44298</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N413" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O413" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P413" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T413" t="n">
         <v>15</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N414" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O414" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P414" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33502,11 +33502,11 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T414" t="n">
         <v>15</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N416" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O416" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P416" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T416" t="n">
         <v>15</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33727,13 +33727,13 @@
         <v>75</v>
       </c>
       <c r="N417" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O417" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P417" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T417" t="n">
         <v>15</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N418" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33822,11 +33822,11 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T418" t="n">
         <v>15</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N419" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O419" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P419" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33902,11 +33902,11 @@
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T419" t="n">
         <v>15</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N420" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O420" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P420" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T420" t="n">
         <v>15</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N421" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O421" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P421" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T421" t="n">
         <v>15</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N422" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O422" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P422" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T422" t="n">
         <v>15</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,7 +34204,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N423" t="n">
         <v>10000</v>
@@ -34222,7 +34222,7 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S423" t="n">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N424" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O424" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P424" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34302,11 +34302,11 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T424" t="n">
         <v>15</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34367,29 +34367,29 @@
         <v>75</v>
       </c>
       <c r="N425" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O425" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P425" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T425" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="426">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,32 +34444,32 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N426" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O426" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P426" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T426" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427">
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34542,7 +34542,7 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S427" t="n">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,7 +34604,7 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N428" t="n">
         <v>14000</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N429" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O429" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P429" t="n">
-        <v>22444</v>
+        <v>13000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34702,11 +34702,11 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>2244</v>
+        <v>1300</v>
       </c>
       <c r="T429" t="n">
         <v>10</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,32 +34764,32 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="N430" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O430" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P430" t="n">
-        <v>22548</v>
+        <v>13000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>2255</v>
+        <v>867</v>
       </c>
       <c r="T430" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,32 +34844,32 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N431" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O431" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P431" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T431" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432">
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34924,32 +34924,32 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N432" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O432" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="P432" t="n">
-        <v>11000</v>
+        <v>22444</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>733</v>
+        <v>2244</v>
       </c>
       <c r="T432" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,32 +35004,32 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="N433" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O433" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P433" t="n">
-        <v>13000</v>
+        <v>22548</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>867</v>
+        <v>2255</v>
       </c>
       <c r="T433" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="434">
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,7 +35084,7 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N434" t="n">
         <v>13000</v>
@@ -35102,7 +35102,7 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S434" t="n">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N435" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O435" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P435" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T435" t="n">
         <v>15</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N436" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O436" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P436" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T436" t="n">
         <v>15</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44357</v>
+        <v>44239</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N437" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O437" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P437" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35342,11 +35342,11 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T437" t="n">
         <v>15</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,7 +35404,7 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="N438" t="n">
         <v>12000</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N439" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O439" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P439" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35502,11 +35502,11 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S439" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T439" t="n">
         <v>15</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N440" t="n">
         <v>12000</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,7 +35644,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N441" t="n">
         <v>12000</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N442" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O442" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P442" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35742,11 +35742,11 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T442" t="n">
         <v>15</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44194</v>
+        <v>44371</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N443" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O443" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P443" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35822,11 +35822,11 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T443" t="n">
         <v>15</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,32 +35884,32 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N444" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O444" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P444" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T444" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,32 +35964,32 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N445" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O445" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P445" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T445" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,7 +36044,7 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N446" t="n">
         <v>13000</v>
@@ -36062,7 +36062,7 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S446" t="n">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36124,32 +36124,32 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N447" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O447" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P447" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>733</v>
+        <v>1400</v>
       </c>
       <c r="T447" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,20 +36204,20 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N448" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O448" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P448" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,10 +36226,10 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T448" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449">
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,32 +36284,32 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N449" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O449" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P449" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>2200</v>
+        <v>867</v>
       </c>
       <c r="T449" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,32 +36364,32 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N450" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O450" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P450" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1300</v>
+        <v>733</v>
       </c>
       <c r="T450" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,32 +36444,32 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N451" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O451" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P451" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="T451" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N452" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O452" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P452" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T452" t="n">
         <v>10</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,32 +36604,32 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N453" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O453" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P453" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>733</v>
+        <v>1300</v>
       </c>
       <c r="T453" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454">
@@ -36647,68 +36647,308 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E454" t="n">
+        <v>5</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I454" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M454" t="n">
+        <v>50</v>
+      </c>
+      <c r="N454" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O454" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P454" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S454" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T454" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>3</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D455" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E455" t="n">
+        <v>5</v>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I455" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M455" t="n">
+        <v>60</v>
+      </c>
+      <c r="N455" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O455" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P455" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S455" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T455" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>3</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D456" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E454" t="n">
-        <v>5</v>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G454" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I454" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K454" t="inlineStr">
+      <c r="E456" t="n">
+        <v>5</v>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I456" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M456" t="n">
+        <v>85</v>
+      </c>
+      <c r="N456" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O456" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P456" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S456" t="n">
+        <v>733</v>
+      </c>
+      <c r="T456" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>3</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D457" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E457" t="n">
+        <v>5</v>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I457" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
         <is>
           <t>Thompson seedless</t>
         </is>
       </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M454" t="n">
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M457" t="n">
         <v>70</v>
       </c>
-      <c r="N454" t="n">
+      <c r="N457" t="n">
         <v>10000</v>
       </c>
-      <c r="O454" t="n">
+      <c r="O457" t="n">
         <v>10000</v>
       </c>
-      <c r="P454" t="n">
+      <c r="P457" t="n">
         <v>10000</v>
       </c>
-      <c r="Q454" t="inlineStr">
+      <c r="Q457" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R454" t="inlineStr">
+      <c r="R457" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S454" t="n">
+      <c r="S457" t="n">
         <v>667</v>
       </c>
-      <c r="T454" t="n">
+      <c r="T457" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T465"/>
+  <dimension ref="A1:T468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,32 +27804,32 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N343" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O343" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T343" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,32 +27884,32 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="N344" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O344" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P344" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>667</v>
+        <v>1500</v>
       </c>
       <c r="T344" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,32 +27964,32 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="N345" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O345" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P345" t="n">
-        <v>10489</v>
+        <v>15000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>699</v>
+        <v>1500</v>
       </c>
       <c r="T345" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44286</v>
+        <v>44341</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="N346" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O346" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P346" t="n">
-        <v>14496</v>
+        <v>12000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>966</v>
+        <v>800</v>
       </c>
       <c r="T346" t="n">
         <v>15</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44279</v>
+        <v>44341</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
@@ -28127,13 +28127,13 @@
         <v>85</v>
       </c>
       <c r="N347" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O347" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P347" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T347" t="n">
         <v>15</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="N348" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O348" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P348" t="n">
-        <v>9000</v>
+        <v>10489</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="T348" t="n">
         <v>15</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="N349" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O349" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P349" t="n">
-        <v>10000</v>
+        <v>14496</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>667</v>
+        <v>966</v>
       </c>
       <c r="T349" t="n">
         <v>15</v>
@@ -28355,25 +28355,25 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N350" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O350" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P350" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="T350" t="n">
         <v>15</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,25 +28435,25 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
         <v>70</v>
       </c>
       <c r="N351" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O351" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P351" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T351" t="n">
         <v>15</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N352" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O352" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P352" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T352" t="n">
         <v>15</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44264</v>
+        <v>44279</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28595,25 +28595,25 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N353" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O353" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P353" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="T353" t="n">
         <v>15</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N354" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O354" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P354" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28702,11 +28702,11 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T354" t="n">
         <v>15</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44322</v>
+        <v>44208</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N355" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O355" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P355" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T355" t="n">
         <v>15</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44322</v>
+        <v>44264</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N356" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O356" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P356" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T356" t="n">
         <v>15</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44322</v>
+        <v>44264</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N357" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O357" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P357" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T357" t="n">
         <v>15</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44389</v>
+        <v>44322</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29004,7 +29004,7 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N358" t="n">
         <v>13000</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44389</v>
+        <v>44322</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N359" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O359" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P359" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T359" t="n">
         <v>15</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,20 +29164,20 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N360" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O360" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P360" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,10 +29186,10 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="T360" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29244,20 +29244,20 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N361" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O361" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P361" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T361" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,7 +29324,7 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N362" t="n">
         <v>13000</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44396</v>
+        <v>44391</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29404,7 +29404,7 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N363" t="n">
         <v>13000</v>
@@ -29417,7 +29417,7 @@
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T363" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29487,29 +29487,29 @@
         <v>70</v>
       </c>
       <c r="N364" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O364" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P364" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T364" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N365" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O365" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P365" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T365" t="n">
         <v>15</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44551</v>
+        <v>44396</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,32 +29644,32 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N366" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O366" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P366" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T366" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367">
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29724,32 +29724,32 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N367" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O367" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P367" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1600</v>
+        <v>867</v>
       </c>
       <c r="T367" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29804,32 +29804,32 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N368" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O368" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P368" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="T368" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29887,29 +29887,29 @@
         <v>50</v>
       </c>
       <c r="N369" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O369" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P369" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S369" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T369" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29967,29 +29967,29 @@
         <v>67</v>
       </c>
       <c r="N370" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O370" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P370" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S370" t="n">
-        <v>867</v>
+        <v>1600</v>
       </c>
       <c r="T370" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N371" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="O371" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P371" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="T371" t="n">
         <v>10</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44420</v>
+        <v>44386</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,20 +30124,20 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N372" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O372" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P372" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
@@ -30146,10 +30146,10 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1333</v>
+        <v>867</v>
       </c>
       <c r="T372" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44543</v>
+        <v>44386</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,7 +30204,7 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N373" t="n">
         <v>13000</v>
@@ -30217,19 +30217,19 @@
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T373" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N374" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O374" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P374" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T374" t="n">
         <v>10</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44543</v>
+        <v>44420</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,32 +30364,32 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N375" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O375" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P375" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>2000</v>
+        <v>1333</v>
       </c>
       <c r="T375" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,7 +30444,7 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N376" t="n">
         <v>13000</v>
@@ -30457,19 +30457,19 @@
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S376" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T376" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30524,32 +30524,32 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N377" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O377" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P377" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S377" t="n">
-        <v>733</v>
+        <v>2000</v>
       </c>
       <c r="T377" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,32 +30604,32 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N378" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O378" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P378" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S378" t="n">
-        <v>867</v>
+        <v>2000</v>
       </c>
       <c r="T378" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30684,7 +30684,7 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N379" t="n">
         <v>13000</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N380" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O380" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P380" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T380" t="n">
         <v>15</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44278</v>
+        <v>44321</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N381" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O381" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P381" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T381" t="n">
         <v>15</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30915,25 +30915,25 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N382" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O382" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P382" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T382" t="n">
         <v>15</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N383" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O383" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P383" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T383" t="n">
         <v>15</v>
@@ -31075,25 +31075,25 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N384" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O384" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P384" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T384" t="n">
         <v>15</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31155,25 +31155,25 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="N385" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O385" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P385" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T385" t="n">
         <v>15</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N386" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O386" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P386" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T386" t="n">
         <v>15</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31315,25 +31315,25 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="N387" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O387" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P387" t="n">
-        <v>11517</v>
+        <v>9000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>768</v>
+        <v>600</v>
       </c>
       <c r="T387" t="n">
         <v>15</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="N388" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O388" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P388" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T388" t="n">
         <v>15</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N389" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O389" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P389" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T389" t="n">
         <v>15</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="N390" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O390" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P390" t="n">
-        <v>10000</v>
+        <v>11517</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="T390" t="n">
         <v>15</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N391" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O391" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P391" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31662,11 +31662,11 @@
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T391" t="n">
         <v>15</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N392" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O392" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P392" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31742,11 +31742,11 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T392" t="n">
         <v>15</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,7 +31804,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N393" t="n">
         <v>10000</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N394" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O394" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P394" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T394" t="n">
         <v>15</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,32 +31964,32 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N395" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O395" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P395" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1667</v>
+        <v>867</v>
       </c>
       <c r="T395" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,32 +32044,32 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N396" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O396" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P396" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>2222</v>
+        <v>667</v>
       </c>
       <c r="T396" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N397" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O397" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P397" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32142,11 +32142,11 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T397" t="n">
         <v>15</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,32 +32204,32 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N398" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O398" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P398" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="T398" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32287,29 +32287,29 @@
         <v>60</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>667</v>
+        <v>2222</v>
       </c>
       <c r="T399" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N400" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O400" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P400" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T400" t="n">
         <v>15</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,20 +32444,20 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N401" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O401" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P401" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T401" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N402" t="n">
         <v>10000</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N403" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O403" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P403" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T403" t="n">
         <v>15</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32680,20 +32680,20 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M404" t="n">
         <v>60</v>
       </c>
       <c r="N404" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O404" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P404" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T404" t="n">
         <v>15</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N405" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O405" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P405" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T405" t="n">
         <v>15</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N406" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O406" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P406" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T406" t="n">
         <v>15</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,41 +32915,41 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M407" t="n">
         <v>60</v>
       </c>
       <c r="N407" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O407" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P407" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/caja 8 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1875</v>
+        <v>600</v>
       </c>
       <c r="T407" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408">
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44196</v>
+        <v>44411</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N408" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O408" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P408" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33022,11 +33022,11 @@
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T408" t="n">
         <v>15</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,32 +33084,32 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N409" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O409" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P409" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T409" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,32 +33164,32 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N410" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O410" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P410" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 8 kilos</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1300</v>
+        <v>1875</v>
       </c>
       <c r="T410" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411">
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N411" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O411" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P411" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T411" t="n">
         <v>15</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,7 +33324,7 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N412" t="n">
         <v>13000</v>
@@ -33337,19 +33337,19 @@
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T412" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33404,7 +33404,7 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N413" t="n">
         <v>13000</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33487,13 +33487,13 @@
         <v>67</v>
       </c>
       <c r="N414" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O414" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P414" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T414" t="n">
         <v>15</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,20 +33564,20 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N415" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P415" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T415" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,32 +33644,32 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N416" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O416" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P416" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T416" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N417" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O417" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P417" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33742,11 +33742,11 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T417" t="n">
         <v>15</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44298</v>
+        <v>44188</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,32 +33804,32 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N418" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O418" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P418" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T418" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N419" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O419" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P419" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T419" t="n">
         <v>15</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,7 +33964,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N420" t="n">
         <v>10000</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N421" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O421" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P421" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T421" t="n">
         <v>15</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44340</v>
+        <v>44298</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="N422" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O422" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P422" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T422" t="n">
         <v>15</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44224</v>
+        <v>44298</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,7 +34204,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N423" t="n">
         <v>10000</v>
@@ -34222,7 +34222,7 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S423" t="n">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44224</v>
+        <v>44298</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N424" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O424" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P424" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T424" t="n">
         <v>15</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N425" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O425" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34382,11 +34382,11 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T425" t="n">
         <v>15</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N427" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O427" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P427" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T427" t="n">
         <v>15</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34607,13 +34607,13 @@
         <v>75</v>
       </c>
       <c r="N428" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O428" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P428" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T428" t="n">
         <v>15</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N429" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O429" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P429" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34702,11 +34702,11 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T429" t="n">
         <v>15</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N430" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O430" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34782,11 +34782,11 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T430" t="n">
         <v>15</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N431" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O431" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P431" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T431" t="n">
         <v>15</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N432" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O432" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P432" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T432" t="n">
         <v>15</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N433" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O433" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P433" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T433" t="n">
         <v>15</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,7 +35084,7 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N434" t="n">
         <v>10000</v>
@@ -35102,7 +35102,7 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S434" t="n">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N435" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O435" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P435" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35182,11 +35182,11 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T435" t="n">
         <v>15</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35247,29 +35247,29 @@
         <v>75</v>
       </c>
       <c r="N436" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P436" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T436" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,32 +35324,32 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N437" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O437" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P437" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T437" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35422,7 +35422,7 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S438" t="n">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,7 +35484,7 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N439" t="n">
         <v>14000</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N440" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O440" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P440" t="n">
-        <v>22444</v>
+        <v>13000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35582,11 +35582,11 @@
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S440" t="n">
-        <v>2244</v>
+        <v>1300</v>
       </c>
       <c r="T440" t="n">
         <v>10</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,32 +35644,32 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="N441" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O441" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P441" t="n">
-        <v>22548</v>
+        <v>13000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>2255</v>
+        <v>867</v>
       </c>
       <c r="T441" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="442">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,32 +35724,32 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N442" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O442" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P442" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T442" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35804,32 +35804,32 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N443" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O443" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="P443" t="n">
-        <v>11000</v>
+        <v>22444</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>733</v>
+        <v>2244</v>
       </c>
       <c r="T443" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,32 +35884,32 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="N444" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O444" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P444" t="n">
-        <v>13000</v>
+        <v>22548</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>867</v>
+        <v>2255</v>
       </c>
       <c r="T444" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,7 +35964,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N445" t="n">
         <v>13000</v>
@@ -35982,7 +35982,7 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S445" t="n">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N446" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P446" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T446" t="n">
         <v>15</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N447" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O447" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P447" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T447" t="n">
         <v>15</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44357</v>
+        <v>44239</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O448" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P448" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36222,11 +36222,11 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T448" t="n">
         <v>15</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,7 +36284,7 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="N449" t="n">
         <v>12000</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N450" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O450" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P450" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36382,11 +36382,11 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T450" t="n">
         <v>15</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,7 +36444,7 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N451" t="n">
         <v>12000</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,7 +36524,7 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N452" t="n">
         <v>12000</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N453" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O453" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P453" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36622,11 +36622,11 @@
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T453" t="n">
         <v>15</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44194</v>
+        <v>44371</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N454" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O454" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36702,11 +36702,11 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T454" t="n">
         <v>15</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,32 +36764,32 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N455" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O455" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P455" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T455" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="456">
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,32 +36844,32 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N456" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O456" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P456" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T456" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,7 +36924,7 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N457" t="n">
         <v>13000</v>
@@ -36942,7 +36942,7 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S457" t="n">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -37004,32 +37004,32 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N458" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O458" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P458" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>733</v>
+        <v>1400</v>
       </c>
       <c r="T458" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="459">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37084,20 +37084,20 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N459" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O459" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P459" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
@@ -37106,10 +37106,10 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T459" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="460">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37164,32 +37164,32 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N460" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O460" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P460" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>2200</v>
+        <v>867</v>
       </c>
       <c r="T460" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,32 +37244,32 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N461" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O461" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P461" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1300</v>
+        <v>733</v>
       </c>
       <c r="T461" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,32 +37324,32 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N462" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O462" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P462" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="T462" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="463">
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N463" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O463" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P463" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T463" t="n">
         <v>10</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,32 +37484,32 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N464" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O464" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P464" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>733</v>
+        <v>1300</v>
       </c>
       <c r="T464" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465">
@@ -37527,68 +37527,308 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E465" t="n">
+        <v>5</v>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G465" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I465" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M465" t="n">
+        <v>50</v>
+      </c>
+      <c r="N465" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O465" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P465" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S465" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T465" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>3</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D466" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E466" t="n">
+        <v>5</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G466" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I466" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M466" t="n">
+        <v>60</v>
+      </c>
+      <c r="N466" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O466" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P466" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S466" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T466" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>3</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D467" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E465" t="n">
-        <v>5</v>
-      </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G465" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I465" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J465" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K465" t="inlineStr">
+      <c r="E467" t="n">
+        <v>5</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G467" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I467" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M467" t="n">
+        <v>85</v>
+      </c>
+      <c r="N467" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O467" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P467" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S467" t="n">
+        <v>733</v>
+      </c>
+      <c r="T467" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>3</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D468" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E468" t="n">
+        <v>5</v>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G468" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I468" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
         <is>
           <t>Thompson seedless</t>
         </is>
       </c>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M465" t="n">
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M468" t="n">
         <v>70</v>
       </c>
-      <c r="N465" t="n">
+      <c r="N468" t="n">
         <v>10000</v>
       </c>
-      <c r="O465" t="n">
+      <c r="O468" t="n">
         <v>10000</v>
       </c>
-      <c r="P465" t="n">
+      <c r="P468" t="n">
         <v>10000</v>
       </c>
-      <c r="Q465" t="inlineStr">
+      <c r="Q468" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R465" t="inlineStr">
+      <c r="R468" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S465" t="n">
+      <c r="S468" t="n">
         <v>667</v>
       </c>
-      <c r="T465" t="n">
+      <c r="T468" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T478"/>
+  <dimension ref="A1:T482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44176</v>
+        <v>44567</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24684,20 +24684,20 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="N304" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O304" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P304" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1875</v>
+        <v>1400</v>
       </c>
       <c r="T304" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44539</v>
+        <v>44567</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N305" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O305" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P305" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T305" t="n">
         <v>10</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44539</v>
+        <v>44176</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24844,20 +24844,20 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="N306" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O306" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P306" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>2000</v>
+        <v>1875</v>
       </c>
       <c r="T306" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307">
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N307" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O307" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P307" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="T307" t="n">
         <v>10</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44370</v>
+        <v>44539</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25004,32 +25004,32 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N308" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O308" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P308" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S308" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T308" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44291</v>
+        <v>44539</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25084,32 +25084,32 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N309" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O309" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P309" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S309" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T309" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44291</v>
+        <v>44370</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N310" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O310" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P310" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T310" t="n">
         <v>15</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,7 +25244,7 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N311" t="n">
         <v>10000</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25324,20 +25324,20 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N312" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O312" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P312" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T312" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313">
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N313" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O313" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P313" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T313" t="n">
         <v>15</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44379</v>
+        <v>44291</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -25484,20 +25484,20 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N314" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O314" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P314" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T314" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44532</v>
+        <v>44291</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,32 +25564,32 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N315" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O315" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P315" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T315" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44532</v>
+        <v>44379</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,32 +25644,32 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N316" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O316" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P316" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S316" t="n">
-        <v>2200</v>
+        <v>867</v>
       </c>
       <c r="T316" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317">
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N317" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O317" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P317" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="T317" t="n">
         <v>10</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44210</v>
+        <v>44532</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25804,32 +25804,32 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N318" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O318" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P318" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>667</v>
+        <v>2200</v>
       </c>
       <c r="T318" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319">
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44210</v>
+        <v>44532</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N319" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O319" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P319" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="T319" t="n">
         <v>10</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,20 +25964,20 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="N320" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O320" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P320" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T320" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321">
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26044,7 +26044,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N321" t="n">
         <v>13000</v>
@@ -26057,19 +26057,19 @@
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T321" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26124,32 +26124,32 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N322" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O322" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P322" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T322" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E323" t="n">
         <v>5</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N323" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O323" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P323" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26222,11 +26222,11 @@
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S323" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T323" t="n">
         <v>15</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N324" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O324" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P324" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26302,11 +26302,11 @@
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S324" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T324" t="n">
         <v>15</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,32 +26364,32 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N325" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O325" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P325" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T325" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326">
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26444,32 +26444,32 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N326" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P326" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T326" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E327" t="n">
         <v>5</v>
@@ -26527,29 +26527,29 @@
         <v>68</v>
       </c>
       <c r="N327" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O327" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P327" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T327" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E328" t="n">
         <v>5</v>
@@ -26604,7 +26604,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N328" t="n">
         <v>12000</v>
@@ -26617,7 +26617,7 @@
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T328" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E329" t="n">
         <v>5</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,32 +26684,32 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N329" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O329" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P329" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1333</v>
+        <v>733</v>
       </c>
       <c r="T329" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,32 +26764,32 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N330" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O330" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P330" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="T330" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,20 +26844,20 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="N331" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O331" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P331" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1400</v>
+        <v>1333</v>
       </c>
       <c r="T331" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26924,32 +26924,32 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N332" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O332" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P332" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="T332" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E333" t="n">
         <v>5</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,32 +27004,32 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="N333" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O333" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P333" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="T333" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44161</v>
+        <v>44553</v>
       </c>
       <c r="E334" t="n">
         <v>5</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27084,32 +27084,32 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N334" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O334" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P334" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1667</v>
+        <v>1400</v>
       </c>
       <c r="T334" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E335" t="n">
         <v>5</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,32 +27164,32 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N335" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O335" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P335" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S335" t="n">
-        <v>2100</v>
+        <v>1333</v>
       </c>
       <c r="T335" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N336" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="O336" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P336" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27262,11 +27262,11 @@
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S336" t="n">
-        <v>867</v>
+        <v>1667</v>
       </c>
       <c r="T336" t="n">
         <v>15</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,32 +27324,32 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="N337" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O337" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P337" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>867</v>
+        <v>2100</v>
       </c>
       <c r="T337" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338">
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N338" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O338" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P338" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T338" t="n">
         <v>15</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44285</v>
+        <v>44328</v>
       </c>
       <c r="E339" t="n">
         <v>5</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N339" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O339" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P339" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T339" t="n">
         <v>15</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44285</v>
+        <v>44328</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N340" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O340" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P340" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T340" t="n">
         <v>15</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N341" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O341" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P341" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T341" t="n">
         <v>15</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44418</v>
+        <v>44285</v>
       </c>
       <c r="E342" t="n">
         <v>5</v>
@@ -27724,7 +27724,7 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N342" t="n">
         <v>10000</v>
@@ -27737,7 +27737,7 @@
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,10 +27746,10 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T342" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,32 +27804,32 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N343" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O343" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P343" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>2000</v>
+        <v>933</v>
       </c>
       <c r="T343" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44259</v>
+        <v>44418</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -27884,7 +27884,7 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N344" t="n">
         <v>10000</v>
@@ -27897,19 +27897,19 @@
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T344" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44259</v>
+        <v>44160</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,32 +27964,32 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N345" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O345" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P345" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="T345" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346">
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N346" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O346" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P346" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28062,11 +28062,11 @@
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T346" t="n">
         <v>15</v>
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28124,32 +28124,32 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N347" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O347" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P347" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T347" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348">
@@ -28195,25 +28195,25 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="N348" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O348" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P348" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28222,11 +28222,11 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T348" t="n">
         <v>15</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,32 +28284,32 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N349" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O349" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P349" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T349" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="350">
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N350" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O350" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P350" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28382,11 +28382,11 @@
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T350" t="n">
         <v>15</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N351" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O351" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P351" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T351" t="n">
         <v>15</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N352" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P352" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T352" t="n">
         <v>15</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28604,32 +28604,32 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N353" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O353" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P353" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1500</v>
+        <v>733</v>
       </c>
       <c r="T353" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,32 +28684,32 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N354" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O354" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P354" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T354" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355">
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="N355" t="n">
         <v>15000</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,32 +28844,32 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="N356" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O356" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P356" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T356" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,32 +28924,32 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N357" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O357" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P357" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S357" t="n">
-        <v>667</v>
+        <v>1500</v>
       </c>
       <c r="T357" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44286</v>
+        <v>44341</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="N358" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O358" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P358" t="n">
-        <v>10489</v>
+        <v>12000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>699</v>
+        <v>800</v>
       </c>
       <c r="T358" t="n">
         <v>15</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44286</v>
+        <v>44341</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="N359" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O359" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P359" t="n">
-        <v>14496</v>
+        <v>10000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>966</v>
+        <v>667</v>
       </c>
       <c r="T359" t="n">
         <v>15</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="N360" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O360" t="n">
         <v>11000</v>
       </c>
       <c r="P360" t="n">
-        <v>11000</v>
+        <v>10489</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="T360" t="n">
         <v>15</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,25 +29235,25 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="N361" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O361" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P361" t="n">
-        <v>9000</v>
+        <v>14496</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>600</v>
+        <v>966</v>
       </c>
       <c r="T361" t="n">
         <v>15</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N362" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O362" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P362" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T362" t="n">
         <v>15</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N363" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O363" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P363" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="T363" t="n">
         <v>15</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,7 +29484,7 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N364" t="n">
         <v>10000</v>
@@ -29502,7 +29502,7 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S364" t="n">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N365" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="O365" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P365" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29582,11 +29582,11 @@
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>933</v>
+        <v>567</v>
       </c>
       <c r="T365" t="n">
         <v>15</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N366" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O366" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P366" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29662,11 +29662,11 @@
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T366" t="n">
         <v>15</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N367" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O367" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P367" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29742,11 +29742,11 @@
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T367" t="n">
         <v>15</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44322</v>
+        <v>44264</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N368" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O368" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P368" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T368" t="n">
         <v>15</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44322</v>
+        <v>44264</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N369" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O369" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P369" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T369" t="n">
         <v>15</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N370" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O370" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P370" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T370" t="n">
         <v>15</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44389</v>
+        <v>44322</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N371" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O371" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P371" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T371" t="n">
         <v>15</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44389</v>
+        <v>44322</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N372" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O372" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P372" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T372" t="n">
         <v>15</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,7 +30204,7 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N373" t="n">
         <v>13000</v>
@@ -30217,7 +30217,7 @@
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,10 +30226,10 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T373" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,20 +30284,20 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N374" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O374" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P374" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,10 +30306,10 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T374" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44396</v>
+        <v>44391</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,7 +30364,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N375" t="n">
         <v>13000</v>
@@ -30377,7 +30377,7 @@
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30386,10 +30386,10 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T375" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376">
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,20 +30444,20 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N376" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O376" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P376" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,10 +30466,10 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T376" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377">
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,7 +30524,7 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N377" t="n">
         <v>13000</v>
@@ -30542,7 +30542,7 @@
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S377" t="n">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N378" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O378" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P378" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T378" t="n">
         <v>15</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,32 +30684,32 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N379" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O379" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P379" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T379" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,32 +30764,32 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N380" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O380" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P380" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="T380" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="381">
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N381" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T381" t="n">
         <v>10</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,32 +30924,32 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N382" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O382" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P382" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>867</v>
+        <v>1600</v>
       </c>
       <c r="T382" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,32 +31004,32 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N383" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O383" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P383" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>867</v>
+        <v>1600</v>
       </c>
       <c r="T383" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,32 +31084,32 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N384" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O384" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P384" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>2200</v>
+        <v>867</v>
       </c>
       <c r="T384" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44420</v>
+        <v>44386</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,20 +31164,20 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N385" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O385" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P385" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1333</v>
+        <v>867</v>
       </c>
       <c r="T385" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N386" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O386" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P386" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="T386" t="n">
         <v>10</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44543</v>
+        <v>44420</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,32 +31324,32 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N387" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O387" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P387" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>2000</v>
+        <v>1333</v>
       </c>
       <c r="T387" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="388">
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N388" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O388" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P388" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="T388" t="n">
         <v>10</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,32 +31484,32 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N389" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O389" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P389" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>867</v>
+        <v>2000</v>
       </c>
       <c r="T389" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31567,29 +31567,29 @@
         <v>87</v>
       </c>
       <c r="N390" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O390" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P390" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>733</v>
+        <v>2000</v>
       </c>
       <c r="T390" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391">
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N391" t="n">
         <v>13000</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N392" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O392" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P392" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T392" t="n">
         <v>15</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,7 +31804,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N393" t="n">
         <v>13000</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N394" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O394" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P394" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T394" t="n">
         <v>15</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N395" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O395" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P395" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T395" t="n">
         <v>15</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N396" t="n">
         <v>10000</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N397" t="n">
         <v>9000</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="N398" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O398" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P398" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T398" t="n">
         <v>15</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,25 +32275,25 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N399" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O399" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P399" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T399" t="n">
         <v>15</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="N400" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O400" t="n">
         <v>12000</v>
       </c>
       <c r="P400" t="n">
-        <v>11517</v>
+        <v>12000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="T400" t="n">
         <v>15</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,7 +32444,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N401" t="n">
         <v>13000</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="N402" t="n">
         <v>11000</v>
       </c>
       <c r="O402" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P402" t="n">
-        <v>11000</v>
+        <v>11517</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="T402" t="n">
         <v>15</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N403" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O403" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P403" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T403" t="n">
         <v>15</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N404" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O404" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P404" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32702,11 +32702,11 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T404" t="n">
         <v>15</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N405" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O405" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P405" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T405" t="n">
         <v>15</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P406" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T406" t="n">
         <v>15</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N407" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O407" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P407" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T407" t="n">
         <v>15</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,32 +33004,32 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N408" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O408" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P408" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1667</v>
+        <v>667</v>
       </c>
       <c r="T408" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="409">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,32 +33084,32 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N409" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O409" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P409" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>2222</v>
+        <v>933</v>
       </c>
       <c r="T409" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,7 +33164,7 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N410" t="n">
         <v>15000</v>
@@ -33177,19 +33177,19 @@
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="T410" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,32 +33244,32 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N411" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O411" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P411" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1000</v>
+        <v>2222</v>
       </c>
       <c r="T411" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N412" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O412" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P412" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T412" t="n">
         <v>15</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33404,20 +33404,20 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N413" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O413" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P413" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T413" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414">
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33487,13 +33487,13 @@
         <v>60</v>
       </c>
       <c r="N414" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O414" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P414" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T414" t="n">
         <v>15</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N415" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O415" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P415" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T415" t="n">
         <v>15</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N416" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O416" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P416" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T416" t="n">
         <v>15</v>
@@ -33715,25 +33715,25 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N417" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O417" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P417" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T417" t="n">
         <v>15</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33807,13 +33807,13 @@
         <v>56</v>
       </c>
       <c r="N418" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O418" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T418" t="n">
         <v>15</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,25 +33875,25 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N419" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O419" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P419" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33902,11 +33902,11 @@
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T419" t="n">
         <v>15</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33964,7 +33964,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N420" t="n">
         <v>15000</v>
@@ -33977,19 +33977,19 @@
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/caja 8 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T420" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="421">
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N421" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O421" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P421" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T421" t="n">
         <v>15</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34124,20 +34124,20 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N422" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O422" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P422" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 8 kilos</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,10 +34146,10 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1300</v>
+        <v>1875</v>
       </c>
       <c r="T422" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="423">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,7 +34204,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N423" t="n">
         <v>13000</v>
@@ -34217,7 +34217,7 @@
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,10 +34226,10 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T423" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="424">
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,32 +34284,32 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N424" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O424" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P424" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T424" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,7 +34364,7 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N425" t="n">
         <v>13000</v>
@@ -34377,7 +34377,7 @@
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,10 +34386,10 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T425" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,20 +34444,20 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N426" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O426" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P426" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,10 +34466,10 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T426" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427">
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N427" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O427" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P427" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T427" t="n">
         <v>15</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34604,20 +34604,20 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N428" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O428" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P428" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T428" t="n">
         <v>10</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N429" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O429" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P429" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34702,11 +34702,11 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T429" t="n">
         <v>15</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,32 +34764,32 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="N430" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O430" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T430" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34847,13 +34847,13 @@
         <v>85</v>
       </c>
       <c r="N431" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O431" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P431" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T431" t="n">
         <v>15</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,7 +34915,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N432" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O432" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P432" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T432" t="n">
         <v>15</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N433" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O433" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P433" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T433" t="n">
         <v>15</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,7 +35084,7 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N434" t="n">
         <v>13000</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44340</v>
+        <v>44298</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35164,7 +35164,7 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N435" t="n">
         <v>10000</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44224</v>
+        <v>44298</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N436" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O436" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P436" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35262,11 +35262,11 @@
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T436" t="n">
         <v>15</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,7 +35324,7 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="N437" t="n">
         <v>10000</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N438" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O438" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P438" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T438" t="n">
         <v>15</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,7 +35484,7 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N439" t="n">
         <v>10000</v>
@@ -35502,7 +35502,7 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S439" t="n">
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N440" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O440" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P440" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35582,11 +35582,11 @@
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S440" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T440" t="n">
         <v>15</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N441" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O441" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P441" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T441" t="n">
         <v>15</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,7 +35724,7 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="N442" t="n">
         <v>12000</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N443" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O443" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P443" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T443" t="n">
         <v>15</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N444" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O444" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P444" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35902,11 +35902,11 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T444" t="n">
         <v>15</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,16 +35964,16 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N445" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O445" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P445" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35982,11 +35982,11 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T445" t="n">
         <v>15</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N446" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P446" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T446" t="n">
         <v>15</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N447" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O447" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P447" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T447" t="n">
         <v>15</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N448" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O448" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P448" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T448" t="n">
         <v>15</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36287,29 +36287,29 @@
         <v>75</v>
       </c>
       <c r="N449" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O449" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P449" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T449" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="450">
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36377,7 +36377,7 @@
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -36386,10 +36386,10 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T450" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36444,32 +36444,32 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N451" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O451" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P451" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T451" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N452" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O452" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P452" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36542,11 +36542,11 @@
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T452" t="n">
         <v>10</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36604,32 +36604,32 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N453" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O453" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P453" t="n">
-        <v>22444</v>
+        <v>13000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>2244</v>
+        <v>867</v>
       </c>
       <c r="T453" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="454">
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="N454" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O454" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P454" t="n">
-        <v>22548</v>
+        <v>14000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>2255</v>
+        <v>1400</v>
       </c>
       <c r="T454" t="n">
         <v>10</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,32 +36764,32 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="N455" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O455" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P455" t="n">
-        <v>13000</v>
+        <v>22444</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>867</v>
+        <v>2244</v>
       </c>
       <c r="T455" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456">
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,32 +36844,32 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="N456" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O456" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="P456" t="n">
-        <v>11000</v>
+        <v>22548</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>733</v>
+        <v>2255</v>
       </c>
       <c r="T456" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,7 +36924,7 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N457" t="n">
         <v>13000</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N458" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O458" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P458" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37022,11 +37022,11 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T458" t="n">
         <v>15</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37084,16 +37084,16 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N459" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O459" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P459" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T459" t="n">
         <v>15</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N460" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O460" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P460" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37182,11 +37182,11 @@
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T460" t="n">
         <v>15</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37244,7 +37244,7 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N461" t="n">
         <v>12000</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="N462" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O462" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P462" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T462" t="n">
         <v>15</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44357</v>
+        <v>44568</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37404,7 +37404,7 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N463" t="n">
         <v>14000</v>
@@ -37417,19 +37417,19 @@
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>933</v>
+        <v>1400</v>
       </c>
       <c r="T463" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44371</v>
+        <v>44568</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,32 +37484,32 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N464" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O464" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P464" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T464" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465">
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,7 +37564,7 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N465" t="n">
         <v>12000</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N466" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O466" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P466" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T466" t="n">
         <v>15</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44194</v>
+        <v>44357</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N467" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O467" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P467" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T467" t="n">
         <v>15</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44194</v>
+        <v>44371</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,32 +37804,32 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N468" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O468" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P468" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T468" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37897,19 +37897,19 @@
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T469" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44313</v>
+        <v>44365</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37967,13 +37967,13 @@
         <v>70</v>
       </c>
       <c r="N470" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T470" t="n">
         <v>15</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N471" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O471" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P471" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T471" t="n">
         <v>15</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,32 +38124,32 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N472" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O472" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P472" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T472" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="473">
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N473" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O473" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P473" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="T473" t="n">
         <v>10</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,7 +38284,7 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N474" t="n">
         <v>13000</v>
@@ -38297,19 +38297,19 @@
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T474" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="475">
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38364,32 +38364,32 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N475" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O475" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P475" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>2000</v>
+        <v>733</v>
       </c>
       <c r="T475" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="476">
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,32 +38444,32 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N476" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O476" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P476" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="T476" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="477">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,32 +38524,32 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N477" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O477" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P477" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>733</v>
+        <v>2200</v>
       </c>
       <c r="T477" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="478">
@@ -38567,68 +38567,388 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E478" t="n">
+        <v>5</v>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G478" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I478" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M478" t="n">
+        <v>67</v>
+      </c>
+      <c r="N478" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O478" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P478" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q478" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S478" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T478" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>3</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D479" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E479" t="n">
+        <v>5</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I479" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M479" t="n">
+        <v>50</v>
+      </c>
+      <c r="N479" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O479" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P479" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S479" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T479" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>3</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D480" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E480" t="n">
+        <v>5</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G480" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I480" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M480" t="n">
+        <v>60</v>
+      </c>
+      <c r="N480" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O480" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P480" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q480" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S480" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T480" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>3</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D481" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E478" t="n">
-        <v>5</v>
-      </c>
-      <c r="F478" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G478" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I478" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J478" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K478" t="inlineStr">
+      <c r="E481" t="n">
+        <v>5</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I481" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M481" t="n">
+        <v>85</v>
+      </c>
+      <c r="N481" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O481" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P481" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S481" t="n">
+        <v>733</v>
+      </c>
+      <c r="T481" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>3</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D482" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E482" t="n">
+        <v>5</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G482" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I482" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
         <is>
           <t>Thompson seedless</t>
         </is>
       </c>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M478" t="n">
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M482" t="n">
         <v>70</v>
       </c>
-      <c r="N478" t="n">
+      <c r="N482" t="n">
         <v>10000</v>
       </c>
-      <c r="O478" t="n">
+      <c r="O482" t="n">
         <v>10000</v>
       </c>
-      <c r="P478" t="n">
+      <c r="P482" t="n">
         <v>10000</v>
       </c>
-      <c r="Q478" t="inlineStr">
+      <c r="Q482" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R478" t="inlineStr">
+      <c r="R482" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S478" t="n">
+      <c r="S482" t="n">
         <v>667</v>
       </c>
-      <c r="T478" t="n">
+      <c r="T482" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T486"/>
+  <dimension ref="A1:T488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44210</v>
+        <v>44572</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26284,32 +26284,32 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="N324" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O324" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P324" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S324" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T324" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44210</v>
+        <v>44572</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N325" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O325" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P325" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26382,11 +26382,11 @@
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T325" t="n">
         <v>10</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26444,20 +26444,20 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="N326" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P326" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T326" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327">
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,7 +26524,7 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N327" t="n">
         <v>13000</v>
@@ -26537,19 +26537,19 @@
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T327" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E328" t="n">
         <v>5</v>
@@ -26604,32 +26604,32 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N328" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O328" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T328" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44271</v>
+        <v>44210</v>
       </c>
       <c r="E329" t="n">
         <v>5</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N329" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O329" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P329" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26702,11 +26702,11 @@
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T329" t="n">
         <v>15</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N330" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O330" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P330" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26782,11 +26782,11 @@
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T330" t="n">
         <v>15</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44218</v>
+        <v>44271</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,32 +26844,32 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N331" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O331" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P331" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T331" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332">
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26924,32 +26924,32 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N332" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O332" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P332" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T332" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E333" t="n">
         <v>5</v>
@@ -27007,29 +27007,29 @@
         <v>68</v>
       </c>
       <c r="N333" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O333" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P333" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T333" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44250</v>
+        <v>44218</v>
       </c>
       <c r="E334" t="n">
         <v>5</v>
@@ -27084,7 +27084,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N334" t="n">
         <v>12000</v>
@@ -27097,7 +27097,7 @@
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T334" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E335" t="n">
         <v>5</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,32 +27164,32 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N335" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O335" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P335" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1333</v>
+        <v>733</v>
       </c>
       <c r="T335" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,32 +27244,32 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N336" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O336" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P336" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S336" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="T336" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,20 +27324,20 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="N337" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O337" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P337" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27346,10 +27346,10 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1400</v>
+        <v>1333</v>
       </c>
       <c r="T337" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44553</v>
+        <v>44168</v>
       </c>
       <c r="E338" t="n">
         <v>5</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,32 +27404,32 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N338" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O338" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P338" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="T338" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E339" t="n">
         <v>5</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,32 +27484,32 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="N339" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O339" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P339" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="T339" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44161</v>
+        <v>44553</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,32 +27564,32 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N340" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O340" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P340" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1667</v>
+        <v>1400</v>
       </c>
       <c r="T340" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,32 +27644,32 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N341" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O341" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P341" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>2100</v>
+        <v>1333</v>
       </c>
       <c r="T341" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342">
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E342" t="n">
         <v>5</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N342" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="O342" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P342" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>867</v>
+        <v>1667</v>
       </c>
       <c r="T342" t="n">
         <v>15</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,32 +27804,32 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="N343" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O343" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P343" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>867</v>
+        <v>2100</v>
       </c>
       <c r="T343" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344">
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N344" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O344" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P344" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T344" t="n">
         <v>15</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44285</v>
+        <v>44328</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N345" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O345" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P345" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T345" t="n">
         <v>15</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44285</v>
+        <v>44328</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N346" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O346" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P346" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T346" t="n">
         <v>15</v>
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N347" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O347" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P347" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T347" t="n">
         <v>15</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44418</v>
+        <v>44285</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
@@ -28204,7 +28204,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N348" t="n">
         <v>10000</v>
@@ -28217,7 +28217,7 @@
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T348" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,32 +28284,32 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N349" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O349" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P349" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>2000</v>
+        <v>933</v>
       </c>
       <c r="T349" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44259</v>
+        <v>44418</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28364,7 +28364,7 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N350" t="n">
         <v>10000</v>
@@ -28377,19 +28377,19 @@
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T350" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44259</v>
+        <v>44160</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,32 +28444,32 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N351" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O351" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P351" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="T351" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352">
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N352" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O352" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P352" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T352" t="n">
         <v>15</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,32 +28604,32 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N353" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O353" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P353" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T353" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354">
@@ -28675,25 +28675,25 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="N354" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O354" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P354" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28702,11 +28702,11 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T354" t="n">
         <v>15</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,32 +28764,32 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N355" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O355" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P355" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T355" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356">
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N356" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O356" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P356" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28862,11 +28862,11 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T356" t="n">
         <v>15</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N357" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O357" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P357" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28942,11 +28942,11 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S357" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T357" t="n">
         <v>15</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N358" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O358" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P358" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29022,11 +29022,11 @@
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S358" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T358" t="n">
         <v>15</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29084,32 +29084,32 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N359" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O359" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P359" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1500</v>
+        <v>733</v>
       </c>
       <c r="T359" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,32 +29164,32 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N360" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O360" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P360" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T360" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361">
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,7 +29244,7 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="N361" t="n">
         <v>15000</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,32 +29324,32 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="N362" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O362" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P362" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S362" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T362" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,32 +29404,32 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N363" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O363" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P363" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S363" t="n">
-        <v>667</v>
+        <v>1500</v>
       </c>
       <c r="T363" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44286</v>
+        <v>44341</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="N364" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O364" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P364" t="n">
-        <v>10489</v>
+        <v>12000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>699</v>
+        <v>800</v>
       </c>
       <c r="T364" t="n">
         <v>15</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44286</v>
+        <v>44341</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="N365" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O365" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P365" t="n">
-        <v>14496</v>
+        <v>10000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>966</v>
+        <v>667</v>
       </c>
       <c r="T365" t="n">
         <v>15</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="N366" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O366" t="n">
         <v>11000</v>
       </c>
       <c r="P366" t="n">
-        <v>11000</v>
+        <v>10489</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="T366" t="n">
         <v>15</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29715,25 +29715,25 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="N367" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O367" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P367" t="n">
-        <v>9000</v>
+        <v>14496</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>600</v>
+        <v>966</v>
       </c>
       <c r="T367" t="n">
         <v>15</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N368" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O368" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P368" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T368" t="n">
         <v>15</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N369" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O369" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P369" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="T369" t="n">
         <v>15</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,7 +29964,7 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N370" t="n">
         <v>10000</v>
@@ -29982,7 +29982,7 @@
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S370" t="n">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N371" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="O371" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="P371" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30062,11 +30062,11 @@
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S371" t="n">
-        <v>933</v>
+        <v>567</v>
       </c>
       <c r="T371" t="n">
         <v>15</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N372" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O372" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P372" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30142,11 +30142,11 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T372" t="n">
         <v>15</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N373" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O373" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P373" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30222,11 +30222,11 @@
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T373" t="n">
         <v>15</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44322</v>
+        <v>44264</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N374" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O374" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P374" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T374" t="n">
         <v>15</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44322</v>
+        <v>44264</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N375" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O375" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P375" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T375" t="n">
         <v>15</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N376" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O376" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P376" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T376" t="n">
         <v>15</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44389</v>
+        <v>44322</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N377" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O377" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P377" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T377" t="n">
         <v>15</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44389</v>
+        <v>44322</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N378" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O378" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P378" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T378" t="n">
         <v>15</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,7 +30684,7 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N379" t="n">
         <v>13000</v>
@@ -30697,7 +30697,7 @@
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T379" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,20 +30764,20 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N380" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O380" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P380" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,10 +30786,10 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T380" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44396</v>
+        <v>44391</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,7 +30844,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N381" t="n">
         <v>13000</v>
@@ -30857,7 +30857,7 @@
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T381" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382">
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,20 +30924,20 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N382" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O382" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P382" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T382" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,7 +31004,7 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N383" t="n">
         <v>13000</v>
@@ -31022,7 +31022,7 @@
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S383" t="n">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N384" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O384" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P384" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T384" t="n">
         <v>15</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,32 +31164,32 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N385" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O385" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P385" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T385" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,32 +31244,32 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N386" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O386" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P386" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="T386" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="387">
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N387" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O387" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P387" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T387" t="n">
         <v>10</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,32 +31404,32 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N388" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O388" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P388" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>867</v>
+        <v>1600</v>
       </c>
       <c r="T388" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,32 +31484,32 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N389" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O389" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P389" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>867</v>
+        <v>1600</v>
       </c>
       <c r="T389" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,32 +31564,32 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N390" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O390" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P390" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>2200</v>
+        <v>867</v>
       </c>
       <c r="T390" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44420</v>
+        <v>44386</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,20 +31644,20 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N391" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O391" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P391" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1333</v>
+        <v>867</v>
       </c>
       <c r="T391" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N392" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O392" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P392" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="T392" t="n">
         <v>10</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44543</v>
+        <v>44420</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,32 +31804,32 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N393" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P393" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2000</v>
+        <v>1333</v>
       </c>
       <c r="T393" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394">
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N394" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O394" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P394" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="T394" t="n">
         <v>10</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,32 +31964,32 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N395" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O395" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P395" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>867</v>
+        <v>2000</v>
       </c>
       <c r="T395" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32047,29 +32047,29 @@
         <v>87</v>
       </c>
       <c r="N396" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O396" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P396" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>733</v>
+        <v>2000</v>
       </c>
       <c r="T396" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397">
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N397" t="n">
         <v>13000</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N398" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O398" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P398" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T398" t="n">
         <v>15</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,7 +32284,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N399" t="n">
         <v>13000</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N400" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O400" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P400" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T400" t="n">
         <v>15</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N401" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O401" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P401" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T401" t="n">
         <v>15</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N402" t="n">
         <v>10000</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,7 +32604,7 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N403" t="n">
         <v>9000</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="N404" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O404" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P404" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T404" t="n">
         <v>15</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32755,25 +32755,25 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N405" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O405" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P405" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T405" t="n">
         <v>15</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="N406" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O406" t="n">
         <v>12000</v>
       </c>
       <c r="P406" t="n">
-        <v>11517</v>
+        <v>12000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="T406" t="n">
         <v>15</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,7 +32924,7 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N407" t="n">
         <v>13000</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="N408" t="n">
         <v>11000</v>
       </c>
       <c r="O408" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P408" t="n">
-        <v>11000</v>
+        <v>11517</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="T408" t="n">
         <v>15</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N409" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O409" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P409" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T409" t="n">
         <v>15</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N410" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O410" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P410" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33182,11 +33182,11 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T410" t="n">
         <v>15</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N411" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O411" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P411" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33262,11 +33262,11 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T411" t="n">
         <v>15</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="N412" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O412" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P412" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33342,11 +33342,11 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T412" t="n">
         <v>15</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N413" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O413" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P413" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T413" t="n">
         <v>15</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,32 +33484,32 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N414" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O414" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P414" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1667</v>
+        <v>667</v>
       </c>
       <c r="T414" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,32 +33564,32 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N415" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O415" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P415" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S415" t="n">
-        <v>2222</v>
+        <v>933</v>
       </c>
       <c r="T415" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,7 +33644,7 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N416" t="n">
         <v>15000</v>
@@ -33657,19 +33657,19 @@
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="T416" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,32 +33724,32 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N417" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O417" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P417" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1000</v>
+        <v>2222</v>
       </c>
       <c r="T417" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O418" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P418" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T418" t="n">
         <v>15</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33884,20 +33884,20 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N419" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O419" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P419" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,10 +33906,10 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T419" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420">
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33967,13 +33967,13 @@
         <v>60</v>
       </c>
       <c r="N420" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O420" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P420" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T420" t="n">
         <v>15</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N421" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P421" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T421" t="n">
         <v>15</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N422" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O422" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P422" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T422" t="n">
         <v>15</v>
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N423" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O423" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P423" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T423" t="n">
         <v>15</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34287,13 +34287,13 @@
         <v>56</v>
       </c>
       <c r="N424" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O424" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P424" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T424" t="n">
         <v>15</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,25 +34355,25 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N425" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O425" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P425" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34382,11 +34382,11 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T425" t="n">
         <v>15</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34444,7 +34444,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N426" t="n">
         <v>15000</v>
@@ -34457,19 +34457,19 @@
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/caja 8 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1875</v>
+        <v>1000</v>
       </c>
       <c r="T426" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427">
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N427" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O427" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P427" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T427" t="n">
         <v>15</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34604,20 +34604,20 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N428" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O428" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P428" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 8 kilos</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,10 +34626,10 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1300</v>
+        <v>1875</v>
       </c>
       <c r="T428" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="429">
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,7 +34684,7 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N429" t="n">
         <v>13000</v>
@@ -34697,7 +34697,7 @@
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34706,10 +34706,10 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T429" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="430">
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,32 +34764,32 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N430" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O430" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P430" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T430" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,7 +34844,7 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N431" t="n">
         <v>13000</v>
@@ -34857,7 +34857,7 @@
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,10 +34866,10 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T431" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432">
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,7 +34915,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -34924,20 +34924,20 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N432" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O432" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P432" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,10 +34946,10 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T432" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="433">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N433" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O433" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P433" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T433" t="n">
         <v>15</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35084,20 +35084,20 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N434" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O434" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P434" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T434" t="n">
         <v>10</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N435" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O435" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P435" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35182,11 +35182,11 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T435" t="n">
         <v>15</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,32 +35244,32 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="N436" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O436" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P436" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T436" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35327,13 +35327,13 @@
         <v>85</v>
       </c>
       <c r="N437" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O437" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P437" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T437" t="n">
         <v>15</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N438" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O438" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P438" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T438" t="n">
         <v>15</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N439" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O439" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P439" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T439" t="n">
         <v>15</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N440" t="n">
         <v>13000</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44340</v>
+        <v>44298</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35644,7 +35644,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N441" t="n">
         <v>10000</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44224</v>
+        <v>44298</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N442" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O442" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P442" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35742,11 +35742,11 @@
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T442" t="n">
         <v>15</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,7 +35804,7 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="N443" t="n">
         <v>10000</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N444" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O444" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P444" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T444" t="n">
         <v>15</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,7 +35964,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N445" t="n">
         <v>10000</v>
@@ -35982,7 +35982,7 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S445" t="n">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N446" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P446" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36062,11 +36062,11 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T446" t="n">
         <v>15</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N447" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O447" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P447" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T447" t="n">
         <v>15</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,7 +36204,7 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="N448" t="n">
         <v>12000</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N449" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O449" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P449" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T449" t="n">
         <v>15</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N450" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O450" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P450" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36382,11 +36382,11 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T450" t="n">
         <v>15</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N451" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O451" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P451" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36462,11 +36462,11 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T451" t="n">
         <v>15</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N452" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O452" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P452" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T452" t="n">
         <v>15</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N453" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O453" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P453" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T453" t="n">
         <v>15</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N454" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O454" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T454" t="n">
         <v>15</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36767,29 +36767,29 @@
         <v>75</v>
       </c>
       <c r="N455" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O455" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P455" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T455" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="456">
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36857,7 +36857,7 @@
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,10 +36866,10 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T456" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36924,32 +36924,32 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N457" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O457" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P457" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T457" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N458" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O458" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P458" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37022,11 +37022,11 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T458" t="n">
         <v>10</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37084,32 +37084,32 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N459" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O459" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P459" t="n">
-        <v>22444</v>
+        <v>13000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>2244</v>
+        <v>867</v>
       </c>
       <c r="T459" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="460">
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="N460" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O460" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P460" t="n">
-        <v>22548</v>
+        <v>14000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>2255</v>
+        <v>1400</v>
       </c>
       <c r="T460" t="n">
         <v>10</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,32 +37244,32 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="N461" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O461" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P461" t="n">
-        <v>13000</v>
+        <v>22444</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>867</v>
+        <v>2244</v>
       </c>
       <c r="T461" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,32 +37324,32 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="N462" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O462" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="P462" t="n">
-        <v>11000</v>
+        <v>22548</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>733</v>
+        <v>2255</v>
       </c>
       <c r="T462" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463">
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37404,7 +37404,7 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N463" t="n">
         <v>13000</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N464" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O464" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P464" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37502,11 +37502,11 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T464" t="n">
         <v>15</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N465" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O465" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P465" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T465" t="n">
         <v>15</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N466" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O466" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P466" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37662,11 +37662,11 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T466" t="n">
         <v>15</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44568</v>
+        <v>44344</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,32 +37724,32 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="N467" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O467" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P467" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T467" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="468">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44568</v>
+        <v>44344</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,32 +37804,32 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N468" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O468" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P468" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T468" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44357</v>
+        <v>44568</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37884,32 +37884,32 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N469" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O469" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P469" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T469" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44357</v>
+        <v>44568</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37964,32 +37964,32 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="N470" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O470" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P470" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S470" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T470" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="471">
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N471" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O471" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P471" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T471" t="n">
         <v>15</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,7 +38124,7 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="N472" t="n">
         <v>12000</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38207,13 +38207,13 @@
         <v>60</v>
       </c>
       <c r="N473" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O473" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P473" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T473" t="n">
         <v>15</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T474" t="n">
         <v>15</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N475" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O475" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P475" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38382,11 +38382,11 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T475" t="n">
         <v>15</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38444,32 +38444,32 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N476" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O476" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P476" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T476" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="477">
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,20 +38524,20 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N477" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O477" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P477" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
@@ -38546,10 +38546,10 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T477" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="478">
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,32 +38604,32 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N478" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O478" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P478" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T478" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="479">
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,32 +38684,32 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N479" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O479" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P479" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T479" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="480">
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,7 +38764,7 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N480" t="n">
         <v>13000</v>
@@ -38782,7 +38782,7 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S480" t="n">
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,32 +38844,32 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N481" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="O481" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P481" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>2200</v>
+        <v>733</v>
       </c>
       <c r="T481" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="482">
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38937,19 +38937,19 @@
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T482" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="483">
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N483" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O483" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P483" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T483" t="n">
         <v>10</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N484" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O484" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P484" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="T484" t="n">
         <v>10</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39164,32 +39164,32 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N485" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O485" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P485" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>733</v>
+        <v>2000</v>
       </c>
       <c r="T485" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="486">
@@ -39207,68 +39207,228 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E486" t="n">
+        <v>5</v>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G486" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I486" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M486" t="n">
+        <v>60</v>
+      </c>
+      <c r="N486" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O486" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P486" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q486" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R486" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S486" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T486" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>3</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D487" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E486" t="n">
-        <v>5</v>
-      </c>
-      <c r="F486" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G486" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I486" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J486" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K486" t="inlineStr">
+      <c r="E487" t="n">
+        <v>5</v>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G487" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I487" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M487" t="n">
+        <v>85</v>
+      </c>
+      <c r="N487" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O487" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P487" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q487" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S487" t="n">
+        <v>733</v>
+      </c>
+      <c r="T487" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>3</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D488" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E488" t="n">
+        <v>5</v>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G488" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I488" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
         <is>
           <t>Thompson seedless</t>
         </is>
       </c>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M486" t="n">
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M488" t="n">
         <v>70</v>
       </c>
-      <c r="N486" t="n">
+      <c r="N488" t="n">
         <v>10000</v>
       </c>
-      <c r="O486" t="n">
+      <c r="O488" t="n">
         <v>10000</v>
       </c>
-      <c r="P486" t="n">
+      <c r="P488" t="n">
         <v>10000</v>
       </c>
-      <c r="Q486" t="inlineStr">
+      <c r="Q488" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R486" t="inlineStr">
+      <c r="R488" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S486" t="n">
+      <c r="S488" t="n">
         <v>667</v>
       </c>
-      <c r="T486" t="n">
+      <c r="T488" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T501"/>
+  <dimension ref="A1:T504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44293</v>
+        <v>44578</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,7 +37724,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N467" t="n">
         <v>10000</v>
@@ -37737,19 +37737,19 @@
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T467" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44293</v>
+        <v>44578</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,41 +37795,41 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N468" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O468" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P468" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T468" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44293</v>
+        <v>44578</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37884,32 +37884,32 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="N469" t="n">
         <v>10000</v>
       </c>
       <c r="O469" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P469" t="n">
-        <v>10000</v>
+        <v>10533</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>667</v>
+        <v>1053</v>
       </c>
       <c r="T469" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N470" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37982,11 +37982,11 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S470" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T470" t="n">
         <v>15</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N471" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O471" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P471" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T471" t="n">
         <v>15</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,32 +38124,32 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N472" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P472" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T472" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="473">
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N473" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O473" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P473" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T473" t="n">
         <v>15</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T474" t="n">
         <v>15</v>
@@ -38355,41 +38355,41 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N475" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O475" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P475" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T475" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="476">
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N476" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O476" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P476" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38462,11 +38462,11 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T476" t="n">
         <v>15</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N477" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O477" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P477" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T477" t="n">
         <v>15</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44571</v>
+        <v>44266</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,41 +38595,41 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N478" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O478" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P478" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T478" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="479">
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38684,32 +38684,32 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="N479" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O479" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P479" t="n">
-        <v>13464</v>
+        <v>9000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1346</v>
+        <v>600</v>
       </c>
       <c r="T479" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="480">
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,32 +38764,32 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="N480" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O480" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P480" t="n">
-        <v>12469</v>
+        <v>9000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1247</v>
+        <v>600</v>
       </c>
       <c r="T480" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="481">
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N481" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O481" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P481" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T481" t="n">
         <v>10</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38924,32 +38924,32 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="N482" t="n">
         <v>13000</v>
       </c>
       <c r="O482" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P482" t="n">
-        <v>13000</v>
+        <v>13464</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>867</v>
+        <v>1346</v>
       </c>
       <c r="T482" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="483">
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,32 +39004,32 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="N483" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O483" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P483" t="n">
-        <v>11000</v>
+        <v>12469</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>733</v>
+        <v>1247</v>
       </c>
       <c r="T483" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="484">
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,41 +39075,41 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N484" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O484" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P484" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T484" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="485">
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N485" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O485" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P485" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T485" t="n">
         <v>15</v>
@@ -39235,25 +39235,25 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N486" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="O486" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="P486" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>567</v>
+        <v>733</v>
       </c>
       <c r="T486" t="n">
         <v>15</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N487" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O487" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P487" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T487" t="n">
         <v>15</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,7 +39404,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N488" t="n">
         <v>10000</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N489" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="O489" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P489" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39502,11 +39502,11 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>867</v>
+        <v>567</v>
       </c>
       <c r="T489" t="n">
         <v>15</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N490" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O490" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P490" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T490" t="n">
         <v>15</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="N491" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O491" t="n">
         <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>9524</v>
+        <v>10000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>635</v>
+        <v>667</v>
       </c>
       <c r="T491" t="n">
         <v>15</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,32 +39724,32 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="N492" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O492" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P492" t="n">
-        <v>18471</v>
+        <v>13000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1847</v>
+        <v>867</v>
       </c>
       <c r="T492" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="493">
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P493" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T493" t="n">
         <v>15</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="N494" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O494" t="n">
         <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>10000</v>
+        <v>9524</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="T494" t="n">
         <v>15</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44354</v>
+        <v>44525</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,32 +39964,32 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="N495" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O495" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P495" t="n">
-        <v>12000</v>
+        <v>18471</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>800</v>
+        <v>1847</v>
       </c>
       <c r="T495" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="496">
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N496" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O496" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P496" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T496" t="n">
         <v>15</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N497" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O497" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P497" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T497" t="n">
         <v>15</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44384</v>
+        <v>44354</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N498" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O498" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P498" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T498" t="n">
         <v>15</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44312</v>
+        <v>44354</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N499" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O499" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P499" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T499" t="n">
         <v>15</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44312</v>
+        <v>44354</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N500" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O500" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P500" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40382,11 +40382,11 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T500" t="n">
         <v>15</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,7 +40444,7 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N501" t="n">
         <v>13000</v>
@@ -40469,6 +40469,246 @@
         <v>867</v>
       </c>
       <c r="T501" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>3</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D502" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E502" t="n">
+        <v>5</v>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G502" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I502" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>Crimpson Seedless</t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M502" t="n">
+        <v>85</v>
+      </c>
+      <c r="N502" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O502" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P502" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q502" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R502" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S502" t="n">
+        <v>867</v>
+      </c>
+      <c r="T502" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>3</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D503" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E503" t="n">
+        <v>5</v>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G503" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I503" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M503" t="n">
+        <v>80</v>
+      </c>
+      <c r="N503" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O503" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P503" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q503" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R503" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S503" t="n">
+        <v>733</v>
+      </c>
+      <c r="T503" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>3</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D504" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E504" t="n">
+        <v>5</v>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G504" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I504" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>Rosada pastilla</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M504" t="n">
+        <v>70</v>
+      </c>
+      <c r="N504" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O504" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P504" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q504" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S504" t="n">
+        <v>867</v>
+      </c>
+      <c r="T504" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T511"/>
+  <dimension ref="A1:T513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44413</v>
+        <v>44582</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25804,29 +25804,29 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="N318" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O318" t="n">
         <v>10000</v>
       </c>
       <c r="P318" t="n">
-        <v>10000</v>
+        <v>9533</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1000</v>
+        <v>953</v>
       </c>
       <c r="T318" t="n">
         <v>10</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44544</v>
+        <v>44582</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="N319" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O319" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>20000</v>
+        <v>9524</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25902,11 +25902,11 @@
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>2000</v>
+        <v>952</v>
       </c>
       <c r="T319" t="n">
         <v>10</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44544</v>
+        <v>44413</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,29 +25964,29 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="N320" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O320" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P320" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S320" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T320" t="n">
         <v>10</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44308</v>
+        <v>44544</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,32 +26124,32 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="N322" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O322" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P322" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="T322" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E323" t="n">
         <v>5</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,32 +26204,32 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N323" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O323" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P323" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S323" t="n">
-        <v>867</v>
+        <v>2000</v>
       </c>
       <c r="T323" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324">
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="N324" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O324" t="n">
         <v>12000</v>
       </c>
       <c r="P324" t="n">
-        <v>11517</v>
+        <v>12000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="T324" t="n">
         <v>15</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,7 +26364,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N325" t="n">
         <v>13000</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44357</v>
+        <v>44308</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="N326" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O326" t="n">
         <v>12000</v>
       </c>
       <c r="P326" t="n">
-        <v>12000</v>
+        <v>11517</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="T326" t="n">
         <v>15</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44357</v>
+        <v>44308</v>
       </c>
       <c r="E327" t="n">
         <v>5</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="N327" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O327" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P327" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T327" t="n">
         <v>15</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N328" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O328" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26622,11 +26622,11 @@
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T328" t="n">
         <v>15</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44218</v>
+        <v>44357</v>
       </c>
       <c r="E329" t="n">
         <v>5</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="N329" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O329" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P329" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26702,11 +26702,11 @@
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T329" t="n">
         <v>15</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44218</v>
+        <v>44357</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,20 +26764,20 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N330" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O330" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P330" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1200</v>
+        <v>933</v>
       </c>
       <c r="T330" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331">
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,32 +26844,32 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N331" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O331" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P331" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T331" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44320</v>
+        <v>44218</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26924,32 +26924,32 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N332" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O332" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P332" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T332" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44320</v>
+        <v>44218</v>
       </c>
       <c r="E333" t="n">
         <v>5</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,20 +27004,20 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N333" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O333" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P333" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27026,10 +27026,10 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T333" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334">
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27084,7 +27084,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N334" t="n">
         <v>13000</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44335</v>
+        <v>44320</v>
       </c>
       <c r="E335" t="n">
         <v>5</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N335" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O335" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P335" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T335" t="n">
         <v>15</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44335</v>
+        <v>44320</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N336" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O336" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P336" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T336" t="n">
         <v>15</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44306</v>
+        <v>44335</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N337" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O337" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P337" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T337" t="n">
         <v>15</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44306</v>
+        <v>44335</v>
       </c>
       <c r="E338" t="n">
         <v>5</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N338" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O338" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P338" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T338" t="n">
         <v>15</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N339" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O339" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P339" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T339" t="n">
         <v>15</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44251</v>
+        <v>44306</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N340" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O340" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P340" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27582,11 +27582,11 @@
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T340" t="n">
         <v>15</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44251</v>
+        <v>44306</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27647,13 +27647,13 @@
         <v>70</v>
       </c>
       <c r="N341" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O341" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P341" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27662,11 +27662,11 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T341" t="n">
         <v>15</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44295</v>
+        <v>44251</v>
       </c>
       <c r="E342" t="n">
         <v>5</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N342" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O342" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P342" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T342" t="n">
         <v>15</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44295</v>
+        <v>44251</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N343" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O343" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P343" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27822,11 +27822,11 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T343" t="n">
         <v>15</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N344" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O344" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P344" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T344" t="n">
         <v>15</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44210</v>
+        <v>44295</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,7 +27964,7 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="N345" t="n">
         <v>10000</v>
@@ -27982,7 +27982,7 @@
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S345" t="n">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44210</v>
+        <v>44295</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,7 +28044,7 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N346" t="n">
         <v>13000</v>
@@ -28057,19 +28057,19 @@
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T346" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347">
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28124,20 +28124,20 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="N347" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O347" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P347" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T347" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348">
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28204,7 +28204,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N348" t="n">
         <v>13000</v>
@@ -28217,19 +28217,19 @@
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T348" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44407</v>
+        <v>44210</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,32 +28284,32 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N349" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O349" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P349" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T349" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44343</v>
+        <v>44210</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,32 +28364,32 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N350" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O350" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P350" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T350" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44343</v>
+        <v>44407</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,20 +28444,20 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N351" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O351" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P351" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28469,7 +28469,7 @@
         <v>1000</v>
       </c>
       <c r="T351" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352">
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N352" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O352" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P352" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T352" t="n">
         <v>10</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44230</v>
+        <v>44343</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,20 +28604,20 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="N353" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P353" t="n">
-        <v>11515</v>
+        <v>10000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,10 +28626,10 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>768</v>
+        <v>1000</v>
       </c>
       <c r="T353" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44316</v>
+        <v>44343</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,32 +28684,32 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N354" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O354" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P354" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T354" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44316</v>
+        <v>44230</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O355" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P355" t="n">
-        <v>10000</v>
+        <v>11515</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="T355" t="n">
         <v>15</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,7 +28844,7 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N356" t="n">
         <v>13000</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44265</v>
+        <v>44316</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28942,7 +28942,7 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S357" t="n">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44265</v>
+        <v>44316</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N358" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O358" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P358" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T358" t="n">
         <v>15</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N360" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O360" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P360" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T360" t="n">
         <v>15</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44329</v>
+        <v>44265</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N361" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O361" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P361" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29262,11 +29262,11 @@
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S361" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T361" t="n">
         <v>15</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44329</v>
+        <v>44265</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,25 +29315,25 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N362" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O362" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P362" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T362" t="n">
         <v>15</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N363" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O363" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P363" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T363" t="n">
         <v>15</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44186</v>
+        <v>44329</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N364" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O364" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P364" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29502,11 +29502,11 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T364" t="n">
         <v>15</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44186</v>
+        <v>44329</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,20 +29564,20 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N365" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O365" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P365" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29586,10 +29586,10 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1500</v>
+        <v>867</v>
       </c>
       <c r="T365" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="366">
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,32 +29644,32 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="N366" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O366" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P366" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="T366" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367">
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44272</v>
+        <v>44186</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,32 +29724,32 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N367" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O367" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P367" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>733</v>
+        <v>1500</v>
       </c>
       <c r="T367" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44272</v>
+        <v>44186</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29804,32 +29804,32 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N368" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O368" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P368" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S368" t="n">
-        <v>667</v>
+        <v>1700</v>
       </c>
       <c r="T368" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44167</v>
+        <v>44272</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N369" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O369" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P369" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29902,11 +29902,11 @@
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1333</v>
+        <v>733</v>
       </c>
       <c r="T369" t="n">
         <v>15</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44411</v>
+        <v>44272</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N370" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O370" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P370" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T370" t="n">
         <v>15</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44211</v>
+        <v>44167</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N371" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O371" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P371" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>667</v>
+        <v>1333</v>
       </c>
       <c r="T371" t="n">
         <v>15</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44211</v>
+        <v>44411</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30124,32 +30124,32 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N372" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O372" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P372" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T372" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373">
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30217,7 +30217,7 @@
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
@@ -30226,10 +30226,10 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T373" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374">
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,20 +30284,20 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N374" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O374" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P374" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,10 +30306,10 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T374" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44313</v>
+        <v>44211</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,32 +30364,32 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N375" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O375" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P375" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T375" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44313</v>
+        <v>44211</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N376" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O376" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P376" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30462,11 +30462,11 @@
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S376" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T376" t="n">
         <v>15</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,7 +30524,7 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N377" t="n">
         <v>13000</v>
@@ -30542,7 +30542,7 @@
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S377" t="n">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N378" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O378" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P378" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T378" t="n">
         <v>15</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N379" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O379" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P379" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30702,11 +30702,11 @@
       </c>
       <c r="R379" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S379" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T379" t="n">
         <v>15</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44209</v>
+        <v>44334</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N380" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O380" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P380" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30782,11 +30782,11 @@
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T380" t="n">
         <v>15</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44209</v>
+        <v>44334</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,32 +30844,32 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="N381" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O381" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P381" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1200</v>
+        <v>733</v>
       </c>
       <c r="T381" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382">
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N382" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O382" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P382" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T382" t="n">
         <v>15</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44389</v>
+        <v>44209</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,32 +31004,32 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N383" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O383" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P383" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T383" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44389</v>
+        <v>44209</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N384" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O384" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P384" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31102,11 +31102,11 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T384" t="n">
         <v>15</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44405</v>
+        <v>44389</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N385" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O385" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P385" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T385" t="n">
         <v>15</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44221</v>
+        <v>44389</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N386" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O386" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P386" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31262,11 +31262,11 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T386" t="n">
         <v>15</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44221</v>
+        <v>44405</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,7 +31324,7 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N387" t="n">
         <v>15000</v>
@@ -31337,19 +31337,19 @@
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T387" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="388">
@@ -31395,25 +31395,25 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Sultanina</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N388" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O388" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P388" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T388" t="n">
         <v>15</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,32 +31484,32 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N389" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O389" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P389" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>867</v>
+        <v>1500</v>
       </c>
       <c r="T389" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44280</v>
+        <v>44221</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,25 +31555,25 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Sultanina</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N390" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O390" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P390" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31582,11 +31582,11 @@
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T390" t="n">
         <v>15</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44280</v>
+        <v>44221</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N391" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O391" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P391" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31662,11 +31662,11 @@
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S391" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T391" t="n">
         <v>15</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N392" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O392" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P392" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T392" t="n">
         <v>15</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N393" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O393" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P393" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31822,11 +31822,11 @@
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T393" t="n">
         <v>15</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N394" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O394" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P394" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T394" t="n">
         <v>15</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44196</v>
+        <v>44330</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,7 +31964,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N395" t="n">
         <v>13000</v>
@@ -31982,7 +31982,7 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S395" t="n">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44196</v>
+        <v>44330</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32047,29 +32047,29 @@
         <v>70</v>
       </c>
       <c r="N396" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O396" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P396" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1300</v>
+        <v>733</v>
       </c>
       <c r="T396" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397">
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N397" t="n">
         <v>13000</v>
@@ -32137,7 +32137,7 @@
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,10 +32146,10 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T397" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398">
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,32 +32204,32 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N398" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O398" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P398" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T398" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44239</v>
+        <v>44196</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32297,19 +32297,19 @@
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T399" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44328</v>
+        <v>44196</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N400" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O400" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P400" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32382,11 +32382,11 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T400" t="n">
         <v>15</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44328</v>
+        <v>44239</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,7 +32444,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N401" t="n">
         <v>13000</v>
@@ -32462,7 +32462,7 @@
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S401" t="n">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N402" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O402" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P402" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T402" t="n">
         <v>15</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44208</v>
+        <v>44328</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N403" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O403" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P403" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32622,11 +32622,11 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T403" t="n">
         <v>15</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44208</v>
+        <v>44328</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N404" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O404" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P404" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32702,11 +32702,11 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="T404" t="n">
         <v>15</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44250</v>
+        <v>44208</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N405" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O405" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P405" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T405" t="n">
         <v>15</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44250</v>
+        <v>44208</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N406" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O406" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P406" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T406" t="n">
         <v>15</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44515</v>
+        <v>44250</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,32 +32924,32 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="N407" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="O407" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="P407" t="n">
-        <v>22528</v>
+        <v>11000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>2503</v>
+        <v>733</v>
       </c>
       <c r="T407" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408">
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44560</v>
+        <v>44250</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,32 +33004,32 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N408" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O408" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P408" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T408" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="409">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44560</v>
+        <v>44515</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,20 +33084,20 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N409" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O409" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P409" t="n">
-        <v>14519</v>
+        <v>22528</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1452</v>
+        <v>2503</v>
       </c>
       <c r="T409" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="410">
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="N410" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O410" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P410" t="n">
-        <v>14452</v>
+        <v>10000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1445</v>
+        <v>1000</v>
       </c>
       <c r="T410" t="n">
         <v>10</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,7 +33244,7 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N411" t="n">
         <v>14000</v>
@@ -33253,7 +33253,7 @@
         <v>15000</v>
       </c>
       <c r="P411" t="n">
-        <v>14480</v>
+        <v>14519</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="T411" t="n">
         <v>10</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44543</v>
+        <v>44560</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="N412" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O412" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P412" t="n">
-        <v>13000</v>
+        <v>14452</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1300</v>
+        <v>1445</v>
       </c>
       <c r="T412" t="n">
         <v>10</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44543</v>
+        <v>44560</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N413" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O413" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P413" t="n">
-        <v>20000</v>
+        <v>14480</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>2000</v>
+        <v>1448</v>
       </c>
       <c r="T413" t="n">
         <v>10</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N414" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O414" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P414" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="T414" t="n">
         <v>10</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44552</v>
+        <v>44543</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N415" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O415" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P415" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T415" t="n">
         <v>10</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44552</v>
+        <v>44543</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N416" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O416" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P416" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T416" t="n">
         <v>10</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44379</v>
+        <v>44552</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,32 +33724,32 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N417" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O417" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P417" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>867</v>
+        <v>1500</v>
       </c>
       <c r="T417" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44216</v>
+        <v>44552</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,32 +33804,32 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O418" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P418" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>667</v>
+        <v>1500</v>
       </c>
       <c r="T418" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44216</v>
+        <v>44379</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33887,13 +33887,13 @@
         <v>68</v>
       </c>
       <c r="N419" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O419" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P419" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33902,11 +33902,11 @@
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T419" t="n">
         <v>15</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N420" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O420" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P420" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T420" t="n">
         <v>15</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44229</v>
+        <v>44216</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="N421" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O421" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P421" t="n">
-        <v>11527</v>
+        <v>15000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34062,11 +34062,11 @@
       </c>
       <c r="R421" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S421" t="n">
-        <v>768</v>
+        <v>1000</v>
       </c>
       <c r="T421" t="n">
         <v>15</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44286</v>
+        <v>44216</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="N422" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O422" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P422" t="n">
-        <v>10489</v>
+        <v>12000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34142,11 +34142,11 @@
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>699</v>
+        <v>800</v>
       </c>
       <c r="T422" t="n">
         <v>15</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44286</v>
+        <v>44229</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="N423" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O423" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P423" t="n">
-        <v>14496</v>
+        <v>11527</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>966</v>
+        <v>768</v>
       </c>
       <c r="T423" t="n">
         <v>15</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44341</v>
+        <v>44286</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="N424" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O424" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P424" t="n">
-        <v>12000</v>
+        <v>10489</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>800</v>
+        <v>699</v>
       </c>
       <c r="T424" t="n">
         <v>15</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44341</v>
+        <v>44286</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="N425" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O425" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P425" t="n">
-        <v>10000</v>
+        <v>14496</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>667</v>
+        <v>966</v>
       </c>
       <c r="T425" t="n">
         <v>15</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44298</v>
+        <v>44341</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N426" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T426" t="n">
         <v>15</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44298</v>
+        <v>44341</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N427" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O427" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P427" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T427" t="n">
         <v>15</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N428" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O428" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P428" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T428" t="n">
         <v>15</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,7 +34684,7 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N429" t="n">
         <v>13000</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N430" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O430" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P430" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T430" t="n">
         <v>15</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N431" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O431" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P431" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T431" t="n">
         <v>15</v>
@@ -34915,7 +34915,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N432" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O432" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P432" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T432" t="n">
         <v>15</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,32 +35004,32 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N433" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O433" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P433" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T433" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="434">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N434" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O434" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P434" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T434" t="n">
         <v>15</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,32 +35164,32 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N435" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O435" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T435" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44554</v>
+        <v>44294</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,32 +35244,32 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N436" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O436" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P436" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T436" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44554</v>
+        <v>44294</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,32 +35324,32 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N437" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O437" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P437" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T437" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44305</v>
+        <v>44554</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,32 +35404,32 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N438" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O438" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P438" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T438" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44305</v>
+        <v>44554</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Blanca Italia</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,32 +35484,32 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N439" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O439" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P439" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S439" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T439" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440">
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N440" t="n">
         <v>12000</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Blanca Italia</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N441" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O441" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P441" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T441" t="n">
         <v>15</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Ribier</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,7 +35724,7 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N442" t="n">
         <v>12000</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35807,13 +35807,13 @@
         <v>70</v>
       </c>
       <c r="N443" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O443" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P443" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35822,11 +35822,11 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T443" t="n">
         <v>15</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44545</v>
+        <v>44305</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Ribier</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,32 +35884,32 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N444" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O444" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P444" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="T444" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44545</v>
+        <v>44305</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,32 +35964,32 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N445" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O445" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P445" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="T445" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44301</v>
+        <v>44545</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,32 +36044,32 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N446" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P446" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="T446" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44301</v>
+        <v>44545</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,32 +36124,32 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N447" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O447" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P447" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>867</v>
+        <v>2000</v>
       </c>
       <c r="T447" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N448" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O448" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P448" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T448" t="n">
         <v>15</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,7 +36284,7 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N449" t="n">
         <v>13000</v>
@@ -36302,7 +36302,7 @@
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S449" t="n">
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36367,13 +36367,13 @@
         <v>85</v>
       </c>
       <c r="N450" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O450" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P450" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T450" t="n">
         <v>15</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44278</v>
+        <v>44301</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N451" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O451" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P451" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36462,11 +36462,11 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T451" t="n">
         <v>15</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44278</v>
+        <v>44301</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,25 +36515,25 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N452" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O452" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P452" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T452" t="n">
         <v>15</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,7 +36604,7 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N453" t="n">
         <v>10000</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,7 +36684,7 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N454" t="n">
         <v>9000</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44193</v>
+        <v>44278</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N455" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O455" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P455" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36782,11 +36782,11 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T455" t="n">
         <v>15</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44193</v>
+        <v>44278</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36835,41 +36835,41 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N456" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O456" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P456" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="T456" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,7 +36924,7 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N457" t="n">
         <v>12000</v>
@@ -36937,7 +36937,7 @@
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T457" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458">
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N458" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O458" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P458" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37022,11 +37022,11 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T458" t="n">
         <v>10</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44392</v>
+        <v>44193</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37084,32 +37084,32 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N459" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O459" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P459" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T459" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="460">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44392</v>
+        <v>44193</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37164,7 +37164,7 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N460" t="n">
         <v>13000</v>
@@ -37177,19 +37177,19 @@
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T460" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44412</v>
+        <v>44392</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37244,20 +37244,20 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N461" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O461" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P461" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
@@ -37266,10 +37266,10 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T461" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44412</v>
+        <v>44392</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N462" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O462" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P462" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T462" t="n">
         <v>15</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44322</v>
+        <v>44412</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37404,20 +37404,20 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N463" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O463" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P463" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
@@ -37426,10 +37426,10 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T463" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44322</v>
+        <v>44412</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N464" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O464" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P464" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T464" t="n">
         <v>15</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N465" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O465" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P465" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T465" t="n">
         <v>15</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44194</v>
+        <v>44322</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N466" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O466" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P466" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37662,11 +37662,11 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T466" t="n">
         <v>15</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44194</v>
+        <v>44322</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37727,29 +37727,29 @@
         <v>50</v>
       </c>
       <c r="N467" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O467" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P467" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T467" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="468">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,20 +37804,20 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N468" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O468" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P468" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
@@ -37826,10 +37826,10 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T468" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37884,32 +37884,32 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N469" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O469" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P469" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T469" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44236</v>
+        <v>44194</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,29 +37955,29 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N470" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O470" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P470" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
@@ -37986,10 +37986,10 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T470" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="471">
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44532</v>
+        <v>44236</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,32 +38044,32 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N471" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O471" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P471" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>1500</v>
+        <v>867</v>
       </c>
       <c r="T471" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472">
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44532</v>
+        <v>44236</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,41 +38115,41 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N472" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O472" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P472" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>2200</v>
+        <v>667</v>
       </c>
       <c r="T472" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="473">
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N473" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O473" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P473" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="T473" t="n">
         <v>10</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44578</v>
+        <v>44532</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N474" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P474" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38302,11 +38302,11 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="T474" t="n">
         <v>10</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44578</v>
+        <v>44532</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38355,25 +38355,25 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N475" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O475" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="P475" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38382,11 +38382,11 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="T475" t="n">
         <v>10</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N476" t="n">
         <v>10000</v>
       </c>
       <c r="O476" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P476" t="n">
-        <v>10533</v>
+        <v>10000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1053</v>
+        <v>1000</v>
       </c>
       <c r="T476" t="n">
         <v>10</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44293</v>
+        <v>44578</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38515,41 +38515,41 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N477" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O477" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P477" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T477" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="478">
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44293</v>
+        <v>44578</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,32 +38604,32 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="N478" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O478" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P478" t="n">
-        <v>13000</v>
+        <v>10533</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>867</v>
+        <v>1053</v>
       </c>
       <c r="T478" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="479">
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,7 +38684,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N479" t="n">
         <v>10000</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38782,7 +38782,7 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S480" t="n">
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N481" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O481" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P481" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38862,11 +38862,11 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T481" t="n">
         <v>15</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,32 +38924,32 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N482" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O482" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P482" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T482" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="483">
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,7 +39004,7 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N483" t="n">
         <v>12000</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,32 +39084,32 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N484" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O484" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P484" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T484" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="485">
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N485" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O485" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P485" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T485" t="n">
         <v>15</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N486" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O486" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P486" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T486" t="n">
         <v>15</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39320,11 +39320,11 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N487" t="n">
         <v>9000</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,32 +39404,32 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N488" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O488" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P488" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T488" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="489">
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,32 +39484,32 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="N489" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O489" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P489" t="n">
-        <v>13464</v>
+        <v>9000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1346</v>
+        <v>600</v>
       </c>
       <c r="T489" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="490">
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="N490" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O490" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P490" t="n">
-        <v>12469</v>
+        <v>10000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39582,11 +39582,11 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S490" t="n">
-        <v>1247</v>
+        <v>1000</v>
       </c>
       <c r="T490" t="n">
         <v>10</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="N491" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O491" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P491" t="n">
-        <v>12000</v>
+        <v>13464</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1200</v>
+        <v>1346</v>
       </c>
       <c r="T491" t="n">
         <v>10</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,32 +39724,32 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="N492" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O492" t="n">
         <v>13000</v>
       </c>
       <c r="P492" t="n">
-        <v>13000</v>
+        <v>12469</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>867</v>
+        <v>1247</v>
       </c>
       <c r="T492" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="493">
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39804,32 +39804,32 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N493" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O493" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P493" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T493" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="494">
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39880,20 +39880,20 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N494" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O494" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P494" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T494" t="n">
         <v>15</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N495" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O495" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P495" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T495" t="n">
         <v>15</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,16 +40044,16 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N496" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O496" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P496" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="T496" t="n">
         <v>15</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N497" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O497" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P497" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T497" t="n">
         <v>15</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M498" t="n">
         <v>80</v>
       </c>
       <c r="N498" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O498" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P498" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="T498" t="n">
         <v>15</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N499" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O499" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P499" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T499" t="n">
         <v>15</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,7 +40364,7 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N500" t="n">
         <v>10000</v>
@@ -40382,7 +40382,7 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S500" t="n">
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="N501" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O501" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P501" t="n">
-        <v>9524</v>
+        <v>13000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>635</v>
+        <v>867</v>
       </c>
       <c r="T501" t="n">
         <v>15</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,32 +40524,32 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="N502" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O502" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P502" t="n">
-        <v>18471</v>
+        <v>10000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1847</v>
+        <v>667</v>
       </c>
       <c r="T502" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="503">
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="N503" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O503" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P503" t="n">
-        <v>12000</v>
+        <v>9524</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>800</v>
+        <v>635</v>
       </c>
       <c r="T503" t="n">
         <v>15</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40675,7 +40675,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -40684,32 +40684,32 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N504" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O504" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P504" t="n">
-        <v>10000</v>
+        <v>18471</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>667</v>
+        <v>1847</v>
       </c>
       <c r="T504" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="505">
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40764,7 +40764,7 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N505" t="n">
         <v>12000</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40844,7 +40844,7 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N506" t="n">
         <v>10000</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N507" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O507" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P507" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T507" t="n">
         <v>15</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44384</v>
+        <v>44354</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N508" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O508" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P508" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T508" t="n">
         <v>15</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44312</v>
+        <v>44354</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,7 +41084,7 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N509" t="n">
         <v>13000</v>
@@ -41102,7 +41102,7 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S509" t="n">
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41167,13 +41167,13 @@
         <v>80</v>
       </c>
       <c r="N510" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O510" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P510" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T510" t="n">
         <v>15</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,7 +41244,7 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N511" t="n">
         <v>13000</v>
@@ -41269,6 +41269,166 @@
         <v>867</v>
       </c>
       <c r="T511" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>3</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D512" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E512" t="n">
+        <v>5</v>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G512" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I512" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M512" t="n">
+        <v>80</v>
+      </c>
+      <c r="N512" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O512" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P512" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q512" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R512" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S512" t="n">
+        <v>733</v>
+      </c>
+      <c r="T512" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>3</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D513" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E513" t="n">
+        <v>5</v>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G513" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I513" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>Rosada pastilla</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M513" t="n">
+        <v>70</v>
+      </c>
+      <c r="N513" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O513" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P513" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q513" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R513" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S513" t="n">
+        <v>867</v>
+      </c>
+      <c r="T513" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T513"/>
+  <dimension ref="A1:T515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,7 +38604,7 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N478" t="n">
         <v>10000</v>
@@ -38617,12 +38617,12 @@
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S478" t="n">
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Sultanina</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,32 +38684,32 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="N479" t="n">
         <v>14000</v>
       </c>
       <c r="O479" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P479" t="n">
-        <v>14519</v>
+        <v>14000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1452</v>
+        <v>778</v>
       </c>
       <c r="T479" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="480">
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="N480" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O480" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P480" t="n">
-        <v>14452</v>
+        <v>10000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1445</v>
+        <v>1000</v>
       </c>
       <c r="T480" t="n">
         <v>10</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,7 +38844,7 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N481" t="n">
         <v>14000</v>
@@ -38853,7 +38853,7 @@
         <v>15000</v>
       </c>
       <c r="P481" t="n">
-        <v>14480</v>
+        <v>14519</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="T481" t="n">
         <v>10</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,32 +38924,32 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="N482" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O482" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P482" t="n">
-        <v>11000</v>
+        <v>14452</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>733</v>
+        <v>1445</v>
       </c>
       <c r="T482" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="483">
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -39004,32 +39004,32 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="N483" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O483" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P483" t="n">
-        <v>10000</v>
+        <v>14480</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>667</v>
+        <v>1448</v>
       </c>
       <c r="T483" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="484">
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N484" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O484" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P484" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T484" t="n">
         <v>15</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N485" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O485" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P485" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T485" t="n">
         <v>15</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44529</v>
+        <v>44385</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,32 +39244,32 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N486" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O486" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P486" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1667</v>
+        <v>867</v>
       </c>
       <c r="T486" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="487">
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44529</v>
+        <v>44385</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,32 +39324,32 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N487" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O487" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P487" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>2222</v>
+        <v>867</v>
       </c>
       <c r="T487" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="488">
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,32 +39404,32 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N488" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O488" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P488" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>867</v>
+        <v>1667</v>
       </c>
       <c r="T488" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="489">
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,32 +39484,32 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N489" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O489" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P489" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>667</v>
+        <v>2222</v>
       </c>
       <c r="T489" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="490">
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N490" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O490" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P490" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T490" t="n">
         <v>15</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39647,13 +39647,13 @@
         <v>85</v>
       </c>
       <c r="N491" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O491" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T491" t="n">
         <v>15</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N492" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O492" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P492" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T492" t="n">
         <v>15</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39804,32 +39804,32 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N493" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O493" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P493" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T493" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="494">
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39884,32 +39884,32 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N494" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O494" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P494" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1333</v>
+        <v>733</v>
       </c>
       <c r="T494" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="495">
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N495" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O495" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P495" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T495" t="n">
         <v>10</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,32 +40044,32 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N496" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O496" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P496" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>733</v>
+        <v>1333</v>
       </c>
       <c r="T496" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,7 +40124,7 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N497" t="n">
         <v>13000</v>
@@ -40137,7 +40137,7 @@
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
@@ -40146,10 +40146,10 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T497" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="498">
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N498" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O498" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P498" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T498" t="n">
         <v>15</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,7 +40284,7 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N499" t="n">
         <v>13000</v>
@@ -40302,7 +40302,7 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S499" t="n">
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N500" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O500" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P500" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T500" t="n">
         <v>15</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,7 +40444,7 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N501" t="n">
         <v>13000</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N502" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O502" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P502" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T502" t="n">
         <v>15</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N503" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O503" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P503" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T503" t="n">
         <v>15</v>
@@ -40675,7 +40675,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -40684,7 +40684,7 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N504" t="n">
         <v>13000</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N505" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O505" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P505" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T505" t="n">
         <v>15</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40844,32 +40844,32 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="N506" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O506" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P506" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T506" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="507">
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N507" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O507" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P507" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T507" t="n">
         <v>15</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41004,32 +41004,32 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N508" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O508" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P508" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T508" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="509">
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N509" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O509" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P509" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41102,11 +41102,11 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T509" t="n">
         <v>15</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41164,32 +41164,32 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N510" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O510" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P510" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T510" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="511">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,32 +41244,32 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N511" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O511" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P511" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T511" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="512">
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,32 +41324,32 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N512" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O512" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P512" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S512" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T512" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="513">
@@ -41367,68 +41367,228 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E513" t="n">
+        <v>5</v>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G513" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I513" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M513" t="n">
+        <v>56</v>
+      </c>
+      <c r="N513" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O513" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P513" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q513" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R513" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S513" t="n">
+        <v>1400</v>
+      </c>
+      <c r="T513" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>3</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D514" s="2" t="n">
         <v>44392</v>
       </c>
-      <c r="E513" t="n">
-        <v>5</v>
-      </c>
-      <c r="F513" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G513" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I513" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J513" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K513" t="inlineStr">
+      <c r="E514" t="n">
+        <v>5</v>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G514" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I514" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>Autumn Royal</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M514" t="n">
+        <v>60</v>
+      </c>
+      <c r="N514" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O514" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P514" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q514" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R514" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S514" t="n">
+        <v>867</v>
+      </c>
+      <c r="T514" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>3</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D515" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E515" t="n">
+        <v>5</v>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G515" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I515" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
         <is>
           <t>Red Globe</t>
         </is>
       </c>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M513" t="n">
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M515" t="n">
         <v>85</v>
       </c>
-      <c r="N513" t="n">
+      <c r="N515" t="n">
         <v>13000</v>
       </c>
-      <c r="O513" t="n">
+      <c r="O515" t="n">
         <v>13000</v>
       </c>
-      <c r="P513" t="n">
+      <c r="P515" t="n">
         <v>13000</v>
       </c>
-      <c r="Q513" t="inlineStr">
+      <c r="Q515" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R513" t="inlineStr">
+      <c r="R515" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S513" t="n">
+      <c r="S515" t="n">
         <v>867</v>
       </c>
-      <c r="T513" t="n">
+      <c r="T515" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T529"/>
+  <dimension ref="A1:T534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42204,32 +42204,32 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N523" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O523" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P523" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T523" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="524">
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N524" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O524" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P524" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T524" t="n">
         <v>15</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N525" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O525" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P525" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42382,11 +42382,11 @@
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T525" t="n">
         <v>10</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -42444,7 +42444,7 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N526" t="n">
         <v>15000</v>
@@ -42457,19 +42457,19 @@
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T526" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="527">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,32 +42524,32 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N527" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O527" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P527" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="T527" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,32 +42604,32 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N528" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O528" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P528" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="T528" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="529">
@@ -42647,68 +42647,468 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E529" t="n">
+        <v>5</v>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G529" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I529" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M529" t="n">
+        <v>75</v>
+      </c>
+      <c r="N529" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O529" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P529" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q529" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R529" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S529" t="n">
+        <v>733</v>
+      </c>
+      <c r="T529" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>3</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D530" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E530" t="n">
+        <v>5</v>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G530" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I530" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M530" t="n">
+        <v>70</v>
+      </c>
+      <c r="N530" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O530" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P530" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q530" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R530" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S530" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T530" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>3</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D531" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E531" t="n">
+        <v>5</v>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G531" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I531" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M531" t="n">
+        <v>68</v>
+      </c>
+      <c r="N531" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O531" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P531" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q531" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R531" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S531" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T531" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>3</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D532" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E532" t="n">
+        <v>5</v>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G532" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I532" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M532" t="n">
+        <v>50</v>
+      </c>
+      <c r="N532" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O532" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P532" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q532" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R532" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S532" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T532" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>3</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D533" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E533" t="n">
+        <v>5</v>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G533" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I533" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M533" t="n">
+        <v>48</v>
+      </c>
+      <c r="N533" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O533" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P533" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q533" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R533" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S533" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T533" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>3</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D534" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E529" t="n">
-        <v>5</v>
-      </c>
-      <c r="F529" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G529" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I529" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J529" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K529" t="inlineStr">
+      <c r="E534" t="n">
+        <v>5</v>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G534" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I534" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
         <is>
           <t>Flame Seedless</t>
         </is>
       </c>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M529" t="n">
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M534" t="n">
         <v>50</v>
       </c>
-      <c r="N529" t="n">
+      <c r="N534" t="n">
         <v>20000</v>
       </c>
-      <c r="O529" t="n">
+      <c r="O534" t="n">
         <v>20000</v>
       </c>
-      <c r="P529" t="n">
+      <c r="P534" t="n">
         <v>20000</v>
       </c>
-      <c r="Q529" t="inlineStr">
+      <c r="Q534" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R529" t="inlineStr">
+      <c r="R534" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="S529" t="n">
+      <c r="S534" t="n">
         <v>2000</v>
       </c>
-      <c r="T529" t="n">
+      <c r="T534" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T534"/>
+  <dimension ref="A1:T536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44326</v>
+        <v>44596</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26444,20 +26444,20 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N326" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O326" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P326" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="T326" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44326</v>
+        <v>44596</v>
       </c>
       <c r="E327" t="n">
         <v>5</v>
@@ -26524,20 +26524,20 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N327" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O327" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P327" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T327" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328">
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N328" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O328" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P328" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26622,11 +26622,11 @@
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T328" t="n">
         <v>15</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26687,13 +26687,13 @@
         <v>70</v>
       </c>
       <c r="N329" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O329" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P329" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T329" t="n">
         <v>15</v>
@@ -26755,25 +26755,25 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N330" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O330" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P330" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26782,11 +26782,11 @@
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T330" t="n">
         <v>15</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44238</v>
+        <v>44326</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N331" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O331" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P331" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T331" t="n">
         <v>15</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44238</v>
+        <v>44326</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -26915,25 +26915,25 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N332" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O332" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P332" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T332" t="n">
         <v>15</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27007,13 +27007,13 @@
         <v>60</v>
       </c>
       <c r="N333" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O333" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P333" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T333" t="n">
         <v>15</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E334" t="n">
         <v>5</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N334" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O334" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P334" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27102,11 +27102,11 @@
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S334" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T334" t="n">
         <v>15</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44242</v>
+        <v>44238</v>
       </c>
       <c r="E335" t="n">
         <v>5</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,32 +27164,32 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N335" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O335" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P335" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1200</v>
+        <v>733</v>
       </c>
       <c r="T335" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336">
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N336" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O336" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P336" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T336" t="n">
         <v>15</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,20 +27324,20 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="N337" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O337" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27346,10 +27346,10 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T337" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44188</v>
+        <v>44242</v>
       </c>
       <c r="E338" t="n">
         <v>5</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,20 +27404,20 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N338" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O338" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P338" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T338" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44348</v>
+        <v>44188</v>
       </c>
       <c r="E339" t="n">
         <v>5</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N339" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O339" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P339" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27502,11 +27502,11 @@
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T339" t="n">
         <v>15</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44348</v>
+        <v>44188</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,32 +27564,32 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N340" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O340" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P340" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T340" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44175</v>
+        <v>44348</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N341" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O341" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P341" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27662,11 +27662,11 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T341" t="n">
         <v>15</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44175</v>
+        <v>44348</v>
       </c>
       <c r="E342" t="n">
         <v>5</v>
@@ -27727,29 +27727,29 @@
         <v>60</v>
       </c>
       <c r="N342" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O342" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P342" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/caja 8 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1875</v>
+        <v>667</v>
       </c>
       <c r="T342" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44223</v>
+        <v>44175</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,32 +27804,32 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N343" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O343" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T343" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44223</v>
+        <v>44175</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,32 +27884,32 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N344" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O344" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P344" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 8 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1100</v>
+        <v>1875</v>
       </c>
       <c r="T344" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44201</v>
+        <v>44223</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,32 +27964,32 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N345" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O345" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P345" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T345" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44201</v>
+        <v>44223</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N346" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O346" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P346" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28062,11 +28062,11 @@
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="T346" t="n">
         <v>10</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44579</v>
+        <v>44201</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
@@ -28124,20 +28124,20 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N347" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="O347" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P347" t="n">
-        <v>8750</v>
+        <v>13000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="T347" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44579</v>
+        <v>44201</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="N348" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="O348" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P348" t="n">
-        <v>8742</v>
+        <v>13000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>874</v>
+        <v>1300</v>
       </c>
       <c r="T348" t="n">
         <v>10</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44515</v>
+        <v>44579</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -28284,32 +28284,32 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N349" t="n">
-        <v>22000</v>
+        <v>8500</v>
       </c>
       <c r="O349" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="P349" t="n">
-        <v>22528</v>
+        <v>8750</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>2503</v>
+        <v>875</v>
       </c>
       <c r="T349" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44249</v>
+        <v>44579</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,32 +28364,32 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="N350" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O350" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P350" t="n">
-        <v>12000</v>
+        <v>8742</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>800</v>
+        <v>874</v>
       </c>
       <c r="T350" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44249</v>
+        <v>44515</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,20 +28444,20 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="N351" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O351" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P351" t="n">
-        <v>12000</v>
+        <v>22528</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1000</v>
+        <v>2503</v>
       </c>
       <c r="T351" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352">
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N352" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O352" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P352" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T352" t="n">
         <v>15</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44566</v>
+        <v>44249</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,20 +28604,20 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="N353" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O353" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P353" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,10 +28626,10 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T353" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44566</v>
+        <v>44249</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,32 +28684,32 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N354" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O354" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P354" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1400</v>
+        <v>733</v>
       </c>
       <c r="T354" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44351</v>
+        <v>44566</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,32 +28764,32 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N355" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O355" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P355" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T355" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44351</v>
+        <v>44566</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,32 +28844,32 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N356" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O356" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P356" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>667</v>
+        <v>1400</v>
       </c>
       <c r="T356" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,7 +28924,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N357" t="n">
         <v>13000</v>
@@ -28942,7 +28942,7 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S357" t="n">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29004,32 +29004,32 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N358" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O358" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P358" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T358" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359">
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,7 +29084,7 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N359" t="n">
         <v>13000</v>
@@ -29097,7 +29097,7 @@
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T359" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360">
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,32 +29164,32 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N360" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O360" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P360" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T360" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44237</v>
+        <v>44196</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,7 +29244,7 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N361" t="n">
         <v>13000</v>
@@ -29257,7 +29257,7 @@
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T361" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44195</v>
+        <v>44196</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N362" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O362" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P362" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T362" t="n">
         <v>15</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44195</v>
+        <v>44237</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,32 +29404,32 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="N363" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O363" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P363" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1400</v>
+        <v>867</v>
       </c>
       <c r="T363" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364">
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29497,7 +29497,7 @@
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T364" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44300</v>
+        <v>44195</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,32 +29564,32 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N365" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O365" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P365" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>733</v>
+        <v>1400</v>
       </c>
       <c r="T365" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44300</v>
+        <v>44195</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29647,29 +29647,29 @@
         <v>70</v>
       </c>
       <c r="N366" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O366" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P366" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T366" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367">
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N367" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O367" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P367" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T367" t="n">
         <v>15</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29807,13 +29807,13 @@
         <v>70</v>
       </c>
       <c r="N368" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O368" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P368" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T368" t="n">
         <v>15</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44578</v>
+        <v>44300</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,7 +29884,7 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N369" t="n">
         <v>10000</v>
@@ -29897,19 +29897,19 @@
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T369" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="370">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44578</v>
+        <v>44300</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29955,41 +29955,41 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N370" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O370" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P370" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S370" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T370" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371">
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N371" t="n">
         <v>10000</v>
       </c>
       <c r="O371" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P371" t="n">
-        <v>10533</v>
+        <v>10000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1053</v>
+        <v>1000</v>
       </c>
       <c r="T371" t="n">
         <v>10</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30120,36 +30120,36 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N372" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O372" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P372" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T372" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30204,32 +30204,32 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="N373" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O373" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P373" t="n">
-        <v>12000</v>
+        <v>10533</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>800</v>
+        <v>1053</v>
       </c>
       <c r="T373" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44411</v>
+        <v>44225</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N374" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O374" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P374" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T374" t="n">
         <v>15</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44281</v>
+        <v>44225</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30367,13 +30367,13 @@
         <v>68</v>
       </c>
       <c r="N375" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O375" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P375" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T375" t="n">
         <v>15</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44281</v>
+        <v>44411</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N376" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O376" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P376" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T376" t="n">
         <v>15</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44252</v>
+        <v>44281</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30524,7 +30524,7 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N377" t="n">
         <v>11000</v>
@@ -30542,7 +30542,7 @@
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S377" t="n">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44252</v>
+        <v>44281</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30607,29 +30607,29 @@
         <v>68</v>
       </c>
       <c r="N378" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O378" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P378" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T378" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379">
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N379" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O379" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P379" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T379" t="n">
         <v>15</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44271</v>
+        <v>44252</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,32 +30764,32 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N380" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O380" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P380" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T380" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44271</v>
+        <v>44252</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30847,13 +30847,13 @@
         <v>75</v>
       </c>
       <c r="N381" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30862,11 +30862,11 @@
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S381" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T381" t="n">
         <v>15</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44420</v>
+        <v>44271</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,20 +30924,20 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N382" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O382" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P382" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1333</v>
+        <v>733</v>
       </c>
       <c r="T382" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44554</v>
+        <v>44271</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,32 +31004,32 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N383" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O383" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P383" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="T383" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="384">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44554</v>
+        <v>44420</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,32 +31084,32 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N384" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O384" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P384" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1400</v>
+        <v>1333</v>
       </c>
       <c r="T384" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="385">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44343</v>
+        <v>44554</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N385" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O385" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P385" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31182,11 +31182,11 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T385" t="n">
         <v>10</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44343</v>
+        <v>44554</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="N386" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O386" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P386" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31262,11 +31262,11 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T386" t="n">
         <v>10</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N387" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O387" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P387" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31342,11 +31342,11 @@
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T387" t="n">
         <v>10</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,20 +31404,20 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N388" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O388" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P388" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T388" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,32 +31484,32 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N389" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O389" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P389" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>667</v>
+        <v>1400</v>
       </c>
       <c r="T389" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,7 +31564,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N390" t="n">
         <v>13000</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44568</v>
+        <v>44315</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31644,32 +31644,32 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="N391" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O391" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P391" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T391" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44568</v>
+        <v>44315</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,32 +31724,32 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N392" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O392" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P392" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1400</v>
+        <v>867</v>
       </c>
       <c r="T392" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44336</v>
+        <v>44568</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,32 +31804,32 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N393" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O393" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P393" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T393" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44336</v>
+        <v>44568</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,32 +31884,32 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N394" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O394" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P394" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>667</v>
+        <v>1400</v>
       </c>
       <c r="T394" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395">
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N395" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O395" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P395" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31982,11 +31982,11 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T395" t="n">
         <v>15</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44565</v>
+        <v>44336</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32044,32 +32044,32 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="N396" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O396" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P396" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T396" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44565</v>
+        <v>44336</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N397" t="n">
         <v>14000</v>
@@ -32137,19 +32137,19 @@
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1400</v>
+        <v>933</v>
       </c>
       <c r="T397" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44400</v>
+        <v>44565</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32204,32 +32204,32 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N398" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O398" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P398" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T398" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44536</v>
+        <v>44565</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,7 +32284,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N399" t="n">
         <v>14000</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44536</v>
+        <v>44400</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32364,32 +32364,32 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="N400" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O400" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P400" t="n">
-        <v>22444</v>
+        <v>15000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>2244</v>
+        <v>1000</v>
       </c>
       <c r="T400" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="401">
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="N401" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O401" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P401" t="n">
-        <v>22548</v>
+        <v>14000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>2255</v>
+        <v>1400</v>
       </c>
       <c r="T401" t="n">
         <v>10</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44334</v>
+        <v>44536</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,32 +32524,32 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N402" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O402" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P402" t="n">
-        <v>12000</v>
+        <v>22444</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>800</v>
+        <v>2244</v>
       </c>
       <c r="T402" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44334</v>
+        <v>44536</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,32 +32604,32 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="N403" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O403" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="P403" t="n">
-        <v>11000</v>
+        <v>22548</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>733</v>
+        <v>2255</v>
       </c>
       <c r="T403" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44193</v>
+        <v>44334</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,7 +32684,7 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N404" t="n">
         <v>12000</v>
@@ -32702,7 +32702,7 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S404" t="n">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44193</v>
+        <v>44334</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32764,32 +32764,32 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N405" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O405" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P405" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1400</v>
+        <v>733</v>
       </c>
       <c r="T405" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="406">
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,7 +32844,7 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N406" t="n">
         <v>12000</v>
@@ -32857,7 +32857,7 @@
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,10 +32866,10 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T406" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="407">
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N407" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O407" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P407" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32942,11 +32942,11 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T407" t="n">
         <v>10</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N408" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O408" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P408" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T408" t="n">
         <v>10</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,7 +33084,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N409" t="n">
         <v>13000</v>
@@ -33102,7 +33102,7 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S409" t="n">
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N410" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O410" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P410" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33182,11 +33182,11 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T410" t="n">
         <v>10</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N411" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O411" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P411" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33262,11 +33262,11 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T411" t="n">
         <v>10</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44319</v>
+        <v>44573</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,32 +33324,32 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N412" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O412" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P412" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T412" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44319</v>
+        <v>44573</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,32 +33404,32 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N413" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O413" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P413" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S413" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T413" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414">
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N414" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O414" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P414" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33502,11 +33502,11 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T414" t="n">
         <v>15</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N415" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O415" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P415" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T415" t="n">
         <v>15</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33644,7 +33644,7 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N416" t="n">
         <v>12000</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N417" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O417" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P417" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T417" t="n">
         <v>15</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,7 +33804,7 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N418" t="n">
         <v>12000</v>
@@ -33822,7 +33822,7 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S418" t="n">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N419" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O419" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P419" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T419" t="n">
         <v>15</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N420" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O420" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T420" t="n">
         <v>15</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N422" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O422" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P422" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T422" t="n">
         <v>15</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44567</v>
+        <v>44365</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,32 +34204,32 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N423" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O423" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P423" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T423" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="424">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44567</v>
+        <v>44365</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,32 +34284,32 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N424" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O424" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P424" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T424" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44357</v>
+        <v>44567</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,32 +34364,32 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N425" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O425" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P425" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T425" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426">
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44357</v>
+        <v>44567</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,32 +34444,32 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="N426" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O426" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P426" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T426" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="427">
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N427" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O427" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P427" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34542,11 +34542,11 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T427" t="n">
         <v>15</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34604,32 +34604,32 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="N428" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O428" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P428" t="n">
-        <v>10476</v>
+        <v>12000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1048</v>
+        <v>800</v>
       </c>
       <c r="T428" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="429">
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,20 +34684,20 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="N429" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O429" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P429" t="n">
-        <v>10515</v>
+        <v>14000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34706,10 +34706,10 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1052</v>
+        <v>933</v>
       </c>
       <c r="T429" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="430">
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,7 +34764,7 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="N430" t="n">
         <v>10000</v>
@@ -34773,7 +34773,7 @@
         <v>11000</v>
       </c>
       <c r="P430" t="n">
-        <v>10558</v>
+        <v>10476</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="T430" t="n">
         <v>10</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="N431" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O431" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P431" t="n">
-        <v>14000</v>
+        <v>10515</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34862,11 +34862,11 @@
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1400</v>
+        <v>1052</v>
       </c>
       <c r="T431" t="n">
         <v>10</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,7 +34915,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="N432" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O432" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P432" t="n">
-        <v>22000</v>
+        <v>10558</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34942,11 +34942,11 @@
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>2200</v>
+        <v>1056</v>
       </c>
       <c r="T432" t="n">
         <v>10</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N433" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O433" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P433" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="T433" t="n">
         <v>10</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N434" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O434" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P434" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="T434" t="n">
         <v>10</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="N435" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O435" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P435" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="T435" t="n">
         <v>10</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44397</v>
+        <v>44553</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,32 +35244,32 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N436" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O436" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P436" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T436" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44397</v>
+        <v>44553</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,32 +35324,32 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="N437" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O437" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P437" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T437" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44329</v>
+        <v>44397</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N438" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O438" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P438" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35422,11 +35422,11 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T438" t="n">
         <v>15</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44329</v>
+        <v>44397</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N439" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O439" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P439" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T439" t="n">
         <v>15</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N440" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O440" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P440" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T440" t="n">
         <v>15</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44208</v>
+        <v>44329</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N441" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O441" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P441" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35662,11 +35662,11 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T441" t="n">
         <v>15</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44208</v>
+        <v>44329</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N442" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O442" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P442" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T442" t="n">
         <v>15</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44355</v>
+        <v>44208</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N443" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O443" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P443" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35822,11 +35822,11 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T443" t="n">
         <v>15</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N444" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O444" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P444" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35902,11 +35902,11 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T444" t="n">
         <v>15</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,7 +35964,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N445" t="n">
         <v>12000</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N446" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O446" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P446" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T446" t="n">
         <v>15</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,32 +36124,32 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N447" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O447" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P447" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T447" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="448">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O448" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P448" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36222,11 +36222,11 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T448" t="n">
         <v>15</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,32 +36284,32 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N449" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O449" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P449" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T449" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44557</v>
+        <v>44294</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,32 +36364,32 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N450" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O450" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P450" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T450" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44557</v>
+        <v>44294</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36447,29 +36447,29 @@
         <v>60</v>
       </c>
       <c r="N451" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O451" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P451" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T451" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36524,32 +36524,32 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N452" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O452" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P452" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="T452" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="453">
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36607,29 +36607,29 @@
         <v>60</v>
       </c>
       <c r="N453" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O453" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P453" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="T453" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44396</v>
+        <v>44264</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,7 +36684,7 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N454" t="n">
         <v>9000</v>
@@ -36697,7 +36697,7 @@
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36706,10 +36706,10 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T454" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44396</v>
+        <v>44264</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N455" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O455" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P455" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T455" t="n">
         <v>15</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,20 +36844,20 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N456" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O456" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P456" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,10 +36866,10 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T456" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,7 +36924,7 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N457" t="n">
         <v>13000</v>
@@ -36942,7 +36942,7 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S457" t="n">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N458" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O458" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P458" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T458" t="n">
         <v>15</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37084,16 +37084,16 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N459" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O459" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P459" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37102,11 +37102,11 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T459" t="n">
         <v>15</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37155,25 +37155,25 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
         <v>70</v>
       </c>
       <c r="N460" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O460" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P460" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T460" t="n">
         <v>15</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N461" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O461" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P461" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T461" t="n">
         <v>15</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N462" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O462" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P462" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="T462" t="n">
         <v>15</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N463" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O463" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P463" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T463" t="n">
         <v>15</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,25 +37475,25 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N464" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O464" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P464" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="T464" t="n">
         <v>15</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44572</v>
+        <v>44330</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,7 +37564,7 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N465" t="n">
         <v>13000</v>
@@ -37577,19 +37577,19 @@
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T465" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="466">
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44572</v>
+        <v>44330</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,32 +37644,32 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N466" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O466" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P466" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1200</v>
+        <v>733</v>
       </c>
       <c r="T466" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="467">
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37724,32 +37724,32 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N467" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O467" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P467" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T467" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,32 +37804,32 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N468" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P468" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T468" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469">
@@ -37875,25 +37875,25 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N469" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O469" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P469" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T469" t="n">
         <v>15</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N470" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T470" t="n">
         <v>15</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N471" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O471" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P471" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T471" t="n">
         <v>15</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N472" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O472" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P472" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T472" t="n">
         <v>15</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,7 +38204,7 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N473" t="n">
         <v>13000</v>
@@ -38222,7 +38222,7 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S473" t="n">
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38287,13 +38287,13 @@
         <v>85</v>
       </c>
       <c r="N474" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O474" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P474" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T474" t="n">
         <v>15</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N475" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O475" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P475" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38382,11 +38382,11 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T475" t="n">
         <v>15</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44200</v>
+        <v>44301</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,7 +38444,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N476" t="n">
         <v>13000</v>
@@ -38462,7 +38462,7 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S476" t="n">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44200</v>
+        <v>44370</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38527,29 +38527,29 @@
         <v>60</v>
       </c>
       <c r="N477" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O477" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P477" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T477" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="478">
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44385</v>
+        <v>44200</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,7 +38604,7 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N478" t="n">
         <v>13000</v>
@@ -38622,7 +38622,7 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S478" t="n">
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44385</v>
+        <v>44200</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,7 +38684,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N479" t="n">
         <v>13000</v>
@@ -38697,19 +38697,19 @@
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T479" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="480">
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44236</v>
+        <v>44385</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,7 +38764,7 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N480" t="n">
         <v>13000</v>
@@ -38782,7 +38782,7 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S480" t="n">
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44236</v>
+        <v>44385</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="N481" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O481" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P481" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38862,11 +38862,11 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T481" t="n">
         <v>15</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N482" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O482" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P482" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T482" t="n">
         <v>15</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,29 +38995,29 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N483" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O483" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P483" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
@@ -39026,10 +39026,10 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1500</v>
+        <v>667</v>
       </c>
       <c r="T483" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="484">
@@ -39075,25 +39075,25 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Sultanina</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N484" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O484" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P484" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T484" t="n">
         <v>15</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,32 +39164,32 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N485" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O485" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P485" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>867</v>
+        <v>1500</v>
       </c>
       <c r="T485" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="486">
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44413</v>
+        <v>44221</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39235,16 +39235,16 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Sultanina</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="N486" t="n">
         <v>10000</v>
@@ -39257,19 +39257,19 @@
       </c>
       <c r="Q486" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T486" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="487">
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44272</v>
+        <v>44221</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N487" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O487" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P487" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T487" t="n">
         <v>15</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44272</v>
+        <v>44413</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,7 +39404,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N488" t="n">
         <v>10000</v>
@@ -39417,7 +39417,7 @@
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
@@ -39426,10 +39426,10 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T488" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="489">
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44229</v>
+        <v>44272</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="N489" t="n">
         <v>11000</v>
       </c>
       <c r="O489" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P489" t="n">
-        <v>11527</v>
+        <v>11000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>768</v>
+        <v>733</v>
       </c>
       <c r="T489" t="n">
         <v>15</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,7 +39564,7 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N490" t="n">
         <v>10000</v>
@@ -39582,7 +39582,7 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S490" t="n">
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44214</v>
+        <v>44229</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39644,16 +39644,16 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="N491" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O491" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P491" t="n">
-        <v>16000</v>
+        <v>11527</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1067</v>
+        <v>768</v>
       </c>
       <c r="T491" t="n">
         <v>15</v>
@@ -39715,25 +39715,25 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N492" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O492" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P492" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T492" t="n">
         <v>15</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44299</v>
+        <v>44214</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N493" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O493" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P493" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39822,11 +39822,11 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T493" t="n">
         <v>15</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44299</v>
+        <v>44214</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N494" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O494" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P494" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T494" t="n">
         <v>15</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N495" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O495" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P495" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T495" t="n">
         <v>15</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44312</v>
+        <v>44299</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,7 +40044,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N496" t="n">
         <v>13000</v>
@@ -40062,7 +40062,7 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S496" t="n">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44312</v>
+        <v>44299</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N497" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O497" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P497" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T497" t="n">
         <v>15</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,7 +40204,7 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N498" t="n">
         <v>13000</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N499" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O499" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P499" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T499" t="n">
         <v>15</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,20 +40364,20 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N500" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O500" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P500" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
@@ -40386,10 +40386,10 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T500" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="501">
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44543</v>
+        <v>44399</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,32 +40444,32 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N501" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O501" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P501" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T501" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="502">
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44543</v>
+        <v>44399</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N502" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O502" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P502" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T502" t="n">
         <v>10</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N503" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O503" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P503" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="T503" t="n">
         <v>10</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40675,7 +40675,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -40684,7 +40684,7 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N504" t="n">
         <v>20000</v>
@@ -40697,19 +40697,19 @@
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>1333</v>
+        <v>2000</v>
       </c>
       <c r="T504" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="505">
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,32 +40764,32 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="N505" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O505" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P505" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
-          <t>$/caja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>2625</v>
+        <v>2000</v>
       </c>
       <c r="T505" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="506">
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N506" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O506" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P506" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>733</v>
+        <v>1333</v>
       </c>
       <c r="T506" t="n">
         <v>15</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40924,32 +40924,32 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N507" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O507" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P507" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 8 kilos</t>
         </is>
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>667</v>
+        <v>2625</v>
       </c>
       <c r="T507" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="508">
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N508" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O508" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P508" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T508" t="n">
         <v>15</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,7 +41084,7 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N509" t="n">
         <v>10000</v>
@@ -41102,7 +41102,7 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S509" t="n">
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="N510" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O510" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P510" t="n">
-        <v>9524</v>
+        <v>13000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41182,11 +41182,11 @@
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>635</v>
+        <v>867</v>
       </c>
       <c r="T510" t="n">
         <v>15</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,7 +41244,7 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N511" t="n">
         <v>10000</v>
@@ -41262,7 +41262,7 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S511" t="n">
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="N512" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O512" t="n">
         <v>10000</v>
       </c>
       <c r="P512" t="n">
-        <v>10000</v>
+        <v>9524</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="T512" t="n">
         <v>15</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N513" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O513" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P513" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T513" t="n">
         <v>15</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N514" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O514" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P514" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T514" t="n">
         <v>15</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N516" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O516" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P516" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T516" t="n">
         <v>15</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N517" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O517" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P517" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T517" t="n">
         <v>15</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -41804,7 +41804,7 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N518" t="n">
         <v>10000</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N519" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O519" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P519" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T519" t="n">
         <v>15</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N520" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O520" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P520" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41982,11 +41982,11 @@
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T520" t="n">
         <v>15</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42044,32 +42044,32 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N521" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O521" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P521" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1500</v>
+        <v>933</v>
       </c>
       <c r="T521" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="522">
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,32 +42124,32 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N522" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O522" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P522" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T522" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="523">
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N523" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O523" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P523" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T523" t="n">
         <v>10</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -42284,20 +42284,20 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N524" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O524" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P524" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R524" t="inlineStr">
@@ -42309,7 +42309,7 @@
         <v>1000</v>
       </c>
       <c r="T524" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="525">
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N525" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O525" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P525" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T525" t="n">
         <v>10</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,7 +42444,7 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N526" t="n">
         <v>15000</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,7 +42524,7 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N527" t="n">
         <v>13000</v>
@@ -42537,7 +42537,7 @@
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
@@ -42546,10 +42546,10 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T527" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N528" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O528" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P528" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T528" t="n">
         <v>15</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N529" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O529" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P529" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42702,11 +42702,11 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T529" t="n">
         <v>15</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,32 +42764,32 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N530" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O530" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P530" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1500</v>
+        <v>867</v>
       </c>
       <c r="T530" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="531">
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,32 +42844,32 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N531" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O531" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P531" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1500</v>
+        <v>733</v>
       </c>
       <c r="T531" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="532">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N532" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O532" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P532" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T532" t="n">
         <v>10</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="N533" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O533" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P533" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T533" t="n">
         <v>10</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43109,6 +43109,166 @@
         <v>2000</v>
       </c>
       <c r="T534" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>3</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D535" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E535" t="n">
+        <v>5</v>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G535" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I535" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M535" t="n">
+        <v>48</v>
+      </c>
+      <c r="N535" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O535" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P535" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q535" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R535" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S535" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T535" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>3</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D536" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E536" t="n">
+        <v>5</v>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I536" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M536" t="n">
+        <v>50</v>
+      </c>
+      <c r="N536" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O536" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P536" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q536" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R536" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S536" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T536" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T561"/>
+  <dimension ref="A1:T565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,20 +31484,20 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N389" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O389" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P389" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>867</v>
+        <v>900</v>
       </c>
       <c r="T389" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31564,32 +31564,32 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N390" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O390" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P390" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T390" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44195</v>
+        <v>44609</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N391" t="n">
         <v>13000</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44300</v>
+        <v>44609</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N392" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O392" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P392" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T392" t="n">
         <v>15</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44300</v>
+        <v>44195</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31807,13 +31807,13 @@
         <v>70</v>
       </c>
       <c r="N393" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O393" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P393" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31822,11 +31822,11 @@
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T393" t="n">
         <v>15</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44300</v>
+        <v>44195</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31884,32 +31884,32 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N394" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O394" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P394" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>667</v>
+        <v>1400</v>
       </c>
       <c r="T394" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44300</v>
+        <v>44195</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31977,19 +31977,19 @@
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S395" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T395" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44578</v>
+        <v>44300</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,32 +32044,32 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N396" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O396" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P396" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T396" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44578</v>
+        <v>44300</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32115,41 +32115,41 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N397" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O397" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P397" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S397" t="n">
         <v>800</v>
       </c>
       <c r="T397" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44578</v>
+        <v>44300</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,32 +32204,32 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="N398" t="n">
         <v>10000</v>
       </c>
       <c r="O398" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P398" t="n">
-        <v>10533</v>
+        <v>10000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1053</v>
+        <v>667</v>
       </c>
       <c r="T398" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44225</v>
+        <v>44300</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32287,13 +32287,13 @@
         <v>70</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T399" t="n">
         <v>15</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44225</v>
+        <v>44578</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,32 +32364,32 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N400" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O400" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T400" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44411</v>
+        <v>44578</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,41 +32435,41 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N401" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O401" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P401" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T401" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44281</v>
+        <v>44578</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,32 +32524,32 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="N402" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O402" t="n">
         <v>11000</v>
       </c>
       <c r="P402" t="n">
-        <v>11000</v>
+        <v>10533</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>733</v>
+        <v>1053</v>
       </c>
       <c r="T402" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44281</v>
+        <v>44225</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,7 +32604,7 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N403" t="n">
         <v>10000</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44252</v>
+        <v>44225</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N404" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O404" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P404" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32702,11 +32702,11 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T404" t="n">
         <v>15</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44252</v>
+        <v>44411</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,32 +32764,32 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N405" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O405" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P405" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T405" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="406">
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44252</v>
+        <v>44281</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P406" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T406" t="n">
         <v>15</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44271</v>
+        <v>44281</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N407" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O407" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P407" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T407" t="n">
         <v>15</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44271</v>
+        <v>44252</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N408" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O408" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P408" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33022,11 +33022,11 @@
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T408" t="n">
         <v>15</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44420</v>
+        <v>44252</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,7 +33084,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N409" t="n">
         <v>12000</v>
@@ -33097,19 +33097,19 @@
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="T409" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44554</v>
+        <v>44252</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,32 +33164,32 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N410" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O410" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P410" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T410" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="411">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44554</v>
+        <v>44271</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,32 +33244,32 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="N411" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O411" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P411" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1400</v>
+        <v>733</v>
       </c>
       <c r="T411" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44343</v>
+        <v>44271</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,20 +33324,20 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N412" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P412" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,10 +33346,10 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T412" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44343</v>
+        <v>44420</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,20 +33404,20 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N413" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O413" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P413" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T413" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44343</v>
+        <v>44554</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,7 +33484,7 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N414" t="n">
         <v>14000</v>
@@ -33502,7 +33502,7 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S414" t="n">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44315</v>
+        <v>44554</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,32 +33564,32 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N415" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O415" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P415" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S415" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T415" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,20 +33644,20 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N416" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O416" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P416" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,10 +33666,10 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T416" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,20 +33724,20 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N417" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O417" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P417" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,10 +33746,10 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T417" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44568</v>
+        <v>44343</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,7 +33804,7 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N418" t="n">
         <v>14000</v>
@@ -33822,7 +33822,7 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S418" t="n">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44568</v>
+        <v>44315</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,32 +33884,32 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N419" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O419" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P419" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1400</v>
+        <v>867</v>
       </c>
       <c r="T419" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="420">
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44336</v>
+        <v>44315</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N420" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O420" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P420" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T420" t="n">
         <v>15</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44336</v>
+        <v>44315</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N421" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P421" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T421" t="n">
         <v>15</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44336</v>
+        <v>44568</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,7 +34124,7 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N422" t="n">
         <v>14000</v>
@@ -34137,19 +34137,19 @@
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>933</v>
+        <v>1400</v>
       </c>
       <c r="T422" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423">
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44565</v>
+        <v>44568</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,7 +34204,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N423" t="n">
         <v>14000</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44565</v>
+        <v>44336</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,32 +34284,32 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N424" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O424" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P424" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T424" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44400</v>
+        <v>44336</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N425" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O425" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P425" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T425" t="n">
         <v>15</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44536</v>
+        <v>44336</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,7 +34444,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N426" t="n">
         <v>14000</v>
@@ -34457,19 +34457,19 @@
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>1400</v>
+        <v>933</v>
       </c>
       <c r="T426" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427">
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44536</v>
+        <v>44565</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N427" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O427" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P427" t="n">
-        <v>22444</v>
+        <v>14000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>2244</v>
+        <v>1400</v>
       </c>
       <c r="T427" t="n">
         <v>10</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44536</v>
+        <v>44565</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="N428" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O428" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P428" t="n">
-        <v>22548</v>
+        <v>14000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>2255</v>
+        <v>1400</v>
       </c>
       <c r="T428" t="n">
         <v>10</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44334</v>
+        <v>44400</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N429" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O429" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P429" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T429" t="n">
         <v>15</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44334</v>
+        <v>44536</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,32 +34764,32 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="N430" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O430" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P430" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>733</v>
+        <v>1400</v>
       </c>
       <c r="T430" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44193</v>
+        <v>44536</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,32 +34844,32 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="N431" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O431" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P431" t="n">
-        <v>12000</v>
+        <v>22444</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>800</v>
+        <v>2244</v>
       </c>
       <c r="T431" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432">
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44193</v>
+        <v>44536</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,7 +34915,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="N432" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O432" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P432" t="n">
-        <v>14000</v>
+        <v>22548</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>1400</v>
+        <v>2255</v>
       </c>
       <c r="T432" t="n">
         <v>10</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44193</v>
+        <v>44334</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34995,7 +34995,7 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -35004,7 +35004,7 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N433" t="n">
         <v>12000</v>
@@ -35017,19 +35017,19 @@
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S433" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T433" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="434">
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44193</v>
+        <v>44334</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,32 +35084,32 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N434" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O434" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P434" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1300</v>
+        <v>733</v>
       </c>
       <c r="T434" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="435">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35164,20 +35164,20 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N435" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O435" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P435" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T435" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35247,13 +35247,13 @@
         <v>75</v>
       </c>
       <c r="N436" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O436" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P436" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T436" t="n">
         <v>10</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35324,7 +35324,7 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N437" t="n">
         <v>12000</v>
@@ -35342,7 +35342,7 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S437" t="n">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N438" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O438" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P438" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T438" t="n">
         <v>10</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44319</v>
+        <v>44573</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,32 +35484,32 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N439" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O439" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P439" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S439" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T439" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44319</v>
+        <v>44573</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
@@ -35564,32 +35564,32 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N440" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O440" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P440" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S440" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T440" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441">
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44319</v>
+        <v>44573</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,7 +35644,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N441" t="n">
         <v>12000</v>
@@ -35657,19 +35657,19 @@
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T441" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,32 +35724,32 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N442" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O442" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P442" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S442" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T442" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N443" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O443" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P443" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35822,11 +35822,11 @@
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T443" t="n">
         <v>15</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,7 +35884,7 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N444" t="n">
         <v>10000</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44362</v>
+        <v>44319</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,7 +35964,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N445" t="n">
         <v>12000</v>
@@ -35982,7 +35982,7 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S445" t="n">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N446" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O446" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P446" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T446" t="n">
         <v>15</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N447" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O447" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P447" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36142,11 +36142,11 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T447" t="n">
         <v>15</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44365</v>
+        <v>44280</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N448" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O448" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P448" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T448" t="n">
         <v>15</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N449" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O449" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P449" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T449" t="n">
         <v>15</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44567</v>
+        <v>44362</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,32 +36364,32 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N450" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O450" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P450" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T450" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44567</v>
+        <v>44362</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,32 +36444,32 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N451" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O451" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P451" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1400</v>
+        <v>733</v>
       </c>
       <c r="T451" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,7 +36524,7 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N452" t="n">
         <v>12000</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N453" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O453" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P453" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T453" t="n">
         <v>15</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44357</v>
+        <v>44567</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,7 +36684,7 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N454" t="n">
         <v>14000</v>
@@ -36697,19 +36697,19 @@
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>933</v>
+        <v>1400</v>
       </c>
       <c r="T454" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="N455" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O455" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P455" t="n">
-        <v>10476</v>
+        <v>14000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36782,11 +36782,11 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1048</v>
+        <v>1400</v>
       </c>
       <c r="T455" t="n">
         <v>10</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,32 +36844,32 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="N456" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O456" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P456" t="n">
-        <v>10515</v>
+        <v>12000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1052</v>
+        <v>800</v>
       </c>
       <c r="T456" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,32 +36924,32 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="N457" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O457" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P457" t="n">
-        <v>10558</v>
+        <v>12000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1056</v>
+        <v>800</v>
       </c>
       <c r="T457" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44537</v>
+        <v>44357</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,7 +37004,7 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N458" t="n">
         <v>14000</v>
@@ -37017,19 +37017,19 @@
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1400</v>
+        <v>933</v>
       </c>
       <c r="T458" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="459">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37084,16 +37084,16 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N459" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O459" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P459" t="n">
-        <v>22000</v>
+        <v>10476</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37102,11 +37102,11 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>2200</v>
+        <v>1048</v>
       </c>
       <c r="T459" t="n">
         <v>10</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="N460" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O460" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P460" t="n">
-        <v>22000</v>
+        <v>10515</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37182,11 +37182,11 @@
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>2200</v>
+        <v>1052</v>
       </c>
       <c r="T460" t="n">
         <v>10</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="N461" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O461" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P461" t="n">
-        <v>14000</v>
+        <v>10558</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37262,11 +37262,11 @@
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1400</v>
+        <v>1056</v>
       </c>
       <c r="T461" t="n">
         <v>10</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,7 +37324,7 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="N462" t="n">
         <v>14000</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44397</v>
+        <v>44537</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37404,32 +37404,32 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N463" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O463" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P463" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>867</v>
+        <v>2200</v>
       </c>
       <c r="T463" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44397</v>
+        <v>44537</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,32 +37484,32 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N464" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O464" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P464" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>867</v>
+        <v>2200</v>
       </c>
       <c r="T464" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465">
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44329</v>
+        <v>44553</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,7 +37564,7 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N465" t="n">
         <v>14000</v>
@@ -37577,19 +37577,19 @@
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>933</v>
+        <v>1400</v>
       </c>
       <c r="T465" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="466">
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44329</v>
+        <v>44553</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,32 +37644,32 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N466" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O466" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P466" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T466" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="467">
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44329</v>
+        <v>44397</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,7 +37724,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N467" t="n">
         <v>13000</v>
@@ -37742,7 +37742,7 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S467" t="n">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44208</v>
+        <v>44397</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N468" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P468" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37822,11 +37822,11 @@
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T468" t="n">
         <v>15</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44208</v>
+        <v>44329</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37884,7 +37884,7 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N469" t="n">
         <v>14000</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37964,7 +37964,7 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N470" t="n">
         <v>12000</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44294</v>
+        <v>44329</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="N471" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O471" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P471" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T471" t="n">
         <v>15</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N472" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P472" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38142,11 +38142,11 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T472" t="n">
         <v>15</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N473" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O473" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P473" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T473" t="n">
         <v>15</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,32 +38284,32 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P474" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S474" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T474" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="475">
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="N475" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O475" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P475" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38382,11 +38382,11 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T475" t="n">
         <v>15</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,7 +38444,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N476" t="n">
         <v>12000</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44557</v>
+        <v>44294</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38524,32 +38524,32 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N477" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O477" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P477" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1500</v>
+        <v>667</v>
       </c>
       <c r="T477" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="478">
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44557</v>
+        <v>44294</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N478" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O478" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P478" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38622,11 +38622,11 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T478" t="n">
         <v>10</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44264</v>
+        <v>44294</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N479" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O479" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P479" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38702,11 +38702,11 @@
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S479" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T479" t="n">
         <v>15</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44264</v>
+        <v>44294</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38767,13 +38767,13 @@
         <v>60</v>
       </c>
       <c r="N480" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O480" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P480" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T480" t="n">
         <v>15</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44396</v>
+        <v>44557</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,32 +38844,32 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N481" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O481" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P481" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T481" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="482">
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44396</v>
+        <v>44557</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,32 +38924,32 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N482" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O482" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P482" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>867</v>
+        <v>1500</v>
       </c>
       <c r="T482" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="483">
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44396</v>
+        <v>44264</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N483" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O483" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P483" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T483" t="n">
         <v>15</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N484" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O484" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P484" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39102,11 +39102,11 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T484" t="n">
         <v>15</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39167,17 +39167,17 @@
         <v>70</v>
       </c>
       <c r="N485" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O485" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P485" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R485" t="inlineStr">
@@ -39186,10 +39186,10 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T485" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="486">
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44279</v>
+        <v>44396</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N486" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O486" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P486" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T486" t="n">
         <v>15</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44279</v>
+        <v>44396</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N487" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O487" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P487" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T487" t="n">
         <v>15</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N488" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O488" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P488" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39422,11 +39422,11 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T488" t="n">
         <v>15</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N489" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O489" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P489" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="T489" t="n">
         <v>15</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N490" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O490" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P490" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T490" t="n">
         <v>15</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
         <v>70</v>
       </c>
       <c r="N491" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O491" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P491" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T491" t="n">
         <v>15</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,32 +39724,32 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N492" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O492" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P492" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T492" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="493">
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,41 +39795,41 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N493" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O493" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P493" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1200</v>
+        <v>567</v>
       </c>
       <c r="T493" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="494">
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44257</v>
+        <v>44330</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T494" t="n">
         <v>15</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44257</v>
+        <v>44330</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N495" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O495" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P495" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T495" t="n">
         <v>15</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,41 +40035,41 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N496" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O496" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P496" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="T496" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44301</v>
+        <v>44572</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,7 +40124,7 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N497" t="n">
         <v>12000</v>
@@ -40137,19 +40137,19 @@
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T497" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="498">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N498" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O498" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P498" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T498" t="n">
         <v>15</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N499" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O499" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P499" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T499" t="n">
         <v>15</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -40355,25 +40355,25 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N500" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O500" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P500" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40382,11 +40382,11 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T500" t="n">
         <v>15</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N501" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O501" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P501" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T501" t="n">
         <v>15</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N502" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O502" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P502" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T502" t="n">
         <v>15</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44200</v>
+        <v>44301</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N503" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O503" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P503" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T503" t="n">
         <v>15</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44200</v>
+        <v>44301</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40675,7 +40675,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -40684,7 +40684,7 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N504" t="n">
         <v>13000</v>
@@ -40697,7 +40697,7 @@
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
@@ -40706,10 +40706,10 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T504" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="505">
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44385</v>
+        <v>44301</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,7 +40764,7 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N505" t="n">
         <v>13000</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N506" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O506" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P506" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T506" t="n">
         <v>15</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40924,7 +40924,7 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N507" t="n">
         <v>13000</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -40995,29 +40995,29 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N508" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O508" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P508" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R508" t="inlineStr">
@@ -41026,10 +41026,10 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T508" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="509">
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44221</v>
+        <v>44385</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N509" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O509" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P509" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41102,11 +41102,11 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T509" t="n">
         <v>15</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44221</v>
+        <v>44385</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,32 +41164,32 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N510" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O510" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P510" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1500</v>
+        <v>867</v>
       </c>
       <c r="T510" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="511">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,25 +41235,25 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Sultanina</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M511" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N511" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O511" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P511" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T511" t="n">
         <v>15</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41320,20 +41320,20 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N512" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O512" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P512" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41342,11 +41342,11 @@
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S512" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T512" t="n">
         <v>15</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44413</v>
+        <v>44221</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,32 +41404,32 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N513" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O513" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P513" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S513" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T513" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="514">
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44272</v>
+        <v>44221</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,32 +41484,32 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N514" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O514" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P514" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>733</v>
+        <v>1500</v>
       </c>
       <c r="T514" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="515">
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44272</v>
+        <v>44221</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,16 +41555,16 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Sultanina</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N515" t="n">
         <v>10000</v>
@@ -41582,7 +41582,7 @@
       </c>
       <c r="R515" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S515" t="n">
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44229</v>
+        <v>44221</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="N516" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O516" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P516" t="n">
-        <v>11527</v>
+        <v>13000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>768</v>
+        <v>867</v>
       </c>
       <c r="T516" t="n">
         <v>15</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44214</v>
+        <v>44413</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41724,7 +41724,7 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N517" t="n">
         <v>10000</v>
@@ -41737,19 +41737,19 @@
       </c>
       <c r="Q517" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S517" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T517" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="518">
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N518" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O518" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P518" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41822,11 +41822,11 @@
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S518" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T518" t="n">
         <v>15</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N519" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O519" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P519" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41902,11 +41902,11 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T519" t="n">
         <v>15</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44299</v>
+        <v>44229</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="N520" t="n">
         <v>11000</v>
       </c>
       <c r="O520" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P520" t="n">
-        <v>11000</v>
+        <v>11527</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="T520" t="n">
         <v>15</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44299</v>
+        <v>44214</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N521" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O521" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P521" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T521" t="n">
         <v>15</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44299</v>
+        <v>44214</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N522" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O522" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P522" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T522" t="n">
         <v>15</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44312</v>
+        <v>44214</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -42195,25 +42195,25 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N523" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O523" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P523" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42222,11 +42222,11 @@
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T523" t="n">
         <v>15</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44312</v>
+        <v>44299</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -42284,7 +42284,7 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N524" t="n">
         <v>11000</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44312</v>
+        <v>44299</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -42364,7 +42364,7 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N525" t="n">
         <v>13000</v>
@@ -42382,7 +42382,7 @@
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S525" t="n">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44399</v>
+        <v>44299</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N526" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O526" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P526" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T526" t="n">
         <v>15</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,20 +42524,20 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N527" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O527" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P527" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
@@ -42546,10 +42546,10 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T527" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44543</v>
+        <v>44312</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,32 +42604,32 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N528" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O528" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P528" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1300</v>
+        <v>733</v>
       </c>
       <c r="T528" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="529">
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44543</v>
+        <v>44312</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,32 +42684,32 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N529" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O529" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P529" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="T529" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="530">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44543</v>
+        <v>44399</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,32 +42764,32 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N530" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O530" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P530" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T530" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="531">
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44167</v>
+        <v>44399</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,32 +42844,32 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N531" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O531" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P531" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T531" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="532">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,32 +42924,32 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N532" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O532" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P532" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/caja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>2625</v>
+        <v>1300</v>
       </c>
       <c r="T532" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="533">
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44277</v>
+        <v>44543</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -43004,32 +43004,32 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N533" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O533" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P533" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>733</v>
+        <v>2000</v>
       </c>
       <c r="T533" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="534">
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44277</v>
+        <v>44543</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43084,32 +43084,32 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N534" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O534" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P534" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S534" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T534" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="535">
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N535" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O535" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P535" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="T535" t="n">
         <v>15</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43244,20 +43244,20 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N536" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O536" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P536" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 8 kilos</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
@@ -43266,10 +43266,10 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>667</v>
+        <v>2625</v>
       </c>
       <c r="T536" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="537">
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="N537" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O537" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P537" t="n">
-        <v>9524</v>
+        <v>11000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43342,11 +43342,11 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>635</v>
+        <v>733</v>
       </c>
       <c r="T537" t="n">
         <v>15</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -43404,7 +43404,7 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N538" t="n">
         <v>10000</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N539" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O539" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P539" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43502,11 +43502,11 @@
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T539" t="n">
         <v>15</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44390</v>
+        <v>44277</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43564,16 +43564,16 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N540" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O540" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P540" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43582,11 +43582,11 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T540" t="n">
         <v>15</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44349</v>
+        <v>44277</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="N541" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O541" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P541" t="n">
-        <v>13000</v>
+        <v>9524</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>867</v>
+        <v>635</v>
       </c>
       <c r="T541" t="n">
         <v>15</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43724,16 +43724,16 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N542" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O542" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P542" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T542" t="n">
         <v>15</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,7 +43804,7 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N543" t="n">
         <v>10000</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44285</v>
+        <v>44390</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N544" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O544" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P544" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T544" t="n">
         <v>15</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N545" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O545" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P545" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T545" t="n">
         <v>15</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N546" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O546" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P546" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T546" t="n">
         <v>15</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44179</v>
+        <v>44349</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N547" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O547" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P547" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44142,11 +44142,11 @@
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T547" t="n">
         <v>15</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,32 +44204,32 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="N548" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O548" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P548" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>1500</v>
+        <v>667</v>
       </c>
       <c r="T548" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="549">
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44418</v>
+        <v>44285</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -44284,7 +44284,7 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N549" t="n">
         <v>10000</v>
@@ -44297,7 +44297,7 @@
       </c>
       <c r="Q549" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R549" t="inlineStr">
@@ -44306,10 +44306,10 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T549" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="550">
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44364,32 +44364,32 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N550" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O550" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P550" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T550" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -44435,7 +44435,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N551" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O551" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P551" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44462,11 +44462,11 @@
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T551" t="n">
         <v>15</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E552" t="n">
         <v>5</v>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N552" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O552" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P552" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T552" t="n">
         <v>10</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -44604,20 +44604,20 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N553" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O553" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P553" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R553" t="inlineStr">
@@ -44629,7 +44629,7 @@
         <v>1000</v>
       </c>
       <c r="T553" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="554">
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44684,20 +44684,20 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="N554" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O554" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P554" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R554" t="inlineStr">
@@ -44706,10 +44706,10 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T554" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="555">
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E555" t="n">
         <v>5</v>
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44764,16 +44764,16 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N555" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O555" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P555" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T555" t="n">
         <v>15</v>
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -44835,7 +44835,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -44844,32 +44844,32 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N556" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O556" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P556" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>733</v>
+        <v>1300</v>
       </c>
       <c r="T556" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="557">
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E557" t="n">
         <v>5</v>
@@ -44915,7 +44915,7 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
@@ -44924,7 +44924,7 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N557" t="n">
         <v>15000</v>
@@ -44937,19 +44937,19 @@
       </c>
       <c r="Q557" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T557" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="558">
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -44995,7 +44995,7 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
@@ -45004,32 +45004,32 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N558" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O558" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P558" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R558" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1500</v>
+        <v>867</v>
       </c>
       <c r="T558" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="559">
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -45075,7 +45075,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -45084,32 +45084,32 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N559" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O559" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P559" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="T559" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="560">
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45164,32 +45164,32 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="N560" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O560" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P560" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>2000</v>
+        <v>733</v>
       </c>
       <c r="T560" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="561">
@@ -45207,68 +45207,388 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E561" t="n">
+        <v>5</v>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G561" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I561" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M561" t="n">
+        <v>70</v>
+      </c>
+      <c r="N561" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O561" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P561" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q561" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R561" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S561" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T561" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>3</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D562" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E562" t="n">
+        <v>5</v>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G562" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I562" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M562" t="n">
+        <v>68</v>
+      </c>
+      <c r="N562" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O562" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P562" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q562" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R562" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S562" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T562" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>3</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D563" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E563" t="n">
+        <v>5</v>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G563" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I563" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M563" t="n">
+        <v>50</v>
+      </c>
+      <c r="N563" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O563" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P563" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q563" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R563" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S563" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T563" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>3</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D564" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E564" t="n">
+        <v>5</v>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G564" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I564" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M564" t="n">
+        <v>48</v>
+      </c>
+      <c r="N564" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O564" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P564" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q564" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R564" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S564" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T564" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>3</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D565" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E561" t="n">
-        <v>5</v>
-      </c>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G561" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I561" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J561" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K561" t="inlineStr">
+      <c r="E565" t="n">
+        <v>5</v>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G565" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I565" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K565" t="inlineStr">
         <is>
           <t>Flame Seedless</t>
         </is>
       </c>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M561" t="n">
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M565" t="n">
         <v>50</v>
       </c>
-      <c r="N561" t="n">
+      <c r="N565" t="n">
         <v>20000</v>
       </c>
-      <c r="O561" t="n">
+      <c r="O565" t="n">
         <v>20000</v>
       </c>
-      <c r="P561" t="n">
+      <c r="P565" t="n">
         <v>20000</v>
       </c>
-      <c r="Q561" t="inlineStr">
+      <c r="Q565" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R561" t="inlineStr">
+      <c r="R565" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="S561" t="n">
+      <c r="S565" t="n">
         <v>2000</v>
       </c>
-      <c r="T561" t="n">
+      <c r="T565" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T565"/>
+  <dimension ref="A1:T567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42527,17 +42527,17 @@
         <v>85</v>
       </c>
       <c r="N527" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O527" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P527" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
@@ -42546,10 +42546,10 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T527" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N528" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O528" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P528" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T528" t="n">
         <v>15</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,7 +42684,7 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N529" t="n">
         <v>13000</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N530" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O530" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P530" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T530" t="n">
         <v>15</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,20 +42844,20 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N531" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O531" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P531" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
@@ -42866,10 +42866,10 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T531" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="532">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44543</v>
+        <v>44399</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,32 +42924,32 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N532" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O532" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P532" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T532" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="533">
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44543</v>
+        <v>44399</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N533" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O533" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P533" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43022,11 +43022,11 @@
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T533" t="n">
         <v>10</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N534" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O534" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P534" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="T534" t="n">
         <v>10</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,7 +43164,7 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N535" t="n">
         <v>20000</v>
@@ -43177,19 +43177,19 @@
       </c>
       <c r="Q535" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1333</v>
+        <v>2000</v>
       </c>
       <c r="T535" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="536">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43244,32 +43244,32 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="N536" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O536" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P536" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/caja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>2625</v>
+        <v>2000</v>
       </c>
       <c r="T536" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="537">
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N537" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O537" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P537" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>733</v>
+        <v>1333</v>
       </c>
       <c r="T537" t="n">
         <v>15</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -43404,32 +43404,32 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N538" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O538" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P538" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 8 kilos</t>
         </is>
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>667</v>
+        <v>2625</v>
       </c>
       <c r="T538" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="539">
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N539" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O539" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P539" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T539" t="n">
         <v>15</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43564,7 +43564,7 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N540" t="n">
         <v>10000</v>
@@ -43582,7 +43582,7 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S540" t="n">
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,16 +43644,16 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="N541" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O541" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P541" t="n">
-        <v>9524</v>
+        <v>13000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
@@ -43662,11 +43662,11 @@
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>635</v>
+        <v>867</v>
       </c>
       <c r="T541" t="n">
         <v>15</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43724,7 +43724,7 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N542" t="n">
         <v>10000</v>
@@ -43742,7 +43742,7 @@
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S542" t="n">
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="N543" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O543" t="n">
         <v>10000</v>
       </c>
       <c r="P543" t="n">
-        <v>10000</v>
+        <v>9524</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="T543" t="n">
         <v>15</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N544" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O544" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T544" t="n">
         <v>15</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N545" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O545" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P545" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T545" t="n">
         <v>15</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N547" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O547" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P547" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T547" t="n">
         <v>15</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N548" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O548" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P548" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T548" t="n">
         <v>15</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -44284,7 +44284,7 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N549" t="n">
         <v>10000</v>
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N550" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O550" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P550" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T550" t="n">
         <v>15</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -44435,7 +44435,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -44444,16 +44444,16 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N551" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O551" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P551" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44462,11 +44462,11 @@
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T551" t="n">
         <v>15</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E552" t="n">
         <v>5</v>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44524,32 +44524,32 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N552" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O552" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P552" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1500</v>
+        <v>933</v>
       </c>
       <c r="T552" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="553">
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -44604,32 +44604,32 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N553" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O553" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P553" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T553" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="554">
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N554" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O554" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P554" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T554" t="n">
         <v>10</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E555" t="n">
         <v>5</v>
@@ -44764,20 +44764,20 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N555" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O555" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P555" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R555" t="inlineStr">
@@ -44789,7 +44789,7 @@
         <v>1000</v>
       </c>
       <c r="T555" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="556">
@@ -44835,7 +44835,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -44844,16 +44844,16 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N556" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O556" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P556" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         </is>
       </c>
       <c r="S556" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T556" t="n">
         <v>10</v>
@@ -44915,7 +44915,7 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
@@ -44924,7 +44924,7 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N557" t="n">
         <v>15000</v>
@@ -44995,7 +44995,7 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
@@ -45004,7 +45004,7 @@
         </is>
       </c>
       <c r="M558" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N558" t="n">
         <v>13000</v>
@@ -45017,7 +45017,7 @@
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R558" t="inlineStr">
@@ -45026,10 +45026,10 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T558" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="559">
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -45075,7 +45075,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N559" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O559" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P559" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T559" t="n">
         <v>15</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45164,16 +45164,16 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N560" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O560" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P560" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45182,11 +45182,11 @@
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T560" t="n">
         <v>15</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -45235,7 +45235,7 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
@@ -45244,32 +45244,32 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N561" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O561" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P561" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>1500</v>
+        <v>867</v>
       </c>
       <c r="T561" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="562">
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -45315,7 +45315,7 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -45324,32 +45324,32 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N562" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O562" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P562" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>1500</v>
+        <v>733</v>
       </c>
       <c r="T562" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="563">
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E563" t="n">
         <v>5</v>
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N563" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O563" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P563" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T563" t="n">
         <v>10</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="N564" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O564" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P564" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T564" t="n">
         <v>10</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -45555,7 +45555,7 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
@@ -45589,6 +45589,166 @@
         <v>2000</v>
       </c>
       <c r="T565" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>3</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D566" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E566" t="n">
+        <v>5</v>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G566" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I566" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M566" t="n">
+        <v>48</v>
+      </c>
+      <c r="N566" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O566" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P566" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q566" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R566" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S566" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T566" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>3</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D567" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E567" t="n">
+        <v>5</v>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G567" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I567" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M567" t="n">
+        <v>50</v>
+      </c>
+      <c r="N567" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O567" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P567" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q567" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R567" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S567" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T567" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T593"/>
+  <dimension ref="A1:T597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44536</v>
+        <v>44627</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,32 +36524,32 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N452" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O452" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P452" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T452" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453">
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44536</v>
+        <v>44627</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36604,32 +36604,32 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="N453" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O453" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P453" t="n">
-        <v>22444</v>
+        <v>14000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>2244</v>
+        <v>778</v>
       </c>
       <c r="T453" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44536</v>
+        <v>44627</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,29 +36684,29 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="N454" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O454" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P454" t="n">
-        <v>22548</v>
+        <v>13000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>2255</v>
+        <v>1300</v>
       </c>
       <c r="T454" t="n">
         <v>10</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44334</v>
+        <v>44627</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N455" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O455" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P455" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T455" t="n">
         <v>15</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44334</v>
+        <v>44536</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,32 +36844,32 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="N456" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O456" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P456" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>733</v>
+        <v>1400</v>
       </c>
       <c r="T456" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457">
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44193</v>
+        <v>44536</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,32 +36924,32 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="N457" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O457" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P457" t="n">
-        <v>12000</v>
+        <v>22444</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>800</v>
+        <v>2244</v>
       </c>
       <c r="T457" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44193</v>
+        <v>44536</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="N458" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O458" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P458" t="n">
-        <v>14000</v>
+        <v>22548</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1400</v>
+        <v>2255</v>
       </c>
       <c r="T458" t="n">
         <v>10</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44193</v>
+        <v>44334</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37084,7 +37084,7 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N459" t="n">
         <v>12000</v>
@@ -37097,19 +37097,19 @@
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T459" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="460">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44193</v>
+        <v>44334</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37164,32 +37164,32 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N460" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O460" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P460" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1300</v>
+        <v>733</v>
       </c>
       <c r="T460" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37244,20 +37244,20 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N461" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O461" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P461" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
@@ -37266,10 +37266,10 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T461" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37327,13 +37327,13 @@
         <v>75</v>
       </c>
       <c r="N462" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O462" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P462" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T462" t="n">
         <v>10</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37404,7 +37404,7 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N463" t="n">
         <v>12000</v>
@@ -37422,7 +37422,7 @@
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S463" t="n">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N464" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O464" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P464" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T464" t="n">
         <v>10</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44319</v>
+        <v>44573</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,32 +37564,32 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N465" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O465" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P465" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T465" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="466">
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44319</v>
+        <v>44573</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37644,32 +37644,32 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N466" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O466" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P466" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T466" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="467">
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44319</v>
+        <v>44573</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,7 +37724,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N467" t="n">
         <v>12000</v>
@@ -37737,19 +37737,19 @@
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T467" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44280</v>
+        <v>44573</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,32 +37804,32 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N468" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O468" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P468" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T468" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N469" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O469" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P469" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37902,11 +37902,11 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T469" t="n">
         <v>15</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37964,7 +37964,7 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N470" t="n">
         <v>10000</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44362</v>
+        <v>44319</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,7 +38044,7 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N471" t="n">
         <v>12000</v>
@@ -38062,7 +38062,7 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S471" t="n">
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N472" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O472" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P472" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T472" t="n">
         <v>15</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N473" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O473" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P473" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38222,11 +38222,11 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T473" t="n">
         <v>15</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44365</v>
+        <v>44280</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N474" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O474" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P474" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T474" t="n">
         <v>15</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N475" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O475" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P475" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T475" t="n">
         <v>15</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44567</v>
+        <v>44362</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,32 +38444,32 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N476" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O476" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P476" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T476" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="477">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44567</v>
+        <v>44362</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,32 +38524,32 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N477" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O477" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P477" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S477" t="n">
-        <v>1400</v>
+        <v>733</v>
       </c>
       <c r="T477" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="478">
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,7 +38604,7 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N478" t="n">
         <v>12000</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N479" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O479" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P479" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T479" t="n">
         <v>15</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44357</v>
+        <v>44567</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,7 +38764,7 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N480" t="n">
         <v>14000</v>
@@ -38777,19 +38777,19 @@
       </c>
       <c r="Q480" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S480" t="n">
-        <v>933</v>
+        <v>1400</v>
       </c>
       <c r="T480" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="481">
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="N481" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O481" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P481" t="n">
-        <v>10476</v>
+        <v>14000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38862,11 +38862,11 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1048</v>
+        <v>1400</v>
       </c>
       <c r="T481" t="n">
         <v>10</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,32 +38924,32 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="N482" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O482" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P482" t="n">
-        <v>10515</v>
+        <v>12000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>1052</v>
+        <v>800</v>
       </c>
       <c r="T482" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="483">
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,32 +39004,32 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="N483" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O483" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P483" t="n">
-        <v>10558</v>
+        <v>12000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1056</v>
+        <v>800</v>
       </c>
       <c r="T483" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="484">
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44537</v>
+        <v>44357</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,7 +39084,7 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N484" t="n">
         <v>14000</v>
@@ -39097,19 +39097,19 @@
       </c>
       <c r="Q484" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1400</v>
+        <v>933</v>
       </c>
       <c r="T484" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="485">
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N485" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O485" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P485" t="n">
-        <v>22000</v>
+        <v>10476</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>2200</v>
+        <v>1048</v>
       </c>
       <c r="T485" t="n">
         <v>10</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="N486" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O486" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P486" t="n">
-        <v>22000</v>
+        <v>10515</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>2200</v>
+        <v>1052</v>
       </c>
       <c r="T486" t="n">
         <v>10</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="N487" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O487" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P487" t="n">
-        <v>14000</v>
+        <v>10558</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>1400</v>
+        <v>1056</v>
       </c>
       <c r="T487" t="n">
         <v>10</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,7 +39404,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="N488" t="n">
         <v>14000</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44397</v>
+        <v>44537</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,32 +39484,32 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N489" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O489" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P489" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>867</v>
+        <v>2200</v>
       </c>
       <c r="T489" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="490">
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44397</v>
+        <v>44537</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,32 +39564,32 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N490" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O490" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P490" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S490" t="n">
-        <v>867</v>
+        <v>2200</v>
       </c>
       <c r="T490" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="491">
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44329</v>
+        <v>44553</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39644,7 +39644,7 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N491" t="n">
         <v>14000</v>
@@ -39657,19 +39657,19 @@
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>933</v>
+        <v>1400</v>
       </c>
       <c r="T491" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="492">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44329</v>
+        <v>44553</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,32 +39724,32 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N492" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O492" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P492" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T492" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="493">
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44329</v>
+        <v>44397</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39804,7 +39804,7 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N493" t="n">
         <v>13000</v>
@@ -39822,7 +39822,7 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S493" t="n">
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44208</v>
+        <v>44397</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P494" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T494" t="n">
         <v>15</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44208</v>
+        <v>44329</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,7 +39964,7 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N495" t="n">
         <v>14000</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,7 +40044,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N496" t="n">
         <v>12000</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44294</v>
+        <v>44329</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,16 +40124,16 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="N497" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O497" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P497" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T497" t="n">
         <v>15</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N498" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O498" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P498" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T498" t="n">
         <v>15</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N499" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O499" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P499" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40302,11 +40302,11 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T499" t="n">
         <v>15</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,32 +40364,32 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N500" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O500" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P500" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T500" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="501">
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="N501" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O501" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P501" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T501" t="n">
         <v>15</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,7 +40524,7 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N502" t="n">
         <v>12000</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40604,20 +40604,20 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N503" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O503" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P503" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R503" t="inlineStr">
@@ -40626,10 +40626,10 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T503" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="504">
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40675,7 +40675,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -40684,32 +40684,32 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="N504" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O504" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P504" t="n">
-        <v>13538</v>
+        <v>10000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>903</v>
+        <v>1000</v>
       </c>
       <c r="T504" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="505">
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44557</v>
+        <v>44294</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,32 +40764,32 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N505" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O505" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P505" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T505" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="506">
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44557</v>
+        <v>44294</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40847,29 +40847,29 @@
         <v>60</v>
       </c>
       <c r="N506" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O506" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P506" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T506" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="507">
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44264</v>
+        <v>44617</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40924,20 +40924,20 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N507" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O507" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P507" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R507" t="inlineStr">
@@ -40946,10 +40946,10 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T507" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="508">
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44264</v>
+        <v>44617</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="N508" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O508" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P508" t="n">
-        <v>9000</v>
+        <v>13538</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>600</v>
+        <v>903</v>
       </c>
       <c r="T508" t="n">
         <v>15</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44396</v>
+        <v>44557</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,32 +41084,32 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N509" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O509" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P509" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T509" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="510">
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44396</v>
+        <v>44557</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,32 +41164,32 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N510" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O510" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P510" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>867</v>
+        <v>1500</v>
       </c>
       <c r="T510" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="511">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44396</v>
+        <v>44264</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N511" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O511" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P511" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T511" t="n">
         <v>15</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N512" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O512" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P512" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41342,11 +41342,11 @@
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S512" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T512" t="n">
         <v>15</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41407,17 +41407,17 @@
         <v>70</v>
       </c>
       <c r="N513" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O513" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P513" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R513" t="inlineStr">
@@ -41426,10 +41426,10 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T513" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="514">
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44279</v>
+        <v>44396</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N514" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O514" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P514" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T514" t="n">
         <v>15</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44279</v>
+        <v>44396</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41560,20 +41560,20 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N515" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O515" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P515" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T515" t="n">
         <v>15</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N516" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O516" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P516" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41662,11 +41662,11 @@
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S516" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T516" t="n">
         <v>15</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N517" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O517" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P517" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="T517" t="n">
         <v>15</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N518" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O518" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P518" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T518" t="n">
         <v>15</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M519" t="n">
         <v>70</v>
       </c>
       <c r="N519" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O519" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P519" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T519" t="n">
         <v>15</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,32 +41964,32 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N520" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O520" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P520" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T520" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="521">
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44572</v>
+        <v>44279</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -42035,41 +42035,41 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N521" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O521" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="P521" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>1200</v>
+        <v>567</v>
       </c>
       <c r="T521" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="522">
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44257</v>
+        <v>44330</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N522" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O522" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P522" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T522" t="n">
         <v>15</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44257</v>
+        <v>44330</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N523" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O523" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P523" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T523" t="n">
         <v>15</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -42275,41 +42275,41 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N524" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O524" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P524" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S524" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="T524" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="525">
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44301</v>
+        <v>44572</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,7 +42364,7 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N525" t="n">
         <v>12000</v>
@@ -42377,19 +42377,19 @@
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T525" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="526">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N526" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O526" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P526" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T526" t="n">
         <v>15</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N527" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O527" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P527" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T527" t="n">
         <v>15</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,25 +42595,25 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N528" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O528" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P528" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42622,11 +42622,11 @@
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T528" t="n">
         <v>15</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N529" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O529" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P529" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T529" t="n">
         <v>15</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N530" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O530" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P530" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T530" t="n">
         <v>15</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44200</v>
+        <v>44301</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N531" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O531" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P531" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42862,11 +42862,11 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T531" t="n">
         <v>15</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44200</v>
+        <v>44301</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,7 +42924,7 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N532" t="n">
         <v>13000</v>
@@ -42937,7 +42937,7 @@
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
@@ -42946,10 +42946,10 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T532" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="533">
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44385</v>
+        <v>44301</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43004,7 +43004,7 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N533" t="n">
         <v>13000</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N534" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O534" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P534" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T534" t="n">
         <v>15</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,7 +43164,7 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N535" t="n">
         <v>13000</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44236</v>
+        <v>44200</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -43235,29 +43235,29 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N536" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O536" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P536" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
@@ -43266,10 +43266,10 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T536" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="537">
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44221</v>
+        <v>44385</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N537" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O537" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P537" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43342,11 +43342,11 @@
       </c>
       <c r="R537" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S537" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T537" t="n">
         <v>15</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44221</v>
+        <v>44385</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43404,32 +43404,32 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N538" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O538" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P538" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1500</v>
+        <v>867</v>
       </c>
       <c r="T538" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="539">
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -43475,25 +43475,25 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Sultanina</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N539" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O539" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P539" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T539" t="n">
         <v>15</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -43560,20 +43560,20 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N540" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O540" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P540" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43582,11 +43582,11 @@
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T540" t="n">
         <v>15</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44413</v>
+        <v>44221</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,32 +43644,32 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N541" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O541" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P541" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T541" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="542">
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44272</v>
+        <v>44221</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43724,32 +43724,32 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N542" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O542" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P542" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>733</v>
+        <v>1500</v>
       </c>
       <c r="T542" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="543">
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44272</v>
+        <v>44221</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -43795,16 +43795,16 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Sultanina</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N543" t="n">
         <v>10000</v>
@@ -43822,7 +43822,7 @@
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S543" t="n">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44229</v>
+        <v>44221</v>
       </c>
       <c r="E544" t="n">
         <v>5</v>
@@ -43875,7 +43875,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -43884,16 +43884,16 @@
         </is>
       </c>
       <c r="M544" t="n">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="N544" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O544" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P544" t="n">
-        <v>11527</v>
+        <v>13000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>768</v>
+        <v>867</v>
       </c>
       <c r="T544" t="n">
         <v>15</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44214</v>
+        <v>44413</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,7 +43964,7 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N545" t="n">
         <v>10000</v>
@@ -43977,19 +43977,19 @@
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T545" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="546">
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N546" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O546" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P546" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44062,11 +44062,11 @@
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>1067</v>
+        <v>733</v>
       </c>
       <c r="T546" t="n">
         <v>15</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E547" t="n">
         <v>5</v>
@@ -44120,20 +44120,20 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M547" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N547" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O547" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P547" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44142,11 +44142,11 @@
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T547" t="n">
         <v>15</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44299</v>
+        <v>44229</v>
       </c>
       <c r="E548" t="n">
         <v>5</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,16 +44204,16 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="N548" t="n">
         <v>11000</v>
       </c>
       <c r="O548" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P548" t="n">
-        <v>11000</v>
+        <v>11527</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="T548" t="n">
         <v>15</v>
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44299</v>
+        <v>44214</v>
       </c>
       <c r="E549" t="n">
         <v>5</v>
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44284,16 +44284,16 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N549" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O549" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P549" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T549" t="n">
         <v>15</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44299</v>
+        <v>44214</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N550" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O550" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P550" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44382,11 +44382,11 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="T550" t="n">
         <v>15</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -44435,16 +44435,16 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N551" t="n">
         <v>12000</v>
@@ -44457,19 +44457,19 @@
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T551" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="552">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44610</v>
+        <v>44299</v>
       </c>
       <c r="E552" t="n">
         <v>5</v>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N552" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O552" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P552" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T552" t="n">
         <v>15</v>
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44312</v>
+        <v>44299</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -44604,7 +44604,7 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N553" t="n">
         <v>13000</v>
@@ -44622,7 +44622,7 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S553" t="n">
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44312</v>
+        <v>44299</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44684,16 +44684,16 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N554" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O554" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P554" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T554" t="n">
         <v>15</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E555" t="n">
         <v>5</v>
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44764,20 +44764,20 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N555" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O555" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P555" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R555" t="inlineStr">
@@ -44786,10 +44786,10 @@
         </is>
       </c>
       <c r="S555" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T555" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="556">
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44399</v>
+        <v>44610</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -44835,7 +44835,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -44844,7 +44844,7 @@
         </is>
       </c>
       <c r="M556" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N556" t="n">
         <v>15000</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E557" t="n">
         <v>5</v>
@@ -44915,7 +44915,7 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
@@ -44924,20 +44924,20 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N557" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O557" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P557" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R557" t="inlineStr">
@@ -44946,10 +44946,10 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T557" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="558">
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44615</v>
+        <v>44312</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -45007,17 +45007,17 @@
         <v>80</v>
       </c>
       <c r="N558" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O558" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P558" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R558" t="inlineStr">
@@ -45026,10 +45026,10 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T558" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="559">
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44615</v>
+        <v>44312</v>
       </c>
       <c r="E559" t="n">
         <v>5</v>
@@ -45075,7 +45075,7 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
@@ -45084,16 +45084,16 @@
         </is>
       </c>
       <c r="M559" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N559" t="n">
         <v>13000</v>
       </c>
       <c r="O559" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P559" t="n">
-        <v>13520</v>
+        <v>13000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>901</v>
+        <v>867</v>
       </c>
       <c r="T559" t="n">
         <v>15</v>
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44543</v>
+        <v>44399</v>
       </c>
       <c r="E560" t="n">
         <v>5</v>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45164,32 +45164,32 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N560" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O560" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P560" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T560" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="561">
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44543</v>
+        <v>44399</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -45244,16 +45244,16 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N561" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O561" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P561" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45262,11 +45262,11 @@
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T561" t="n">
         <v>10</v>
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44543</v>
+        <v>44615</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -45315,7 +45315,7 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -45324,32 +45324,32 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N562" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O562" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P562" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R562" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S562" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T562" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="563">
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E563" t="n">
         <v>5</v>
@@ -45395,7 +45395,7 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
@@ -45404,16 +45404,16 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="N563" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O563" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P563" t="n">
-        <v>20000</v>
+        <v>13520</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45422,11 +45422,11 @@
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>1333</v>
+        <v>901</v>
       </c>
       <c r="T563" t="n">
         <v>15</v>
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -45475,7 +45475,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
@@ -45484,32 +45484,32 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N564" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O564" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P564" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
-          <t>$/caja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>2625</v>
+        <v>1300</v>
       </c>
       <c r="T564" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="565">
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44277</v>
+        <v>44543</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -45564,32 +45564,32 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N565" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O565" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P565" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>733</v>
+        <v>2000</v>
       </c>
       <c r="T565" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="566">
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44277</v>
+        <v>44543</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -45635,7 +45635,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -45644,32 +45644,32 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N566" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O566" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P566" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T566" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="567">
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E567" t="n">
         <v>5</v>
@@ -45715,7 +45715,7 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N567" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O567" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P567" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="T567" t="n">
         <v>15</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E568" t="n">
         <v>5</v>
@@ -45795,7 +45795,7 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
@@ -45804,20 +45804,20 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N568" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O568" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P568" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 8 kilos</t>
         </is>
       </c>
       <c r="R568" t="inlineStr">
@@ -45826,10 +45826,10 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>667</v>
+        <v>2625</v>
       </c>
       <c r="T568" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="569">
@@ -45875,7 +45875,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -45884,16 +45884,16 @@
         </is>
       </c>
       <c r="M569" t="n">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="N569" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O569" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P569" t="n">
-        <v>9524</v>
+        <v>11000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45902,11 +45902,11 @@
       </c>
       <c r="R569" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S569" t="n">
-        <v>635</v>
+        <v>733</v>
       </c>
       <c r="T569" t="n">
         <v>15</v>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E570" t="n">
         <v>5</v>
@@ -45964,7 +45964,7 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N570" t="n">
         <v>10000</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -46035,7 +46035,7 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -46044,16 +46044,16 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="N571" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O571" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P571" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
@@ -46062,11 +46062,11 @@
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T571" t="n">
         <v>15</v>
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44390</v>
+        <v>44277</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46124,16 +46124,16 @@
         </is>
       </c>
       <c r="M572" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N572" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O572" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P572" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46142,11 +46142,11 @@
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T572" t="n">
         <v>15</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44349</v>
+        <v>44277</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="N573" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O573" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P573" t="n">
-        <v>13000</v>
+        <v>9524</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46226,7 +46226,7 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>867</v>
+        <v>635</v>
       </c>
       <c r="T573" t="n">
         <v>15</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N574" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O574" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P574" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T574" t="n">
         <v>15</v>
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E575" t="n">
         <v>5</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,7 +46364,7 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N575" t="n">
         <v>10000</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44285</v>
+        <v>44390</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N576" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O576" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P576" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T576" t="n">
         <v>15</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E577" t="n">
         <v>5</v>
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46524,16 +46524,16 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N577" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O577" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P577" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
@@ -46546,7 +46546,7 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T577" t="n">
         <v>15</v>
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="N578" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O578" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P578" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T578" t="n">
         <v>15</v>
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44179</v>
+        <v>44349</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -46675,7 +46675,7 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -46684,16 +46684,16 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N579" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O579" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P579" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
@@ -46702,11 +46702,11 @@
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="T579" t="n">
         <v>15</v>
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46764,32 +46764,32 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="N580" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O580" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P580" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1500</v>
+        <v>667</v>
       </c>
       <c r="T580" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="581">
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44418</v>
+        <v>44285</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -46844,7 +46844,7 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N581" t="n">
         <v>10000</v>
@@ -46857,7 +46857,7 @@
       </c>
       <c r="Q581" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R581" t="inlineStr">
@@ -46866,10 +46866,10 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T581" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="582">
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E582" t="n">
         <v>5</v>
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46924,32 +46924,32 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N582" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O582" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P582" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T582" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="583">
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N583" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O583" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P583" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T583" t="n">
         <v>15</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E584" t="n">
         <v>5</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47084,16 +47084,16 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N584" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O584" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P584" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47106,7 +47106,7 @@
         </is>
       </c>
       <c r="S584" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T584" t="n">
         <v>10</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E585" t="n">
         <v>5</v>
@@ -47155,7 +47155,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -47164,20 +47164,20 @@
         </is>
       </c>
       <c r="M585" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N585" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O585" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P585" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R585" t="inlineStr">
@@ -47189,7 +47189,7 @@
         <v>1000</v>
       </c>
       <c r="T585" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="586">
@@ -47235,7 +47235,7 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
@@ -47244,20 +47244,20 @@
         </is>
       </c>
       <c r="M586" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="N586" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O586" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P586" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
@@ -47266,10 +47266,10 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T586" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="587">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E587" t="n">
         <v>5</v>
@@ -47315,7 +47315,7 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -47324,16 +47324,16 @@
         </is>
       </c>
       <c r="M587" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N587" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O587" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P587" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T587" t="n">
         <v>15</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E588" t="n">
         <v>5</v>
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47404,32 +47404,32 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N588" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O588" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P588" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R588" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S588" t="n">
-        <v>733</v>
+        <v>1300</v>
       </c>
       <c r="T588" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="589">
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E589" t="n">
         <v>5</v>
@@ -47475,7 +47475,7 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -47484,7 +47484,7 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N589" t="n">
         <v>15000</v>
@@ -47497,19 +47497,19 @@
       </c>
       <c r="Q589" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R589" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S589" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T589" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="590">
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E590" t="n">
         <v>5</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47564,32 +47564,32 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N590" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O590" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P590" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R590" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S590" t="n">
-        <v>1500</v>
+        <v>867</v>
       </c>
       <c r="T590" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="591">
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47644,32 +47644,32 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N591" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O591" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P591" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="T591" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="592">
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -47715,7 +47715,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -47724,32 +47724,32 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="N592" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O592" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P592" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S592" t="n">
-        <v>2000</v>
+        <v>733</v>
       </c>
       <c r="T592" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="593">
@@ -47767,68 +47767,388 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E593" t="n">
+        <v>5</v>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G593" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I593" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M593" t="n">
+        <v>70</v>
+      </c>
+      <c r="N593" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O593" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P593" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q593" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R593" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S593" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T593" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>3</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D594" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E594" t="n">
+        <v>5</v>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G594" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I594" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M594" t="n">
+        <v>68</v>
+      </c>
+      <c r="N594" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O594" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P594" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q594" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R594" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S594" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T594" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>3</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D595" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E595" t="n">
+        <v>5</v>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G595" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I595" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M595" t="n">
+        <v>50</v>
+      </c>
+      <c r="N595" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O595" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P595" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q595" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R595" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S595" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T595" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>3</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D596" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E596" t="n">
+        <v>5</v>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G596" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I596" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M596" t="n">
+        <v>48</v>
+      </c>
+      <c r="N596" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O596" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P596" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q596" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R596" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S596" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T596" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>3</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D597" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E593" t="n">
-        <v>5</v>
-      </c>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G593" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I593" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J593" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K593" t="inlineStr">
+      <c r="E597" t="n">
+        <v>5</v>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G597" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I597" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
         <is>
           <t>Flame Seedless</t>
         </is>
       </c>
-      <c r="L593" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M593" t="n">
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M597" t="n">
         <v>50</v>
       </c>
-      <c r="N593" t="n">
+      <c r="N597" t="n">
         <v>20000</v>
       </c>
-      <c r="O593" t="n">
+      <c r="O597" t="n">
         <v>20000</v>
       </c>
-      <c r="P593" t="n">
+      <c r="P597" t="n">
         <v>20000</v>
       </c>
-      <c r="Q593" t="inlineStr">
+      <c r="Q597" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R593" t="inlineStr">
+      <c r="R597" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="S593" t="n">
+      <c r="S597" t="n">
         <v>2000</v>
       </c>
-      <c r="T593" t="n">
+      <c r="T597" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T597"/>
+  <dimension ref="A1:T601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E591" t="n">
         <v>5</v>
@@ -47635,7 +47635,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -47644,20 +47644,20 @@
         </is>
       </c>
       <c r="M591" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N591" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O591" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P591" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
@@ -47666,10 +47666,10 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T591" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="592">
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E592" t="n">
         <v>5</v>
@@ -47724,20 +47724,20 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N592" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O592" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P592" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
@@ -47746,10 +47746,10 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="T592" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="593">
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E593" t="n">
         <v>5</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Ribier</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47804,32 +47804,32 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N593" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O593" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P593" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R593" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S593" t="n">
-        <v>1500</v>
+        <v>867</v>
       </c>
       <c r="T593" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="594">
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E594" t="n">
         <v>5</v>
@@ -47875,7 +47875,7 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -47884,32 +47884,32 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N594" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O594" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P594" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>1500</v>
+        <v>867</v>
       </c>
       <c r="T594" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="595">
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E595" t="n">
         <v>5</v>
@@ -47955,7 +47955,7 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
@@ -47964,32 +47964,32 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N595" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O595" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P595" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="T595" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="596">
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -48035,7 +48035,7 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
@@ -48044,32 +48044,32 @@
         </is>
       </c>
       <c r="M596" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="N596" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O596" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P596" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R596" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S596" t="n">
-        <v>2000</v>
+        <v>733</v>
       </c>
       <c r="T596" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="597">
@@ -48087,68 +48087,388 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E597" t="n">
+        <v>5</v>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G597" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I597" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M597" t="n">
+        <v>70</v>
+      </c>
+      <c r="N597" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O597" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P597" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q597" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R597" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S597" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T597" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>3</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D598" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E598" t="n">
+        <v>5</v>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G598" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I598" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M598" t="n">
+        <v>68</v>
+      </c>
+      <c r="N598" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O598" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P598" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q598" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R598" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S598" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T598" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>3</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D599" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E599" t="n">
+        <v>5</v>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G599" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I599" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M599" t="n">
+        <v>50</v>
+      </c>
+      <c r="N599" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O599" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P599" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q599" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R599" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S599" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T599" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>3</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D600" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E600" t="n">
+        <v>5</v>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G600" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I600" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M600" t="n">
+        <v>48</v>
+      </c>
+      <c r="N600" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O600" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P600" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q600" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R600" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S600" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T600" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>3</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D601" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E597" t="n">
-        <v>5</v>
-      </c>
-      <c r="F597" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G597" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I597" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J597" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K597" t="inlineStr">
+      <c r="E601" t="n">
+        <v>5</v>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G601" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I601" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
         <is>
           <t>Flame Seedless</t>
         </is>
       </c>
-      <c r="L597" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="M597" t="n">
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M601" t="n">
         <v>50</v>
       </c>
-      <c r="N597" t="n">
+      <c r="N601" t="n">
         <v>20000</v>
       </c>
-      <c r="O597" t="n">
+      <c r="O601" t="n">
         <v>20000</v>
       </c>
-      <c r="P597" t="n">
+      <c r="P601" t="n">
         <v>20000</v>
       </c>
-      <c r="Q597" t="inlineStr">
+      <c r="Q601" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R597" t="inlineStr">
+      <c r="R601" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="S597" t="n">
+      <c r="S601" t="n">
         <v>2000</v>
       </c>
-      <c r="T597" t="n">
+      <c r="T601" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T617"/>
+  <dimension ref="A1:T619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44411</v>
+        <v>44636</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35804,20 +35804,20 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N443" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O443" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P443" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35826,10 +35826,10 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="T443" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44281</v>
+        <v>44636</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N444" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O444" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P444" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T444" t="n">
         <v>15</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44281</v>
+        <v>44411</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,16 +35964,16 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N445" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O445" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P445" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T445" t="n">
         <v>15</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44252</v>
+        <v>44281</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36044,7 +36044,7 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N446" t="n">
         <v>11000</v>
@@ -36062,7 +36062,7 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S446" t="n">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44252</v>
+        <v>44281</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36127,29 +36127,29 @@
         <v>68</v>
       </c>
       <c r="N447" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O447" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P447" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T447" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="448">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N448" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P448" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T448" t="n">
         <v>15</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44271</v>
+        <v>44252</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,32 +36284,32 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N449" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O449" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P449" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>733</v>
+        <v>1200</v>
       </c>
       <c r="T449" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44271</v>
+        <v>44252</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36367,13 +36367,13 @@
         <v>75</v>
       </c>
       <c r="N450" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O450" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P450" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36382,11 +36382,11 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T450" t="n">
         <v>15</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44420</v>
+        <v>44271</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,20 +36444,20 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N451" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O451" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P451" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,10 +36466,10 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1333</v>
+        <v>733</v>
       </c>
       <c r="T451" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44554</v>
+        <v>44271</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,32 +36524,32 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N452" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O452" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P452" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="T452" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="453">
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44554</v>
+        <v>44420</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,32 +36604,32 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N453" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O453" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P453" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>1400</v>
+        <v>1333</v>
       </c>
       <c r="T453" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44343</v>
+        <v>44554</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N454" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O454" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P454" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36702,11 +36702,11 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S454" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T454" t="n">
         <v>10</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44343</v>
+        <v>44554</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="N455" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O455" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P455" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36782,11 +36782,11 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T455" t="n">
         <v>10</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,16 +36844,16 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N456" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O456" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P456" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36862,11 +36862,11 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T456" t="n">
         <v>10</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,20 +36924,20 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N457" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O457" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P457" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T457" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,32 +37004,32 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N458" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O458" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P458" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>667</v>
+        <v>1400</v>
       </c>
       <c r="T458" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="459">
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37084,7 +37084,7 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N459" t="n">
         <v>13000</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44568</v>
+        <v>44315</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37164,32 +37164,32 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="N460" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O460" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P460" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T460" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44568</v>
+        <v>44315</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,32 +37244,32 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N461" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O461" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P461" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>1400</v>
+        <v>867</v>
       </c>
       <c r="T461" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44336</v>
+        <v>44568</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,32 +37324,32 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N462" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O462" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P462" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T462" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463">
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44336</v>
+        <v>44568</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37404,32 +37404,32 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N463" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O463" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P463" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S463" t="n">
-        <v>667</v>
+        <v>1400</v>
       </c>
       <c r="T463" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464">
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N464" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O464" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P464" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37502,11 +37502,11 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T464" t="n">
         <v>15</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44565</v>
+        <v>44336</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37564,32 +37564,32 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="N465" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O465" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P465" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T465" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="466">
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44565</v>
+        <v>44336</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,7 +37644,7 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N466" t="n">
         <v>14000</v>
@@ -37657,19 +37657,19 @@
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>1400</v>
+        <v>933</v>
       </c>
       <c r="T466" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="467">
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44400</v>
+        <v>44565</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37724,32 +37724,32 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N467" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O467" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P467" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T467" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44627</v>
+        <v>44565</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,32 +37804,32 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N468" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O468" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P468" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T468" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44627</v>
+        <v>44400</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37884,20 +37884,20 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N469" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O469" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P469" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
@@ -37906,10 +37906,10 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T469" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470">
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37964,20 +37964,20 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N470" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O470" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P470" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
@@ -37986,10 +37986,10 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T470" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="471">
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,20 +38044,20 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N471" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O471" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P471" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R471" t="inlineStr">
@@ -38066,10 +38066,10 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="T471" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="472">
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44536</v>
+        <v>44627</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,29 +38124,29 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="N472" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O472" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P472" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S472" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T472" t="n">
         <v>10</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44536</v>
+        <v>44627</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,32 +38204,32 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="N473" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O473" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P473" t="n">
-        <v>22444</v>
+        <v>13000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>2244</v>
+        <v>867</v>
       </c>
       <c r="T473" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="474">
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="N474" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O474" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P474" t="n">
-        <v>22548</v>
+        <v>14000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>2255</v>
+        <v>1400</v>
       </c>
       <c r="T474" t="n">
         <v>10</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44334</v>
+        <v>44536</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,32 +38364,32 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N475" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O475" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P475" t="n">
-        <v>12000</v>
+        <v>22444</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S475" t="n">
-        <v>800</v>
+        <v>2244</v>
       </c>
       <c r="T475" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="476">
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44334</v>
+        <v>44536</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,32 +38444,32 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="N476" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O476" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="P476" t="n">
-        <v>11000</v>
+        <v>22548</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>733</v>
+        <v>2255</v>
       </c>
       <c r="T476" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="477">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44193</v>
+        <v>44334</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,7 +38524,7 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N477" t="n">
         <v>12000</v>
@@ -38542,7 +38542,7 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S477" t="n">
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44193</v>
+        <v>44334</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38604,32 +38604,32 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N478" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O478" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P478" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1400</v>
+        <v>733</v>
       </c>
       <c r="T478" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="479">
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,7 +38684,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N479" t="n">
         <v>12000</v>
@@ -38697,7 +38697,7 @@
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
@@ -38706,10 +38706,10 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T479" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="480">
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N480" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O480" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P480" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38782,11 +38782,11 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T480" t="n">
         <v>10</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N481" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O481" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P481" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T481" t="n">
         <v>10</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44573</v>
+        <v>44193</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,7 +38924,7 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N482" t="n">
         <v>13000</v>
@@ -38942,7 +38942,7 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S482" t="n">
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N483" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O483" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P483" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39022,11 +39022,11 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T483" t="n">
         <v>10</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N484" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O484" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P484" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39102,11 +39102,11 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S484" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T484" t="n">
         <v>10</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44319</v>
+        <v>44573</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,32 +39164,32 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N485" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O485" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P485" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="T485" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="486">
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44319</v>
+        <v>44573</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,32 +39244,32 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N486" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P486" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T486" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="487">
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N487" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O487" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P487" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39342,11 +39342,11 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T487" t="n">
         <v>15</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N488" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O488" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P488" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T488" t="n">
         <v>15</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44280</v>
+        <v>44319</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39484,7 +39484,7 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N489" t="n">
         <v>12000</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,16 +39564,16 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N490" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O490" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P490" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T490" t="n">
         <v>15</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39644,7 +39644,7 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N491" t="n">
         <v>12000</v>
@@ -39662,7 +39662,7 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S491" t="n">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,16 +39724,16 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N492" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O492" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P492" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T492" t="n">
         <v>15</v>
@@ -39795,7 +39795,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -39804,16 +39804,16 @@
         </is>
       </c>
       <c r="M493" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N493" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O493" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P493" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T493" t="n">
         <v>15</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N495" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O495" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P495" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T495" t="n">
         <v>15</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44567</v>
+        <v>44365</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,32 +40044,32 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N496" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O496" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P496" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T496" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44567</v>
+        <v>44365</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,32 +40124,32 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N497" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O497" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P497" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T497" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="498">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44357</v>
+        <v>44567</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,32 +40204,32 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N498" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O498" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P498" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T498" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="499">
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44357</v>
+        <v>44567</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,32 +40284,32 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="N499" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O499" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P499" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T499" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="500">
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N500" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O500" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P500" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40382,11 +40382,11 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T500" t="n">
         <v>15</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -40444,32 +40444,32 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="N501" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O501" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P501" t="n">
-        <v>10476</v>
+        <v>12000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>1048</v>
+        <v>800</v>
       </c>
       <c r="T501" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="502">
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44581</v>
+        <v>44357</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,20 +40524,20 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="N502" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O502" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P502" t="n">
-        <v>10515</v>
+        <v>14000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
@@ -40546,10 +40546,10 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>1052</v>
+        <v>933</v>
       </c>
       <c r="T502" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="503">
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40604,7 +40604,7 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="N503" t="n">
         <v>10000</v>
@@ -40613,7 +40613,7 @@
         <v>11000</v>
       </c>
       <c r="P503" t="n">
-        <v>10558</v>
+        <v>10476</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="T503" t="n">
         <v>10</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40675,7 +40675,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="N504" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O504" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P504" t="n">
-        <v>14000</v>
+        <v>10515</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40702,11 +40702,11 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>1400</v>
+        <v>1052</v>
       </c>
       <c r="T504" t="n">
         <v>10</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44537</v>
+        <v>44581</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="N505" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O505" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P505" t="n">
-        <v>22000</v>
+        <v>10558</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>2200</v>
+        <v>1056</v>
       </c>
       <c r="T505" t="n">
         <v>10</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N506" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O506" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P506" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="T506" t="n">
         <v>10</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="N507" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O507" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P507" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="T507" t="n">
         <v>10</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44553</v>
+        <v>44537</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="N508" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O508" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P508" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="T508" t="n">
         <v>10</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44397</v>
+        <v>44553</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,32 +41084,32 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="N509" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O509" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P509" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T509" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="510">
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44397</v>
+        <v>44553</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,32 +41164,32 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="N510" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O510" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P510" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>867</v>
+        <v>1400</v>
       </c>
       <c r="T510" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="511">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44329</v>
+        <v>44397</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Moscatel blanca</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N511" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O511" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P511" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41262,11 +41262,11 @@
       </c>
       <c r="R511" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S511" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T511" t="n">
         <v>15</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44329</v>
+        <v>44397</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N512" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O512" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P512" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T512" t="n">
         <v>15</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Moscatel blanca</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N513" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O513" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P513" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T513" t="n">
         <v>15</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44208</v>
+        <v>44329</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N514" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O514" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P514" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41502,11 +41502,11 @@
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T514" t="n">
         <v>15</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44208</v>
+        <v>44329</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N515" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O515" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P515" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="T515" t="n">
         <v>15</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44355</v>
+        <v>44208</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N516" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O516" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P516" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41662,11 +41662,11 @@
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S516" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T516" t="n">
         <v>15</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44294</v>
+        <v>44208</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="N517" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O517" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P517" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41742,11 +41742,11 @@
       </c>
       <c r="R517" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S517" t="n">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="T517" t="n">
         <v>15</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41804,7 +41804,7 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N518" t="n">
         <v>12000</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N519" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O519" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P519" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T519" t="n">
         <v>15</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,32 +41964,32 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N520" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O520" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P520" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T520" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="521">
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N521" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O521" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P521" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42062,11 +42062,11 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T521" t="n">
         <v>15</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,32 +42124,32 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N522" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O522" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P522" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T522" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="523">
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42204,7 +42204,7 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="N523" t="n">
         <v>12000</v>
@@ -42217,19 +42217,19 @@
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T523" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="524">
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="N524" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O524" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P524" t="n">
-        <v>13538</v>
+        <v>12000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>903</v>
+        <v>800</v>
       </c>
       <c r="T524" t="n">
         <v>15</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -42364,32 +42364,32 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N525" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O525" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P525" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T525" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="526">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,32 +42444,32 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="N526" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O526" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P526" t="n">
-        <v>15000</v>
+        <v>13538</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1500</v>
+        <v>903</v>
       </c>
       <c r="T526" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="527">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -42524,32 +42524,32 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N527" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O527" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P527" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="T527" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42607,29 +42607,29 @@
         <v>60</v>
       </c>
       <c r="N528" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O528" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P528" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="T528" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="529">
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44396</v>
+        <v>44264</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,7 +42684,7 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N529" t="n">
         <v>9000</v>
@@ -42697,7 +42697,7 @@
       </c>
       <c r="Q529" t="inlineStr">
         <is>
-          <t>$/bandeja 9 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R529" t="inlineStr">
@@ -42706,10 +42706,10 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T529" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="530">
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44396</v>
+        <v>44264</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N530" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O530" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P530" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T530" t="n">
         <v>15</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,20 +42844,20 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N531" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O531" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P531" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 9 kilos</t>
         </is>
       </c>
       <c r="R531" t="inlineStr">
@@ -42866,10 +42866,10 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T531" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="532">
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,7 +42924,7 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N532" t="n">
         <v>13000</v>
@@ -42942,7 +42942,7 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S532" t="n">
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N533" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O533" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P533" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T533" t="n">
         <v>15</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N534" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O534" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P534" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43102,11 +43102,11 @@
       </c>
       <c r="R534" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S534" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T534" t="n">
         <v>15</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M535" t="n">
         <v>70</v>
       </c>
       <c r="N535" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O535" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P535" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43186,7 +43186,7 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T535" t="n">
         <v>15</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N536" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O536" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P536" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T536" t="n">
         <v>15</v>
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43324,16 +43324,16 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N537" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O537" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P537" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="T537" t="n">
         <v>15</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N538" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O538" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P538" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T538" t="n">
         <v>15</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -43475,25 +43475,25 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N539" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="O539" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="P539" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43506,7 +43506,7 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>733</v>
+        <v>567</v>
       </c>
       <c r="T539" t="n">
         <v>15</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44572</v>
+        <v>44330</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -43555,7 +43555,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -43564,7 +43564,7 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N540" t="n">
         <v>13000</v>
@@ -43577,19 +43577,19 @@
       </c>
       <c r="Q540" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R540" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1300</v>
+        <v>867</v>
       </c>
       <c r="T540" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="541">
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44572</v>
+        <v>44330</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,32 +43644,32 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N541" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O541" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P541" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R541" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S541" t="n">
-        <v>1200</v>
+        <v>733</v>
       </c>
       <c r="T541" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="542">
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -43724,32 +43724,32 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N542" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O542" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P542" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R542" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S542" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="T542" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="543">
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E543" t="n">
         <v>5</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,32 +43804,32 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N543" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O543" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P543" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S543" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T543" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="544">
@@ -43875,25 +43875,25 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N544" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O544" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P544" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T544" t="n">
         <v>15</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E545" t="n">
         <v>5</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,16 +43964,16 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N545" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O545" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P545" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         </is>
       </c>
       <c r="S545" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T545" t="n">
         <v>15</v>
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E546" t="n">
         <v>5</v>
@@ -44035,25 +44035,25 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M546" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N546" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O546" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P546" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44066,7 +44066,7 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T546" t="n">
         <v>15</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N547" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O547" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P547" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T547" t="n">
         <v>15</v>
@@ -44195,7 +44195,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -44204,7 +44204,7 @@
         </is>
       </c>
       <c r="M548" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N548" t="n">
         <v>13000</v>
@@ -44222,7 +44222,7 @@
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S548" t="n">
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44287,13 +44287,13 @@
         <v>85</v>
       </c>
       <c r="N549" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O549" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P549" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T549" t="n">
         <v>15</v>
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E550" t="n">
         <v>5</v>
@@ -44355,7 +44355,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -44364,16 +44364,16 @@
         </is>
       </c>
       <c r="M550" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N550" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O550" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P550" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
@@ -44382,11 +44382,11 @@
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T550" t="n">
         <v>15</v>
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44200</v>
+        <v>44301</v>
       </c>
       <c r="E551" t="n">
         <v>5</v>
@@ -44435,7 +44435,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -44444,7 +44444,7 @@
         </is>
       </c>
       <c r="M551" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N551" t="n">
         <v>13000</v>
@@ -44462,7 +44462,7 @@
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S551" t="n">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44200</v>
+        <v>44370</v>
       </c>
       <c r="E552" t="n">
         <v>5</v>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44527,29 +44527,29 @@
         <v>60</v>
       </c>
       <c r="N552" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O552" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P552" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S552" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T552" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="553">
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44385</v>
+        <v>44200</v>
       </c>
       <c r="E553" t="n">
         <v>5</v>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -44604,7 +44604,7 @@
         </is>
       </c>
       <c r="M553" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N553" t="n">
         <v>13000</v>
@@ -44622,7 +44622,7 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S553" t="n">
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44385</v>
+        <v>44200</v>
       </c>
       <c r="E554" t="n">
         <v>5</v>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44684,7 +44684,7 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N554" t="n">
         <v>13000</v>
@@ -44697,19 +44697,19 @@
       </c>
       <c r="Q554" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R554" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S554" t="n">
-        <v>867</v>
+        <v>1300</v>
       </c>
       <c r="T554" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="555">
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44236</v>
+        <v>44385</v>
       </c>
       <c r="E555" t="n">
         <v>5</v>
@@ -44755,7 +44755,7 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
@@ -44764,7 +44764,7 @@
         </is>
       </c>
       <c r="M555" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N555" t="n">
         <v>13000</v>
@@ -44782,7 +44782,7 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S555" t="n">
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44236</v>
+        <v>44385</v>
       </c>
       <c r="E556" t="n">
         <v>5</v>
@@ -44835,25 +44835,25 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="N556" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O556" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P556" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44862,11 +44862,11 @@
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T556" t="n">
         <v>15</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E557" t="n">
         <v>5</v>
@@ -44915,7 +44915,7 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N557" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O557" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P557" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T557" t="n">
         <v>15</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E558" t="n">
         <v>5</v>
@@ -44995,29 +44995,29 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N558" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O558" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P558" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R558" t="inlineStr">
@@ -45026,10 +45026,10 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>1500</v>
+        <v>667</v>
       </c>
       <c r="T558" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="559">
@@ -45075,25 +45075,25 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Sultanina</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N559" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O559" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P559" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
@@ -45106,7 +45106,7 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T559" t="n">
         <v>15</v>
@@ -45155,7 +45155,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -45164,32 +45164,32 @@
         </is>
       </c>
       <c r="M560" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N560" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O560" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P560" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R560" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S560" t="n">
-        <v>867</v>
+        <v>1500</v>
       </c>
       <c r="T560" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="561">
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44413</v>
+        <v>44221</v>
       </c>
       <c r="E561" t="n">
         <v>5</v>
@@ -45235,16 +45235,16 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Sultanina</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="N561" t="n">
         <v>10000</v>
@@ -45257,19 +45257,19 @@
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T561" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="562">
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44272</v>
+        <v>44221</v>
       </c>
       <c r="E562" t="n">
         <v>5</v>
@@ -45315,7 +45315,7 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -45324,16 +45324,16 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N562" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O562" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P562" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T562" t="n">
         <v>15</v>
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44272</v>
+        <v>44413</v>
       </c>
       <c r="E563" t="n">
         <v>5</v>
@@ -45395,7 +45395,7 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
@@ -45404,7 +45404,7 @@
         </is>
       </c>
       <c r="M563" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N563" t="n">
         <v>10000</v>
@@ -45417,7 +45417,7 @@
       </c>
       <c r="Q563" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R563" t="inlineStr">
@@ -45426,10 +45426,10 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T563" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="564">
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44229</v>
+        <v>44272</v>
       </c>
       <c r="E564" t="n">
         <v>5</v>
@@ -45475,7 +45475,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
@@ -45484,16 +45484,16 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="N564" t="n">
         <v>11000</v>
       </c>
       <c r="O564" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P564" t="n">
-        <v>11527</v>
+        <v>11000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>768</v>
+        <v>733</v>
       </c>
       <c r="T564" t="n">
         <v>15</v>
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E565" t="n">
         <v>5</v>
@@ -45555,7 +45555,7 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
@@ -45564,7 +45564,7 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N565" t="n">
         <v>10000</v>
@@ -45582,7 +45582,7 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S565" t="n">
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44214</v>
+        <v>44229</v>
       </c>
       <c r="E566" t="n">
         <v>5</v>
@@ -45635,7 +45635,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -45644,16 +45644,16 @@
         </is>
       </c>
       <c r="M566" t="n">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="N566" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O566" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P566" t="n">
-        <v>16000</v>
+        <v>11527</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45662,11 +45662,11 @@
       </c>
       <c r="R566" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1067</v>
+        <v>768</v>
       </c>
       <c r="T566" t="n">
         <v>15</v>
@@ -45715,25 +45715,25 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N567" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O567" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P567" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T567" t="n">
         <v>15</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44299</v>
+        <v>44214</v>
       </c>
       <c r="E568" t="n">
         <v>5</v>
@@ -45804,16 +45804,16 @@
         </is>
       </c>
       <c r="M568" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N568" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O568" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P568" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45822,11 +45822,11 @@
       </c>
       <c r="R568" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S568" t="n">
-        <v>733</v>
+        <v>1067</v>
       </c>
       <c r="T568" t="n">
         <v>15</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44299</v>
+        <v>44214</v>
       </c>
       <c r="E569" t="n">
         <v>5</v>
@@ -45875,25 +45875,25 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N569" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O569" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P569" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T569" t="n">
         <v>15</v>
@@ -45955,7 +45955,7 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
@@ -45964,16 +45964,16 @@
         </is>
       </c>
       <c r="M570" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N570" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O570" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P570" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T570" t="n">
         <v>15</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44610</v>
+        <v>44299</v>
       </c>
       <c r="E571" t="n">
         <v>5</v>
@@ -46035,7 +46035,7 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
@@ -46044,32 +46044,32 @@
         </is>
       </c>
       <c r="M571" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N571" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O571" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P571" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T571" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="572">
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44610</v>
+        <v>44299</v>
       </c>
       <c r="E572" t="n">
         <v>5</v>
@@ -46115,7 +46115,7 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
@@ -46127,13 +46127,13 @@
         <v>75</v>
       </c>
       <c r="N572" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O572" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P572" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
@@ -46146,7 +46146,7 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T572" t="n">
         <v>15</v>
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E573" t="n">
         <v>5</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46207,17 +46207,17 @@
         <v>85</v>
       </c>
       <c r="N573" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O573" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P573" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R573" t="inlineStr">
@@ -46226,10 +46226,10 @@
         </is>
       </c>
       <c r="S573" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T573" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="574">
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E574" t="n">
         <v>5</v>
@@ -46275,7 +46275,7 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
@@ -46284,16 +46284,16 @@
         </is>
       </c>
       <c r="M574" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N574" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O574" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P574" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T574" t="n">
         <v>15</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,7 +46364,7 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N575" t="n">
         <v>13000</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N576" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O576" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P576" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T576" t="n">
         <v>15</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E577" t="n">
         <v>5</v>
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46524,20 +46524,20 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N577" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O577" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P577" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R577" t="inlineStr">
@@ -46546,10 +46546,10 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T577" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="578">
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E578" t="n">
         <v>5</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46604,20 +46604,20 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N578" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O578" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P578" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R578" t="inlineStr">
@@ -46629,7 +46629,7 @@
         <v>1000</v>
       </c>
       <c r="T578" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="579">
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E579" t="n">
         <v>5</v>
@@ -46675,7 +46675,7 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -46684,20 +46684,20 @@
         </is>
       </c>
       <c r="M579" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="N579" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O579" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P579" t="n">
-        <v>13520</v>
+        <v>10000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R579" t="inlineStr">
@@ -46706,10 +46706,10 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>901</v>
+        <v>1000</v>
       </c>
       <c r="T579" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="580">
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44543</v>
+        <v>44615</v>
       </c>
       <c r="E580" t="n">
         <v>5</v>
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46764,32 +46764,32 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N580" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O580" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P580" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S580" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T580" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="581">
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44543</v>
+        <v>44615</v>
       </c>
       <c r="E581" t="n">
         <v>5</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
@@ -46844,32 +46844,32 @@
         </is>
       </c>
       <c r="M581" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N581" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O581" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P581" t="n">
-        <v>20000</v>
+        <v>13520</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R581" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S581" t="n">
-        <v>2000</v>
+        <v>901</v>
       </c>
       <c r="T581" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="582">
@@ -46915,7 +46915,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -46924,16 +46924,16 @@
         </is>
       </c>
       <c r="M582" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N582" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O582" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P582" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="T582" t="n">
         <v>10</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E583" t="n">
         <v>5</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,7 +47004,7 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N583" t="n">
         <v>20000</v>
@@ -47017,19 +47017,19 @@
       </c>
       <c r="Q583" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>1333</v>
+        <v>2000</v>
